--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="700" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="2740" yWindow="800" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,655 +21,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="258">
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/dcat#</t>
-  </si>
-  <si>
-    <t>csvm</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/csvm#</t>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <t>gldp</t>
-  </si>
-  <si>
-    <t>cnt</t>
-  </si>
-  <si>
-    <t>earl</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>ptr</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>http://purl.org/linked-data/cube#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2003/g/data-view#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/ma-ont#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/org#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/prov#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/rdfa#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2000/01/rdf-schema#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/rif#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/r2rml#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/sparql-service-description#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2008/05/skos-xl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/05/powder#</t>
-  </si>
-  <si>
-    <t>http://rdfs.org/ns/void#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/05/powder-s#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/xhtml/vocab#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/XML/1998/namespace</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2001/XMLSchema#</t>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/people#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2008/content#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/earl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/http#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2009/pointers#</t>
-  </si>
-  <si>
-    <t>http://creativecommons.org/ns#</t>
-  </si>
-  <si>
-    <t>http://commontag.org/ns#</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/elements/1.1/</t>
-  </si>
-  <si>
-    <t>http://xmlns.com/foaf/0.1/</t>
-  </si>
-  <si>
-    <t>http://purl.org/goodrelations/v1#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-  </si>
-  <si>
-    <t>http://ogp.me/ns#</t>
-  </si>
-  <si>
-    <t>http://purl.org/stuff/rev#</t>
-  </si>
-  <si>
-    <t>http://rdfs.org/sioc/ns#</t>
-  </si>
-  <si>
-    <t>http://rdf.data-vocabulary.org/#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/vcard/ns#</t>
-  </si>
-  <si>
-    <t>http://schema.org/</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>default direction</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>Indicates to use the default text direction.</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvm:rtl csvm:ltr or csvm:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \.</t>
-  </si>
-  <si>
-    <t>delimieter</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is #.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header rows (following the skipped rows) in the file. The default is 1.
-</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ,.</t>
+    <t>The separator between cells. The default is ",".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
 </t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>If included, the format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web. If the source property is missing or null then the source of the transformation is the annotated tabular data model.</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvm:rtl or csvm:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell. If null or unspecified, the cell does not contain a list. Otherwise, application must split the string value of the cell on the specified separator character and parse each of the resulting strings separately. The cell's value will then be a list. Conversion specifications must use the separator to determine the conversion of a cell into the target format. See 3.12 Parsing cells for more details.</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>csvm:minInclusive</t>
+  </si>
+  <si>
+    <t>csvm:maxInclusive</t>
   </si>
   <si>
     <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables. A foreign key definition is a JSON object with the properties:
@@ -745,47 +154,82 @@
     <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
   </si>
   <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvm:rtl or csvm:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell. If null or unspecified, the cell does not contain a list. Otherwise, application must split the string value of the cell on the specified separator character and parse each of the resulting strings separately. The cell's value will then be a list. Conversion specifications must use the separator to determine the conversion of a cell into the target format. See 3.12 Parsing cells for more details.</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>csvm:minInclusive</t>
-  </si>
-  <si>
-    <t>csvm:maxInclusive</t>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>If included, the format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web. If the source property is missing or null then the source of the transformation is the annotated tabular data model.</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
   </si>
   <si>
     <t>The minimum value for the cell (inclusive).</t>
@@ -797,23 +241,581 @@
     <t>The minimum value for the cell (exclusive).</t>
   </si>
   <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \.</t>
+  </si>
+  <si>
+    <t>delimieter</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>default direction</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>Indicates to use the default text direction.</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/dcat#</t>
+  </si>
+  <si>
+    <t>csvm</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/csvm#</t>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvm:rtl csvm:ltr or csvm:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>gldp</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>earl</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ptr</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>http://purl.org/linked-data/cube#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2003/g/data-view#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/ma-ont#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/prov#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/rdfa#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/rif#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/r2rml#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/sparql-service-description#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2008/05/skos-xl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/05/powder#</t>
+  </si>
+  <si>
+    <t>http://rdfs.org/ns/void#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/05/powder-s#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/xhtml/vocab#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/XML/1998/namespace</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/people#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2008/content#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/earl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/http#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2009/pointers#</t>
+  </si>
+  <si>
+    <t>http://creativecommons.org/ns#</t>
+  </si>
+  <si>
+    <t>http://commontag.org/ns#</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/</t>
+  </si>
+  <si>
+    <t>http://purl.org/goodrelations/v1#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+  </si>
+  <si>
+    <t>http://ogp.me/ns#</t>
+  </si>
+  <si>
+    <t>http://purl.org/stuff/rev#</t>
+  </si>
+  <si>
+    <t>http://rdfs.org/sioc/ns#</t>
+  </si>
+  <si>
+    <t>http://rdf.data-vocabulary.org/#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/vcard/ns#</t>
+  </si>
+  <si>
+    <t>http://schema.org/</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -852,6 +854,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -870,52 +876,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -928,51 +896,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1297,15 +1227,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104:D105"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
@@ -1314,1578 +1244,1566 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G46" t="str">
         <f>"@list"</f>
         <v>@list</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="60">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="60">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" t="str">
-        <f>"@vocab"</f>
-        <v>@vocab</v>
+        <v>89</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="409">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
         <v>130</v>
       </c>
-      <c r="C56" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30">
-      <c r="A57" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" t="s">
-        <v>144</v>
-      </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="75">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="45">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="135">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="45">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="135">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="180">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="75">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
-      </c>
-      <c r="G82" t="str">
-        <f>"@vocab"</f>
-        <v>@vocab</v>
+        <v>118</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="120">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="120">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="45">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="45">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" t="str">
-        <f>"@vocab"</f>
-        <v>@vocab</v>
+        <v>118</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="135">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="G87" t="str">
         <f>"@list"</f>
         <v>@list</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="75">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C92" t="s">
-        <v>132</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="45">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" t="s">
-        <v>102</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="120">
+    </row>
+    <row r="94" spans="1:8" ht="30">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="120">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="135">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="30">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D101" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D104" t="s">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D106" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2893,6 +2811,7 @@
     <sortCondition ref="B2:B109"/>
     <sortCondition ref="A2:A109"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1"/>
     <hyperlink ref="D26" r:id="rId2"/>
@@ -2937,9 +2856,8 @@
     <hyperlink ref="D33" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="800" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="1380" yWindow="1300" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="258">
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="264">
   <si>
     <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
 </t>
@@ -151,6 +147,10 @@
     <t>Template,Column</t>
   </si>
   <si>
+    <t>The separator between cells. The default is ",".</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
   </si>
   <si>
@@ -346,6 +346,10 @@
     <t>commentPrefix</t>
   </si>
   <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>datatype</t>
   </si>
   <si>
@@ -676,6 +680,14 @@
     <t>http://purl.org/linked-data/cube#</t>
   </si>
   <si>
+    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.w3.org/2003/g/data-view#</t>
   </si>
   <si>
@@ -688,9 +700,6 @@
     <t>http://www.w3.org/2002/07/owl#</t>
   </si>
   <si>
-    <t>container</t>
-  </si>
-  <si>
     <t>http://www.w3.org/ns/prov#</t>
   </si>
   <si>
@@ -809,13 +818,35 @@
   </si>
   <si>
     <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>predicateUrl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicate URL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,6 +889,19 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -881,7 +925,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -895,6 +939,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1228,545 +1274,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="43.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>"@type"</f>
+        <v>@type</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>"@container"</f>
+        <v>@container</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>196</v>
       </c>
-      <c r="B6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>211</v>
       </c>
-      <c r="B33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>210</v>
-      </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
         <v>189</v>
       </c>
-      <c r="B40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>188</v>
-      </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>101</v>
@@ -1777,500 +1831,513 @@
       <c r="F46" t="s">
         <v>92</v>
       </c>
-      <c r="G46" t="str">
+      <c r="H46" t="str">
         <f>"@list"</f>
         <v>@list</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="J46" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="60">
+    <row r="47" spans="1:10" ht="60">
       <c r="A47" t="s">
         <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
         <v>89</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="60">
+      <c r="J47" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="60">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="J48" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
         <v>89</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="45">
+      <c r="G50" s="8"/>
+      <c r="J50" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
+        <v>114</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
         <v>89</v>
       </c>
-      <c r="F52" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30">
+      <c r="J52" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="409">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="409">
+        <v>91</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30">
       <c r="A54" t="s">
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30">
+        <v>109</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
         <v>89</v>
       </c>
       <c r="F56" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="30">
+      <c r="A57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="45">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
         <v>89</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30">
+        <v>149</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" t="s">
+        <v>149</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30">
+      <c r="A60" t="s">
         <v>116</v>
       </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
         <v>89</v>
       </c>
-      <c r="F58" t="s">
-        <v>148</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30">
-      <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="J60" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="J61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F64" t="s">
-        <v>148</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="J64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="F66" t="s">
+        <v>149</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="75">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
         <v>92</v>
       </c>
-      <c r="F67" t="s">
-        <v>148</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="75">
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="30">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" t="s">
         <v>92</v>
       </c>
-      <c r="H68" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="45">
-      <c r="A69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30">
+      <c r="J69" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="45">
+        <v>263</v>
+      </c>
+      <c r="F70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" t="s">
         <v>91</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
         <v>89</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:10" ht="30">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30">
+        <v>114</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
         <v>86</v>
@@ -2278,19 +2345,26 @@
       <c r="F74" t="s">
         <v>88</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" t="str">
+        <f>"@set"</f>
+        <v>@set</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="45">
+    <row r="75" spans="1:10" ht="45">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
         <v>64</v>
@@ -2298,187 +2372,191 @@
       <c r="F75" t="s">
         <v>91</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="135">
+    <row r="76" spans="1:10" ht="135">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="45">
+      <c r="J76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
         <v>89</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
-      </c>
-      <c r="H77" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="45">
+    <row r="78" spans="1:10" ht="45">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
         <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
-      </c>
-      <c r="H78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J78" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
         <v>89</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
-      </c>
-      <c r="H79" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30">
+    <row r="80" spans="1:10" ht="30">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
         <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="180">
+    <row r="81" spans="1:10" ht="180">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
         <v>90</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="75">
+    <row r="82" spans="1:10" ht="75">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
         <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="120">
+        <v>119</v>
+      </c>
+      <c r="G82" t="str">
+        <f>"@vocab"</f>
+        <v>@vocab</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="120">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
         <v>90</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="J83" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="120">
+    <row r="84" spans="1:10" ht="120">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
         <v>90</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="45">
+    <row r="85" spans="1:10" ht="45">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
         <v>64</v>
@@ -2486,89 +2564,93 @@
       <c r="F85" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="J85" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45">
+    <row r="86" spans="1:10" ht="45">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
         <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="135">
+        <v>119</v>
+      </c>
+      <c r="G86" t="str">
+        <f>"@vocab"</f>
+        <v>@vocab</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="135">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" t="str">
-        <f>"@list"</f>
-        <v>@list</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30">
+        <v>36</v>
+      </c>
+      <c r="H87" t="str">
+        <f>"@language"</f>
+        <v>@language</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E88" t="s">
         <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="45">
+        <v>114</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="45">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
       </c>
-      <c r="H89" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="J89" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2578,11 +2660,11 @@
       <c r="C90" t="s">
         <v>100</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="J90" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30">
+    <row r="91" spans="1:10" ht="30">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2590,27 +2672,27 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>256</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
         <v>87</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
-      </c>
-      <c r="H92" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="30">
+      <c r="J92" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="30">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2620,11 +2702,11 @@
       <c r="C93" t="s">
         <v>91</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="J93" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30">
+    <row r="94" spans="1:10" ht="30">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2634,11 +2716,11 @@
       <c r="C94" t="s">
         <v>94</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="J94" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30">
+    <row r="95" spans="1:10" ht="30">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -2648,11 +2730,11 @@
       <c r="C95" t="s">
         <v>93</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45">
+      <c r="J95" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -2660,13 +2742,13 @@
         <v>87</v>
       </c>
       <c r="C96" t="s">
-        <v>256</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>55</v>
       </c>
@@ -2679,11 +2761,11 @@
       <c r="D97" t="s">
         <v>41</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="J97" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -2694,7 +2776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -2705,7 +2787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -2716,7 +2798,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -2727,7 +2809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>54</v>
       </c>
@@ -2738,7 +2820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -2749,31 +2831,31 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
         <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -2784,7 +2866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>84</v>
       </c>
@@ -2795,9 +2877,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
         <v>79</v>
@@ -2807,9 +2889,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H109">
-    <sortCondition ref="B2:B109"/>
-    <sortCondition ref="A2:A109"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A99:XFD109">
+    <sortCondition ref="A99:A109"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2856,6 +2938,7 @@
     <hyperlink ref="D33" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1300" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -839,14 +839,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -948,7 +942,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -1273,15 +1267,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
@@ -2889,7 +2883,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A99:XFD109">
     <sortCondition ref="A99:A109"/>
   </sortState>
@@ -2940,7 +2933,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="10620" yWindow="3900" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,42 +21,699 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="264">
   <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
+    <t>http://www.w3.org/ns/csvw#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+    <t>required</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+    <t>http://www.w3.org/2003/g/data-view#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/ma-ont#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/prov#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/rdfa#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/rif#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/r2rml#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/sparql-service-description#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2008/05/skos-xl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/05/powder#</t>
+  </si>
+  <si>
+    <t>http://rdfs.org/ns/void#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/05/powder-s#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/xhtml/vocab#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/XML/1998/namespace</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/people#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2008/content#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/earl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/http#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2009/pointers#</t>
+  </si>
+  <si>
+    <t>http://creativecommons.org/ns#</t>
+  </si>
+  <si>
+    <t>http://commontag.org/ns#</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/</t>
+  </si>
+  <si>
+    <t>http://purl.org/goodrelations/v1#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+  </si>
+  <si>
+    <t>http://ogp.me/ns#</t>
+  </si>
+  <si>
+    <t>http://purl.org/stuff/rev#</t>
+  </si>
+  <si>
+    <t>http://rdfs.org/sioc/ns#</t>
+  </si>
+  <si>
+    <t>http://rdf.data-vocabulary.org/#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/vcard/ns#</t>
+  </si>
+  <si>
+    <t>http://schema.org/</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>predicateUrl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvm:rtl or csvm:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell. If null or unspecified, the cell does not contain a list. Otherwise, application must split the string value of the cell on the specified separator character and parse each of the resulting strings separately. The cell's value will then be a list. Conversion specifications must use the separator to determine the conversion of a cell into the target format. See 3.12 Parsing cells for more details.</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicate URL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>default direction</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>Indicates to use the default text direction.</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/dcat#</t>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>gldp</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>earl</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ptr</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>http://purl.org/linked-data/cube#</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \.</t>
+  </si>
+  <si>
+    <t>delimieter</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>If included, the format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web. If the source property is missing or null then the source of the transformation is the annotated tabular data model.</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
   </si>
   <si>
     <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
@@ -69,12 +726,6 @@
   </si>
   <si>
     <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>csvm:minInclusive</t>
-  </si>
-  <si>
-    <t>csvm:maxInclusive</t>
   </si>
   <si>
     <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables. A foreign key definition is a JSON object with the properties:
@@ -151,696 +802,46 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>If included, the format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web. If the source property is missing or null then the source of the transformation is the annotated tabular data model.</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \.</t>
-  </si>
-  <si>
-    <t>delimieter</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>default direction</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>Indicates to use the default text direction.</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/dcat#</t>
-  </si>
-  <si>
-    <t>csvm</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/csvm#</t>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvm:rtl csvm:ltr or csvm:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <t>gldp</t>
-  </si>
-  <si>
-    <t>cnt</t>
-  </si>
-  <si>
-    <t>earl</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>ptr</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>http://purl.org/linked-data/cube#</t>
-  </si>
-  <si>
-    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>required</t>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.w3.org/2003/g/data-view#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/ma-ont#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/org#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/prov#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/rdfa#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2000/01/rdf-schema#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/rif#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/r2rml#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/sparql-service-description#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2008/05/skos-xl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/05/powder#</t>
-  </si>
-  <si>
-    <t>http://rdfs.org/ns/void#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/05/powder-s#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/xhtml/vocab#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/XML/1998/namespace</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2001/XMLSchema#</t>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/people#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2008/content#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/earl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/http#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2009/pointers#</t>
-  </si>
-  <si>
-    <t>http://creativecommons.org/ns#</t>
-  </si>
-  <si>
-    <t>http://commontag.org/ns#</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/elements/1.1/</t>
-  </si>
-  <si>
-    <t>http://xmlns.com/foaf/0.1/</t>
-  </si>
-  <si>
-    <t>http://purl.org/goodrelations/v1#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-  </si>
-  <si>
-    <t>http://ogp.me/ns#</t>
-  </si>
-  <si>
-    <t>http://purl.org/stuff/rev#</t>
-  </si>
-  <si>
-    <t>http://rdfs.org/sioc/ns#</t>
-  </si>
-  <si>
-    <t>http://rdf.data-vocabulary.org/#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/vcard/ns#</t>
-  </si>
-  <si>
-    <t>http://schema.org/</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>predicateUrl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>predicate URL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell. If null or unspecified, the cell does not contain a list. Otherwise, application must split the string value of the cell on the specified separator character and parse each of the resulting strings separately. The cell's value will then be a list. Conversion specifications must use the separator to determine the conversion of a cell into the target format. See 3.12 Parsing cells for more details.</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -896,6 +897,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -919,7 +927,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -935,6 +943,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -942,7 +951,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1267,15 +1276,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
@@ -1284,22 +1293,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -1310,1034 +1319,1034 @@
         <v>@container</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>124</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>246</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>241</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>250</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>251</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>234</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="H46" t="str">
         <f>"@list"</f>
         <v>@list</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="60">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="60">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="45">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="G50" s="8"/>
       <c r="J50" s="5" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="409">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F56" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>2</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J62" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="F63" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J64" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J65" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="F66" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="75">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>6</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="45">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>262</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>214</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>47</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>5</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="H74" t="str">
         <f>"@set"</f>
@@ -2347,539 +2356,539 @@
         <v>1</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="135">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F77" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="45">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F78" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F79" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F80" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="180">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="75">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="G82" t="str">
         <f>"@vocab"</f>
         <v>@vocab</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="120">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="E83" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="120">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="45">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="F86" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="G86" t="str">
         <f>"@vocab"</f>
         <v>@vocab</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="135">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="H87" t="str">
         <f>"@language"</f>
         <v>@language</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="F88" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="45">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="45">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D106" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2931,9 +2940,8 @@
     <hyperlink ref="D33" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="6800" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="6860" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,167 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="264">
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="272">
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>default</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>required</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.w3.org/2003/g/data-view#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/ma-ont#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/org#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/07/owl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/prov#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/rdfa#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2000/01/rdf-schema#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/rif#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/r2rml#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/sparql-service-description#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2008/05/skos-xl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/05/powder#</t>
-  </si>
-  <si>
-    <t>http://rdfs.org/ns/void#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2007/05/powder-s#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/1999/xhtml/vocab#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/XML/1998/namespace</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2001/XMLSchema#</t>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/people#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2008/content#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/earl#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/http#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2009/pointers#</t>
-  </si>
-  <si>
-    <t>http://creativecommons.org/ns#</t>
-  </si>
-  <si>
-    <t>http://commontag.org/ns#</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/terms/</t>
-  </si>
-  <si>
-    <t>http://purl.org/dc/elements/1.1/</t>
-  </si>
-  <si>
-    <t>http://xmlns.com/foaf/0.1/</t>
-  </si>
-  <si>
-    <t>http://purl.org/goodrelations/v1#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-  </si>
-  <si>
-    <t>http://ogp.me/ns#</t>
-  </si>
-  <si>
-    <t>http://purl.org/stuff/rev#</t>
-  </si>
-  <si>
-    <t>http://rdfs.org/sioc/ns#</t>
-  </si>
-  <si>
-    <t>http://rdf.data-vocabulary.org/#</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/vcard/ns#</t>
-  </si>
-  <si>
-    <t>http://schema.org/</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>predicateUrl</t>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>row</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -187,576 +39,40 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>predicate URL</t>
+    <t>rdfs:member</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Column</t>
+    <t>Table</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>csvw</t>
+    <t>Relates a Table to each Row output.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>xsd:anyURI</t>
+    <t>table</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/dcat#</t>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <t>gldp</t>
-  </si>
-  <si>
-    <t>cnt</t>
-  </si>
-  <si>
-    <t>earl</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>ptr</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/csvw#</t>
-  </si>
-  <si>
-    <t>http://purl.org/linked-data/cube#</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \.</t>
-  </si>
-  <si>
-    <t>delimieter</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
     <t>TableGroup</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>If included, the format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web. If the source property is missing or null then the source of the transformation is the annotated tabular data model.</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables. A foreign key definition is a JSON object with the properties:
-columns
-A column reference property that holds either a single reference to a column description object within this schema, or an array of references.
-reference
-An object with the properties:
-resource
-A URL that is the identifier for a specific resource that is being referenced. If this is present then schema must not be present. The metadata document must contain a description of the resource.
-schema
-A URL that is the identifier for a schema that is being referenced. If this is present then resource must not be present. The metadata document that forms the basis of processing must contain a description of a resource that uses the referenced schema, and there must not be more than one such resource.
-columns
-A column reference property that holds either a single reference to a column description object within this schema, or an array of references.</t>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>uri template</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A Column Description describes a single column.</t>
@@ -804,9 +120,6 @@
     <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
   </si>
   <si>
-    <t>The character used to separate items in the string value of the cell. If null or unspecified, the cell does not contain a list. Otherwise, application must split the string value of the cell on the specified separator character and parse each of the resulting strings separately. The cell's value will then be a list. Conversion specifications must use the separator to determine the conversion of a cell into the target format. See 3.12 Parsing cells for more details.</t>
-  </si>
-  <si>
     <t>A definition of the format of the cell, used when parsing the cell.</t>
   </si>
   <si>
@@ -834,10 +147,723 @@
     <t>xsd:base64Binary</t>
   </si>
   <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>uri template</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>gldp</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>earl</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ptr</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/csvw#</t>
+  </si>
+  <si>
+    <t>http://purl.org/linked-data/cube#</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>delimieter</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>http://purl.org/goodrelations/v1#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+  </si>
+  <si>
+    <t>http://ogp.me/ns#</t>
+  </si>
+  <si>
+    <t>http://purl.org/stuff/rev#</t>
+  </si>
+  <si>
+    <t>http://rdfs.org/sioc/ns#</t>
+  </si>
+  <si>
+    <t>http://rdf.data-vocabulary.org/#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/vcard/ns#</t>
+  </si>
+  <si>
+    <t>http://schema.org/</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>predicateUrl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicate URL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/dcat#</t>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.w3.org/2003/g/data-view#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/ma-ont#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2002/07/owl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/prov#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/rdfa#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/01/rdf-schema#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/rif#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/r2rml#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/sparql-service-description#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2008/05/skos-xl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/05/powder#</t>
+  </si>
+  <si>
+    <t>http://rdfs.org/ns/void#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2007/05/powder-s#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/xhtml/vocab#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/XML/1998/namespace</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/people#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2008/content#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/earl#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/http#</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2009/pointers#</t>
+  </si>
+  <si>
+    <t>http://creativecommons.org/ns#</t>
+  </si>
+  <si>
+    <t>http://commontag.org/ns#</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/</t>
+  </si>
+  <si>
+    <t>http://purl.org/dc/elements/1.1/</t>
+  </si>
+  <si>
+    <t>http://xmlns.com/foaf/0.1/</t>
   </si>
 </sst>
 </file>
@@ -1286,11 +1312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1302,22 +1328,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -1328,1037 +1354,1037 @@
         <v>@container</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="H45" t="str">
         <f>"@list"</f>
         <v>@list</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="60">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>245</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="60">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="75">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="E48" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="45">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="G50" s="8"/>
       <c r="J50" s="5" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="409">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>251</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="E59" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J61" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J62" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J64" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J65" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="75">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="45">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="F74" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="H74" t="str">
         <f>"@set"</f>
@@ -2368,542 +2394,594 @@
         <v>1</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" t="s">
-        <v>180</v>
+        <v>6</v>
+      </c>
+      <c r="H75" t="str">
+        <f>"@set"</f>
+        <v>@set</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="45">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="F76" t="s">
+        <v>125</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>178</v>
-      </c>
-      <c r="F77" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="45">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F78" t="s">
+        <v>158</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45">
+      <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" t="s">
+        <v>191</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80" t="s">
+        <v>158</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="30">
+      <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" t="s">
+        <v>191</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="135">
+      <c r="A82" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" t="s">
+        <v>124</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="60">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" t="str">
+        <f>"@set"</f>
+        <v>@set</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="75">
+      <c r="A84" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" t="s">
         <v>99</v>
       </c>
-      <c r="J78" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" t="s">
-        <v>227</v>
-      </c>
-      <c r="E79" t="s">
-        <v>178</v>
-      </c>
-      <c r="F79" t="s">
-        <v>66</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="30">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" t="s">
-        <v>228</v>
-      </c>
-      <c r="E80" t="s">
-        <v>178</v>
-      </c>
-      <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="180">
-      <c r="A81" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-      <c r="E81" t="s">
-        <v>179</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="75">
-      <c r="A82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" t="s">
-        <v>229</v>
-      </c>
-      <c r="E82" t="s">
-        <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>71</v>
-      </c>
-      <c r="G82" t="str">
+      <c r="F84" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" t="str">
         <f>"@vocab"</f>
         <v>@vocab</v>
       </c>
-      <c r="J82" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="120">
-      <c r="A83" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>231</v>
-      </c>
-      <c r="E83" t="s">
-        <v>179</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="120">
-      <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="J84" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="120">
+      <c r="A85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="120">
+      <c r="A86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45">
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" t="s">
+        <v>124</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="45">
+      <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" t="s">
         <v>232</v>
       </c>
-      <c r="E84" t="s">
-        <v>179</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="45">
-      <c r="A85" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" t="s">
-        <v>179</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="45">
-      <c r="A86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" t="s">
-        <v>230</v>
-      </c>
-      <c r="E86" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>71</v>
-      </c>
-      <c r="G86" t="str">
+      <c r="F88" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88" t="str">
         <f>"@vocab"</f>
         <v>@vocab</v>
       </c>
-      <c r="J86" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="135">
-      <c r="A87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" t="s">
-        <v>242</v>
-      </c>
-      <c r="H87" t="str">
+      <c r="J88" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="135">
+      <c r="A89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="str">
         <f>"@language"</f>
         <v>@language</v>
       </c>
-      <c r="J87" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30">
-      <c r="A88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" t="s">
-        <v>104</v>
-      </c>
-      <c r="E88" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" t="s">
-        <v>66</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="45">
-      <c r="A89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" t="s">
-        <v>233</v>
-      </c>
-      <c r="E89" t="s">
-        <v>180</v>
-      </c>
       <c r="J89" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="E90" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" t="s">
+        <v>158</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>58</v>
+      </c>
+      <c r="E91" t="s">
+        <v>125</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="30">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="30">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
-      </c>
-      <c r="D97" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="45">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" t="s">
-        <v>263</v>
+        <v>121</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>71</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>72</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" s="6"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D105" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="6"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>215</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A99:XFD109">
     <sortCondition ref="A99:A109"/>
   </sortState>
@@ -2952,7 +3030,6 @@
     <hyperlink ref="D32" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -104,292 +104,239 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>delimeter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>uri template</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <t>gldp</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>earl</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ptr</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/csvw#</t>
+  </si>
+  <si>
+    <t>http://purl.org/linked-data/cube#</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
     <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
 For a Column: A natural language property that provides possible alternative names for the column.</t>
   </si>
   <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>uri template</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <t>gldp</t>
-  </si>
-  <si>
-    <t>cnt</t>
-  </si>
-  <si>
-    <t>earl</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>ptr</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/csvw#</t>
-  </si>
-  <si>
-    <t>http://purl.org/linked-data/cube#</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>delimieter</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
     <t>xhv:license</t>
   </si>
   <si>
@@ -516,106 +463,25 @@
     <t>headerColumnCount</t>
   </si>
   <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>text-direction</t>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
   </si>
   <si>
     <t>xsd:nonNegativeInteger</t>
@@ -765,6 +631,39 @@
     <t>csvw:minInclusive</t>
   </si>
   <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
     <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -864,18 +763,114 @@
   </si>
   <si>
     <t>http://xmlns.com/foaf/0.1/</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>text-direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -1315,8 +1310,8 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1328,22 +1323,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -1354,313 +1349,313 @@
         <v>@container</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1668,32 +1663,32 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1701,21 +1696,21 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1723,32 +1718,32 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1756,10 +1751,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1767,76 +1762,76 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1844,37 +1839,37 @@
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
         <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H45" t="str">
         <f>"@list"</f>
         <v>@list</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="60">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>20</v>
@@ -1882,16 +1877,16 @@
     </row>
     <row r="47" spans="1:10" ht="60">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>43</v>
@@ -1899,33 +1894,33 @@
     </row>
     <row r="48" spans="1:10" ht="75">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>18</v>
@@ -1933,40 +1928,40 @@
     </row>
     <row r="50" spans="1:10" ht="45">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G50" s="8"/>
       <c r="J50" s="5" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="30">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>11</v>
@@ -1974,33 +1969,33 @@
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="45">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>12</v>
@@ -2008,16 +2003,16 @@
     </row>
     <row r="54" spans="1:10" ht="30">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>27</v>
@@ -2025,36 +2020,36 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>19</v>
@@ -2062,19 +2057,19 @@
     </row>
     <row r="57" spans="1:10" ht="30">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>21</v>
@@ -2082,16 +2077,16 @@
     </row>
     <row r="58" spans="1:10" ht="30">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>26</v>
@@ -2099,19 +2094,19 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>44</v>
@@ -2119,70 +2114,70 @@
     </row>
     <row r="60" spans="1:10" ht="30">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J61" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
         <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J62" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>46</v>
@@ -2190,53 +2185,53 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J64" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
         <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J65" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
         <v>59</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="F66" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>45</v>
@@ -2244,53 +2239,53 @@
     </row>
     <row r="67" spans="1:10" ht="75">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>25</v>
@@ -2298,73 +2293,73 @@
     </row>
     <row r="70" spans="1:10" ht="45">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>24</v>
@@ -2372,19 +2367,19 @@
     </row>
     <row r="74" spans="1:10" ht="30">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="E74" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H74" t="str">
         <f>"@set"</f>
@@ -2394,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2426,33 +2421,33 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
         <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="E77" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>13</v>
@@ -2460,96 +2455,96 @@
     </row>
     <row r="78" spans="1:10" ht="45">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
         <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F78" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="45">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F79" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s">
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
         <v>53</v>
       </c>
       <c r="E81" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F81" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="135">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>0</v>
@@ -2584,115 +2579,115 @@
     </row>
     <row r="84" spans="1:10" ht="75">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C84" t="s">
         <v>54</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F84" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="G84" t="str">
         <f>"@vocab"</f>
         <v>@vocab</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="120">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C85" t="s">
         <v>56</v>
       </c>
       <c r="E85" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="120">
       <c r="A86" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s">
         <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="45">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F87" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="45">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C88" t="s">
         <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="F88" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="G88" t="str">
         <f>"@vocab"</f>
         <v>@vocab</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="135">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
         <v>17</v>
@@ -2702,24 +2697,24 @@
         <v>@language</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="E90" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>23</v>
@@ -2727,16 +2722,16 @@
     </row>
     <row r="91" spans="1:10" ht="45">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="C91" t="s">
         <v>58</v>
       </c>
       <c r="E91" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>47</v>
@@ -2744,10 +2739,10 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
         <v>66</v>
@@ -2758,41 +2753,41 @@
     </row>
     <row r="93" spans="1:10" ht="30">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
         <v>65</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>63</v>
@@ -2800,27 +2795,27 @@
     </row>
     <row r="96" spans="1:10" ht="30">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="30">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>64</v>
@@ -2828,16 +2823,16 @@
     </row>
     <row r="98" spans="1:10" ht="45">
       <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>123</v>
+      </c>
+      <c r="J98" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B98" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" t="s">
-        <v>141</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2845,16 +2840,16 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
         <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -2862,7 +2857,7 @@
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
@@ -2873,7 +2868,7 @@
         <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D101" t="s">
         <v>35</v>
@@ -2884,7 +2879,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -2892,13 +2887,13 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -2906,7 +2901,7 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D104" t="s">
         <v>42</v>
@@ -2914,36 +2909,36 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D106" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" t="s">
         <v>201</v>
       </c>
-      <c r="B107" t="s">
-        <v>113</v>
-      </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E107" s="6"/>
     </row>
@@ -2952,7 +2947,7 @@
         <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D108" t="s">
         <v>34</v>
@@ -2960,28 +2955,27 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="D110" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A99:XFD109">
     <sortCondition ref="A99:A109"/>
   </sortState>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -1,78 +1,747 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1900" yWindow="-80" windowWidth="23600" windowHeight="26560"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="130407" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>@type</t>
-  </si>
-  <si>
-    <t>@container</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prefix</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="292">
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+  </si>
+  <si>
+    <t>uri template</t>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>predicateUrl</t>
+  </si>
+  <si>
+    <t>predicate URL</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+  </si>
+  <si>
+    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>rdfs:member</t>
+  </si>
+  <si>
+    <t>xsd</t>
   </si>
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2001/XMLSchema#</t>
+    </r>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimeter</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -86,7 +755,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -100,7 +769,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -114,7 +783,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -128,7 +797,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -142,7 +811,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -159,7 +828,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -173,7 +842,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -187,7 +856,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -201,7 +870,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -215,7 +884,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -229,7 +898,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -243,7 +912,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -257,7 +926,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -271,7 +940,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -285,7 +954,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -299,7 +968,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -313,7 +982,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -327,7 +996,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -341,7 +1010,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -355,7 +1024,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -369,7 +1038,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -383,7 +1052,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -397,7 +1066,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -411,7 +1080,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -425,7 +1094,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -439,7 +1108,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -453,7 +1122,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -467,7 +1136,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -481,7 +1150,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -495,7 +1164,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -509,7 +1178,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -523,7 +1192,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -537,7 +1206,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -545,550 +1214,18 @@
       <t>http://www.w3.org/XML/1998/namespace</t>
     </r>
   </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2001/XMLSchema#</t>
-    </r>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>@list</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimeter</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>predicateUrl</t>
-  </si>
-  <si>
-    <t>predicate URL</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-  </si>
-  <si>
-    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>@set</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>rdfs:member</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t>@vocab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>@language</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-  </si>
-  <si>
-    <t>uri template</t>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1097,29 +1234,23 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1155,41 +1286,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,24 +1319,77 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1407,7 +1581,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1416,7 +1590,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1425,7 +1599,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1434,7 +1608,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1443,7 +1617,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1452,7 +1626,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1564,8 +1738,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1573,14 +1747,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1599,7 +1773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1607,7 +1781,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1635,7 +1809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +1835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1687,7 +1861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1713,7 +1887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1739,7 +1913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1765,7 +1939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1791,7 +1965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1817,7 +1991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1843,7 +2017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1856,9 +2030,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1874,7 +2054,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1893,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1919,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1945,7 +2125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1971,7 +2151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1997,7 +2177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2023,7 +2203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2049,7 +2229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2075,7 +2255,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2101,7 +2281,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2127,7 +2307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2140,9 +2320,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2155,7 +2341,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2174,7 +2360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2204,7 +2390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,7 +2416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,7 +2442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2282,7 +2468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2308,7 +2494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2334,7 +2520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2360,7 +2546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2386,7 +2572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2412,7 +2598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2425,80 +2611,84 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:IV140"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:XFD110"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="32.5" style="1" customWidth="1"/>
     <col min="11" max="256" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
+    <row r="1" spans="1:10" ht="19" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="2" t="str">
         <f>"@type"</f>
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
+        <v>@type</v>
+      </c>
+      <c r="H1" s="2" t="str">
         <f>"@container"</f>
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>12</v>
+        <v>@container</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2506,19 +2696,19 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" t="s" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>15</v>
+      <c r="J2" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2526,20 +2716,20 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" t="s" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>18</v>
+      <c r="J3" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" t="s" s="4">
-        <v>19</v>
+      <c r="D4" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2548,16 +2738,16 @@
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s" s="4">
-        <v>18</v>
+    <row r="5" spans="1:10" ht="19" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" t="s" s="4">
-        <v>21</v>
+      <c r="D5" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2566,16 +2756,16 @@
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>18</v>
+    <row r="6" spans="1:10" ht="19" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" t="s" s="4">
-        <v>23</v>
+      <c r="D6" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2584,16 +2774,16 @@
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>18</v>
+    <row r="7" spans="1:10" ht="19" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" t="s" s="4">
-        <v>25</v>
+      <c r="D7" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2602,16 +2792,16 @@
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>18</v>
+    <row r="8" spans="1:10" ht="19" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" t="s" s="4">
-        <v>27</v>
+      <c r="D8" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2620,16 +2810,16 @@
       <c r="I8" s="5"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>18</v>
+    <row r="9" spans="1:10" ht="19" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" t="s" s="4">
-        <v>29</v>
+      <c r="D9" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2638,16 +2828,16 @@
       <c r="I9" s="5"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>18</v>
+    <row r="10" spans="1:10" ht="19" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" t="s" s="4">
-        <v>25</v>
+      <c r="D10" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2656,16 +2846,16 @@
       <c r="I10" s="5"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" ht="19" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>18</v>
+    <row r="11" spans="1:10" ht="19" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" t="s" s="4">
-        <v>32</v>
+      <c r="D11" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2674,16 +2864,16 @@
       <c r="I11" s="5"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" ht="19" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>18</v>
+    <row r="12" spans="1:10" ht="19" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" t="s" s="4">
-        <v>34</v>
+      <c r="D12" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2692,16 +2882,16 @@
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" ht="19" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>18</v>
+    <row r="13" spans="1:10" ht="19" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" t="s" s="4">
-        <v>36</v>
+      <c r="D13" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2710,16 +2900,16 @@
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" ht="19" customHeight="1">
-      <c r="A14" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>18</v>
+    <row r="14" spans="1:10" ht="19" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" t="s" s="4">
-        <v>38</v>
+      <c r="D14" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2728,16 +2918,16 @@
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" ht="19" customHeight="1">
-      <c r="A15" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>18</v>
+    <row r="15" spans="1:10" ht="19" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" t="s" s="4">
-        <v>40</v>
+      <c r="D15" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2746,16 +2936,16 @@
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s" s="4">
-        <v>18</v>
+    <row r="16" spans="1:10" ht="19" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" t="s" s="4">
-        <v>42</v>
+      <c r="D16" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2764,16 +2954,16 @@
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" ht="19" customHeight="1">
-      <c r="A17" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s" s="4">
-        <v>18</v>
+    <row r="17" spans="1:10" ht="19" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" t="s" s="4">
-        <v>44</v>
+      <c r="D17" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2782,16 +2972,16 @@
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" ht="19" customHeight="1">
-      <c r="A18" t="s" s="4">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s" s="4">
-        <v>18</v>
+    <row r="18" spans="1:10" ht="19" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" t="s" s="4">
-        <v>46</v>
+      <c r="D18" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2800,16 +2990,16 @@
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" ht="19" customHeight="1">
-      <c r="A19" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s" s="4">
-        <v>18</v>
+    <row r="19" spans="1:10" ht="19" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" t="s" s="4">
-        <v>48</v>
+      <c r="D19" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2818,16 +3008,16 @@
       <c r="I19" s="5"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" ht="19" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s" s="4">
-        <v>18</v>
+    <row r="20" spans="1:10" ht="19" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" t="s" s="4">
-        <v>50</v>
+      <c r="D20" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2836,16 +3026,16 @@
       <c r="I20" s="5"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" ht="19" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s" s="4">
-        <v>18</v>
+    <row r="21" spans="1:10" ht="19" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" t="s" s="4">
-        <v>52</v>
+      <c r="D21" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2854,16 +3044,16 @@
       <c r="I21" s="5"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" ht="19" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>18</v>
+    <row r="22" spans="1:10" ht="19" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" t="s" s="4">
-        <v>54</v>
+      <c r="D22" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2872,16 +3062,16 @@
       <c r="I22" s="5"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" ht="19" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>18</v>
+    <row r="23" spans="1:10" ht="19" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" t="s" s="4">
-        <v>56</v>
+      <c r="D23" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2890,16 +3080,16 @@
       <c r="I23" s="5"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" ht="19" customHeight="1">
-      <c r="A24" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>18</v>
+    <row r="24" spans="1:10" ht="19" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" t="s" s="4">
-        <v>58</v>
+      <c r="D24" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2908,16 +3098,16 @@
       <c r="I24" s="5"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" ht="19" customHeight="1">
-      <c r="A25" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s" s="4">
-        <v>18</v>
+    <row r="25" spans="1:10" ht="19" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" t="s" s="4">
-        <v>60</v>
+      <c r="D25" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2926,16 +3116,16 @@
       <c r="I25" s="5"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" ht="19" customHeight="1">
-      <c r="A26" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>18</v>
+    <row r="26" spans="1:10" ht="19" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" t="s" s="4">
-        <v>62</v>
+      <c r="D26" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2944,16 +3134,16 @@
       <c r="I26" s="5"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" ht="19" customHeight="1">
-      <c r="A27" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s" s="4">
-        <v>18</v>
+    <row r="27" spans="1:10" ht="19" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" t="s" s="4">
-        <v>64</v>
+      <c r="D27" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2962,16 +3152,16 @@
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" ht="19" customHeight="1">
-      <c r="A28" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s" s="4">
-        <v>18</v>
+    <row r="28" spans="1:10" ht="19" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" t="s" s="4">
-        <v>66</v>
+      <c r="D28" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2980,16 +3170,16 @@
       <c r="I28" s="5"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" ht="19" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s" s="4">
-        <v>18</v>
+    <row r="29" spans="1:10" ht="19" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" t="s" s="4">
-        <v>68</v>
+      <c r="D29" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2998,16 +3188,16 @@
       <c r="I29" s="5"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" ht="19" customHeight="1">
-      <c r="A30" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>18</v>
+    <row r="30" spans="1:10" ht="19" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" t="s" s="4">
-        <v>70</v>
+      <c r="D30" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3016,16 +3206,16 @@
       <c r="I30" s="5"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" ht="19" customHeight="1">
-      <c r="A31" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s" s="4">
-        <v>18</v>
+    <row r="31" spans="1:10" ht="19" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" t="s" s="4">
-        <v>72</v>
+      <c r="D31" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3034,16 +3224,16 @@
       <c r="I31" s="5"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" ht="19" customHeight="1">
-      <c r="A32" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s" s="4">
-        <v>18</v>
+    <row r="32" spans="1:10" ht="19" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" t="s" s="4">
-        <v>74</v>
+      <c r="D32" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3052,16 +3242,16 @@
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" ht="19" customHeight="1">
-      <c r="A33" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s" s="4">
-        <v>18</v>
+    <row r="33" spans="1:10" ht="19" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" t="s" s="4">
-        <v>76</v>
+      <c r="D33" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3070,16 +3260,16 @@
       <c r="I33" s="5"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" ht="19" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>18</v>
+    <row r="34" spans="1:10" ht="19" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" t="s" s="4">
-        <v>78</v>
+      <c r="D34" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3088,16 +3278,16 @@
       <c r="I34" s="5"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" ht="19" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>18</v>
+    <row r="35" spans="1:10" ht="19" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" t="s" s="4">
-        <v>80</v>
+      <c r="D35" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3106,16 +3296,16 @@
       <c r="I35" s="5"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" ht="19" customHeight="1">
-      <c r="A36" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>18</v>
+    <row r="36" spans="1:10" ht="19" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" t="s" s="4">
-        <v>82</v>
+      <c r="D36" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3124,16 +3314,16 @@
       <c r="I36" s="5"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" ht="19" customHeight="1">
-      <c r="A37" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>18</v>
+    <row r="37" spans="1:10" ht="19" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" t="s" s="4">
-        <v>84</v>
+      <c r="D37" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3142,16 +3332,16 @@
       <c r="I37" s="5"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" ht="19" customHeight="1">
-      <c r="A38" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="B38" t="s" s="4">
-        <v>18</v>
+    <row r="38" spans="1:10" ht="19" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" t="s" s="4">
-        <v>86</v>
+      <c r="D38" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3160,16 +3350,16 @@
       <c r="I38" s="5"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" ht="19" customHeight="1">
-      <c r="A39" t="s" s="4">
-        <v>87</v>
-      </c>
-      <c r="B39" t="s" s="4">
-        <v>18</v>
+    <row r="39" spans="1:10" ht="19" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" t="s" s="4">
-        <v>88</v>
+      <c r="D39" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3178,1120 +3368,1120 @@
       <c r="I39" s="5"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" ht="19" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s" s="4">
-        <v>89</v>
+    <row r="40" spans="1:10" ht="19" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" t="s" s="4">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s" s="4">
-        <v>92</v>
+      <c r="E40" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" t="s" s="4">
+      <c r="H40" s="4" t="str">
         <f>"@list"</f>
-        <v>93</v>
+        <v>@list</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" t="s" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" t="s" s="4">
-        <v>95</v>
-      </c>
-      <c r="B41" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C41" t="s" s="4">
-        <v>96</v>
+      <c r="J40" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="60" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" t="s" s="4">
-        <v>97</v>
+      <c r="E41" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" t="s" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="B42" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s" s="4">
-        <v>99</v>
+      <c r="J41" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="60" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" t="s" s="4">
-        <v>100</v>
+      <c r="E42" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" t="s" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" ht="75" customHeight="1">
-      <c r="A43" t="s" s="4">
-        <v>102</v>
-      </c>
-      <c r="B43" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s" s="4">
-        <v>102</v>
+      <c r="J42" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="75" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D43" s="5"/>
-      <c r="E43" t="s" s="4">
-        <v>100</v>
+      <c r="E43" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" t="s" s="6">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" ht="19" customHeight="1">
-      <c r="A44" t="s" s="4">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C44" t="s" s="4">
-        <v>105</v>
+      <c r="J43" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" t="s" s="4">
-        <v>97</v>
+      <c r="E44" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" t="s" s="6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" ht="45" customHeight="1">
-      <c r="A45" t="s" s="4">
-        <v>107</v>
-      </c>
-      <c r="B45" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s" s="4">
-        <v>107</v>
+      <c r="J44" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="F45" t="s" s="4">
-        <v>97</v>
+      <c r="E45" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" t="s" s="6">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" ht="30" customHeight="1">
-      <c r="A46" t="s" s="4">
-        <v>110</v>
-      </c>
-      <c r="B46" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s" s="4">
-        <v>111</v>
+      <c r="J45" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F46" t="s" s="4">
-        <v>112</v>
+      <c r="E46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" t="s" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" ht="30" customHeight="1">
-      <c r="A47" t="s" s="4">
-        <v>114</v>
-      </c>
-      <c r="B47" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s" s="4">
-        <v>114</v>
+      <c r="J46" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" t="s" s="4">
-        <v>97</v>
+      <c r="E47" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" t="s" s="6">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" ht="45" customHeight="1">
-      <c r="A48" t="s" s="4">
-        <v>116</v>
-      </c>
-      <c r="B48" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s" s="4">
-        <v>117</v>
+      <c r="J47" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" t="s" s="4">
-        <v>91</v>
+      <c r="E48" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" t="s" s="6">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" ht="30" customHeight="1">
-      <c r="A49" t="s" s="4">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s" s="4">
-        <v>119</v>
+      <c r="J48" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="D49" s="5"/>
-      <c r="E49" t="s" s="4">
-        <v>100</v>
+      <c r="E49" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" t="s" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" ht="19" customHeight="1">
-      <c r="A50" t="s" s="4">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C50" t="s" s="4">
-        <v>121</v>
+      <c r="J49" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F50" t="s" s="4">
-        <v>112</v>
+      <c r="E50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" ht="45" customHeight="1">
-      <c r="A51" t="s" s="4">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s" s="4">
-        <v>123</v>
+    <row r="51" spans="1:10" ht="45" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="D51" s="5"/>
-      <c r="E51" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F51" t="s" s="4">
-        <v>124</v>
+      <c r="E51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" t="s" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" ht="30" customHeight="1">
-      <c r="A52" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="B52" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C52" t="s" s="4">
-        <v>127</v>
+      <c r="J51" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F52" t="s" s="4">
-        <v>124</v>
+      <c r="E52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" t="s" s="6">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" ht="30" customHeight="1">
-      <c r="A53" t="s" s="4">
-        <v>129</v>
-      </c>
-      <c r="B53" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C53" t="s" s="4">
-        <v>129</v>
+      <c r="J52" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" t="s" s="4">
-        <v>100</v>
+      <c r="E53" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" t="s" s="6">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" ht="19" customHeight="1">
-      <c r="A54" t="s" s="4">
-        <v>131</v>
-      </c>
-      <c r="B54" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C54" t="s" s="4">
-        <v>131</v>
+      <c r="J53" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="F54" t="s" s="4">
-        <v>124</v>
+      <c r="E54" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" t="s" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" ht="30" customHeight="1">
-      <c r="A55" t="s" s="4">
-        <v>133</v>
-      </c>
-      <c r="B55" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C55" t="s" s="4">
-        <v>134</v>
+      <c r="J54" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="E55" t="s" s="4">
-        <v>97</v>
+      <c r="E55" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" t="s" s="6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" ht="19" customHeight="1">
-      <c r="A56" t="s" s="4">
-        <v>136</v>
-      </c>
-      <c r="B56" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C56" t="s" s="4">
-        <v>137</v>
+      <c r="J55" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D56" s="5"/>
-      <c r="E56" t="s" s="4">
-        <v>100</v>
+      <c r="E56" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" t="s" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" ht="19" customHeight="1">
-      <c r="A57" t="s" s="4">
-        <v>139</v>
-      </c>
-      <c r="B57" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C57" t="s" s="4">
-        <v>140</v>
+      <c r="J56" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D57" s="5"/>
-      <c r="E57" t="s" s="4">
-        <v>100</v>
+      <c r="E57" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" t="s" s="4">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" ht="19" customHeight="1">
-      <c r="A58" t="s" s="4">
-        <v>142</v>
-      </c>
-      <c r="B58" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C58" t="s" s="4">
-        <v>143</v>
+      <c r="J57" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19" customHeight="1">
+      <c r="A58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="F58" t="s" s="4">
-        <v>124</v>
+      <c r="E58" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" t="s" s="6">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" ht="19" customHeight="1">
-      <c r="A59" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="B59" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s" s="4">
-        <v>146</v>
+      <c r="J58" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" t="s" s="4">
-        <v>100</v>
+      <c r="E59" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" t="s" s="4">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" ht="19" customHeight="1">
-      <c r="A60" t="s" s="4">
-        <v>148</v>
-      </c>
-      <c r="B60" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C60" t="s" s="4">
-        <v>149</v>
+      <c r="J59" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" t="s" s="4">
-        <v>100</v>
+      <c r="E60" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" t="s" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" ht="19" customHeight="1">
-      <c r="A61" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="B61" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s" s="4">
-        <v>152</v>
+      <c r="J60" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="19" customHeight="1">
+      <c r="A61" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D61" s="5"/>
-      <c r="E61" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="F61" t="s" s="4">
-        <v>124</v>
+      <c r="E61" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" t="s" s="6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" ht="75" customHeight="1">
-      <c r="A62" t="s" s="4">
-        <v>154</v>
-      </c>
-      <c r="B62" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C62" t="s" s="4">
-        <v>154</v>
+      <c r="J61" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="75" customHeight="1">
+      <c r="A62" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" t="s" s="4">
-        <v>92</v>
+      <c r="E62" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" t="b" s="5">
+      <c r="I62" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J62" t="s" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" ht="45" customHeight="1">
-      <c r="A63" t="s" s="4">
-        <v>156</v>
-      </c>
-      <c r="B63" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C63" t="s" s="4">
-        <v>156</v>
+      <c r="J62" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D63" s="5"/>
-      <c r="E63" t="s" s="4">
-        <v>157</v>
+      <c r="E63" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" t="s" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" ht="30" customHeight="1">
-      <c r="A64" t="s" s="4">
-        <v>159</v>
-      </c>
-      <c r="B64" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C64" t="s" s="4">
-        <v>159</v>
+      <c r="J63" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D64" s="5"/>
-      <c r="E64" t="s" s="4">
-        <v>100</v>
+      <c r="E64" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" t="s" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" ht="45" customHeight="1">
-      <c r="A65" t="s" s="4">
-        <v>161</v>
-      </c>
-      <c r="B65" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C65" t="s" s="4">
-        <v>162</v>
+      <c r="J64" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D65" s="5"/>
-      <c r="E65" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="F65" t="s" s="4">
-        <v>163</v>
+      <c r="E65" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" t="s" s="6">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" ht="45" customHeight="1">
-      <c r="A66" t="s" s="4">
-        <v>165</v>
-      </c>
-      <c r="B66" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C66" t="s" s="4">
-        <v>166</v>
+      <c r="J65" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D66" s="5"/>
-      <c r="E66" t="s" s="4">
-        <v>91</v>
+      <c r="E66" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" t="s" s="6">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" ht="19" customHeight="1">
-      <c r="A67" t="s" s="4">
+      <c r="J66" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="19" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B67" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C67" t="s" s="4">
-        <v>169</v>
+      <c r="C67" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" t="s" s="4">
-        <v>97</v>
+      <c r="E67" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" t="s" s="6">
+      <c r="J67" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="30" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="68" ht="30" customHeight="1">
-      <c r="A68" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C68" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="F68" t="s" s="4">
-        <v>112</v>
+      <c r="F68" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" t="s" s="6">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" ht="30" customHeight="1">
-      <c r="A69" t="s" s="4">
-        <v>172</v>
-      </c>
-      <c r="B69" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C69" t="s" s="4">
-        <v>172</v>
+      <c r="J68" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="30" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="F69" t="s" s="4">
-        <v>157</v>
+      <c r="E69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" t="s" s="4">
+      <c r="H69" s="4" t="str">
         <f>"@set"</f>
-        <v>174</v>
-      </c>
-      <c r="I69" t="b" s="5">
+        <v>@set</v>
+      </c>
+      <c r="I69" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J69" t="s" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" ht="19" customHeight="1">
-      <c r="A70" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="B70" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s" s="4">
-        <v>176</v>
-      </c>
-      <c r="D70" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="E70" t="s" s="4">
-        <v>157</v>
+      <c r="J69" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="19" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" t="s" s="4">
+      <c r="H70" s="4" t="str">
         <f>"@set"</f>
-        <v>174</v>
+        <v>@set</v>
       </c>
       <c r="I70" s="5"/>
-      <c r="J70" t="s" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" ht="45" customHeight="1">
-      <c r="A71" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C71" t="s" s="4">
-        <v>63</v>
+      <c r="J70" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="F71" t="s" s="4">
-        <v>91</v>
+      <c r="E71" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" t="s" s="6">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" ht="30" customHeight="1">
-      <c r="A72" t="s" s="4">
-        <v>180</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>180</v>
+      <c r="J71" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" t="s" s="4">
-        <v>100</v>
+      <c r="E72" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" t="s" s="6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" ht="45" customHeight="1">
-      <c r="A73" t="s" s="4">
-        <v>182</v>
-      </c>
-      <c r="B73" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C73" t="s" s="4">
-        <v>183</v>
+      <c r="J72" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F73" t="s" s="4">
-        <v>112</v>
+      <c r="E73" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" t="s" s="6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" ht="45" customHeight="1">
-      <c r="A74" t="s" s="4">
-        <v>185</v>
-      </c>
-      <c r="B74" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C74" t="s" s="4">
-        <v>186</v>
+      <c r="J73" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F74" t="s" s="4">
-        <v>124</v>
+      <c r="E74" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" t="s" s="6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" ht="19" customHeight="1">
-      <c r="A75" t="s" s="4">
-        <v>188</v>
-      </c>
-      <c r="B75" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C75" t="s" s="4">
+      <c r="J74" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="19" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F75" t="s" s="4">
-        <v>112</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" t="s" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" ht="30" customHeight="1">
-      <c r="A76" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="B76" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C76" t="s" s="4">
-        <v>192</v>
+      <c r="J75" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" customHeight="1">
+      <c r="A76" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F76" t="s" s="4">
-        <v>124</v>
+      <c r="E76" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" t="s" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" ht="135" customHeight="1">
-      <c r="A77" t="s" s="4">
-        <v>194</v>
-      </c>
-      <c r="B77" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C77" t="s" s="4">
-        <v>194</v>
+      <c r="J76" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="135" customHeight="1">
+      <c r="A77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" t="s" s="4">
-        <v>195</v>
+      <c r="E77" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" t="s" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" ht="60" customHeight="1">
-      <c r="A78" t="s" s="4">
-        <v>197</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C78" t="s" s="4">
-        <v>197</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>177</v>
-      </c>
-      <c r="E78" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="F78" t="s" s="4">
-        <v>157</v>
+      <c r="J77" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="60" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" t="s" s="4">
+      <c r="H78" s="4" t="str">
         <f>"@set"</f>
-        <v>174</v>
+        <v>@set</v>
       </c>
       <c r="I78" s="5"/>
-      <c r="J78" t="s" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" ht="75" customHeight="1">
-      <c r="A79" t="s" s="4">
-        <v>199</v>
-      </c>
-      <c r="B79" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C79" t="s" s="4">
-        <v>200</v>
+      <c r="J78" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="75" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="F79" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s" s="4">
+      <c r="E79" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G79" s="4" t="str">
         <f>"@vocab"</f>
-        <v>201</v>
+        <v>@vocab</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" t="s" s="6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" ht="120" customHeight="1">
-      <c r="A80" t="s" s="4">
-        <v>203</v>
-      </c>
-      <c r="B80" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C80" t="s" s="4">
-        <v>204</v>
+      <c r="J79" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="120" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" t="s" s="4">
-        <v>195</v>
+      <c r="E80" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" t="s" s="6">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" ht="120" customHeight="1">
-      <c r="A81" t="s" s="4">
-        <v>206</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C81" t="s" s="4">
-        <v>207</v>
+      <c r="J80" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="120" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="E81" t="s" s="4">
-        <v>195</v>
+      <c r="E81" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" t="s" s="6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" ht="45" customHeight="1">
-      <c r="A82" t="s" s="4">
-        <v>209</v>
-      </c>
-      <c r="B82" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C82" t="s" s="4">
-        <v>209</v>
+      <c r="J81" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" t="s" s="4">
-        <v>108</v>
-      </c>
-      <c r="F82" t="s" s="4">
-        <v>195</v>
+      <c r="E82" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" t="s" s="6">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" ht="45" customHeight="1">
-      <c r="A83" t="s" s="4">
-        <v>211</v>
-      </c>
-      <c r="B83" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C83" t="s" s="4">
-        <v>212</v>
+      <c r="J82" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="E83" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="F83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s" s="4">
+      <c r="E83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" s="4" t="str">
         <f>"@vocab"</f>
-        <v>201</v>
+        <v>@vocab</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" t="s" s="6">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" ht="135" customHeight="1">
-      <c r="A84" t="s" s="4">
-        <v>214</v>
-      </c>
-      <c r="B84" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C84" t="s" s="4">
-        <v>214</v>
+      <c r="J83" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="135" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" t="s" s="4">
-        <v>215</v>
+      <c r="E84" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" t="s" s="4">
+      <c r="H84" s="4" t="str">
         <f>"@language"</f>
-        <v>216</v>
+        <v>@language</v>
       </c>
       <c r="I84" s="5"/>
-      <c r="J84" t="s" s="6">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" ht="30" customHeight="1">
-      <c r="A85" t="s" s="4">
-        <v>218</v>
-      </c>
-      <c r="B85" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C85" t="s" s="4">
-        <v>218</v>
+      <c r="J84" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="F85" t="s" s="4">
-        <v>112</v>
+      <c r="E85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" t="s" s="6">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" ht="45" customHeight="1">
-      <c r="A86" t="s" s="4">
-        <v>220</v>
-      </c>
-      <c r="B86" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="C86" t="s" s="4">
-        <v>221</v>
+      <c r="J85" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" t="s" s="4">
-        <v>91</v>
+      <c r="E86" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" t="s" s="6">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" ht="19" customHeight="1">
-      <c r="A87" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="B87" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C87" t="s" s="4">
-        <v>224</v>
+      <c r="J86" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="19" customHeight="1">
+      <c r="A87" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4299,19 +4489,19 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" t="s" s="6">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" ht="30" customHeight="1">
-      <c r="A88" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="B88" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C88" t="s" s="4">
-        <v>226</v>
+      <c r="J87" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4319,19 +4509,19 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" t="s" s="6">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" ht="19" customHeight="1">
-      <c r="A89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
+      <c r="J88" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="19" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4339,19 +4529,19 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" t="s" s="6">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" ht="30" customHeight="1">
-      <c r="A90" t="s" s="4">
+      <c r="J89" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C90" t="s" s="4">
-        <v>91</v>
+    </row>
+    <row r="90" spans="1:10" ht="30" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4359,19 +4549,19 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" t="s" s="6">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" ht="30" customHeight="1">
-      <c r="A91" t="s" s="4">
-        <v>157</v>
-      </c>
-      <c r="B91" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C91" t="s" s="4">
-        <v>230</v>
+      <c r="J90" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4379,19 +4569,19 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" t="s" s="6">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" ht="30" customHeight="1">
-      <c r="A92" t="s" s="4">
-        <v>173</v>
-      </c>
-      <c r="B92" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C92" t="s" s="4">
-        <v>232</v>
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="30" customHeight="1">
+      <c r="A92" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4399,19 +4589,19 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" t="s" s="6">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" ht="45" customHeight="1">
-      <c r="A93" t="s" s="4">
-        <v>195</v>
-      </c>
-      <c r="B93" t="s" s="4">
-        <v>223</v>
-      </c>
-      <c r="C93" t="s" s="4">
-        <v>234</v>
+      <c r="J92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4419,42 +4609,42 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" t="s" s="6">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="94" ht="19" customHeight="1">
-      <c r="A94" t="s" s="4">
-        <v>236</v>
-      </c>
-      <c r="B94" t="s" s="4">
-        <v>237</v>
-      </c>
-      <c r="C94" t="s" s="4">
-        <v>236</v>
-      </c>
-      <c r="D94" t="s" s="4">
-        <v>238</v>
+      <c r="J93" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="19" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" t="s" s="6">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" ht="19" customHeight="1">
-      <c r="A95" t="s" s="4">
-        <v>240</v>
-      </c>
-      <c r="B95" t="s" s="4">
-        <v>241</v>
+      <c r="J94" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="19" customHeight="1">
+      <c r="A95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" t="s" s="4">
-        <v>242</v>
+      <c r="D95" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -4463,16 +4653,16 @@
       <c r="I95" s="5"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" ht="19" customHeight="1">
-      <c r="A96" t="s" s="4">
-        <v>243</v>
-      </c>
-      <c r="B96" t="s" s="4">
-        <v>241</v>
+    <row r="96" spans="1:10" ht="19" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" t="s" s="4">
-        <v>244</v>
+      <c r="D96" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4481,16 +4671,16 @@
       <c r="I96" s="5"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" ht="19" customHeight="1">
-      <c r="A97" t="s" s="4">
-        <v>245</v>
-      </c>
-      <c r="B97" t="s" s="4">
-        <v>241</v>
+    <row r="97" spans="1:10" ht="19" customHeight="1">
+      <c r="A97" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" t="s" s="4">
-        <v>246</v>
+      <c r="D97" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -4499,16 +4689,16 @@
       <c r="I97" s="5"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" ht="19" customHeight="1">
-      <c r="A98" t="s" s="4">
-        <v>247</v>
-      </c>
-      <c r="B98" t="s" s="4">
-        <v>241</v>
+    <row r="98" spans="1:10" ht="19" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" t="s" s="4">
-        <v>248</v>
+      <c r="D98" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -4517,16 +4707,16 @@
       <c r="I98" s="5"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" ht="19" customHeight="1">
-      <c r="A99" t="s" s="4">
-        <v>249</v>
-      </c>
-      <c r="B99" t="s" s="4">
-        <v>241</v>
+    <row r="99" spans="1:10" ht="19" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" t="s" s="4">
-        <v>250</v>
+      <c r="D99" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -4535,16 +4725,16 @@
       <c r="I99" s="5"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" ht="19" customHeight="1">
-      <c r="A100" t="s" s="4">
-        <v>251</v>
-      </c>
-      <c r="B100" t="s" s="4">
-        <v>241</v>
+    <row r="100" spans="1:10" ht="19" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" t="s" s="4">
-        <v>252</v>
+      <c r="D100" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -4553,16 +4743,16 @@
       <c r="I100" s="5"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" ht="19" customHeight="1">
-      <c r="A101" t="s" s="4">
-        <v>253</v>
-      </c>
-      <c r="B101" t="s" s="4">
-        <v>241</v>
+    <row r="101" spans="1:10" ht="19" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" t="s" s="4">
-        <v>254</v>
+      <c r="D101" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="5"/>
@@ -4571,16 +4761,16 @@
       <c r="I101" s="5"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" ht="19" customHeight="1">
-      <c r="A102" t="s" s="4">
-        <v>255</v>
-      </c>
-      <c r="B102" t="s" s="4">
-        <v>241</v>
+    <row r="102" spans="1:10" ht="19" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" t="s" s="4">
-        <v>256</v>
+      <c r="D102" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="5"/>
@@ -4589,16 +4779,16 @@
       <c r="I102" s="5"/>
       <c r="J102" s="7"/>
     </row>
-    <row r="103" ht="19" customHeight="1">
-      <c r="A103" t="s" s="4">
-        <v>257</v>
-      </c>
-      <c r="B103" t="s" s="4">
-        <v>241</v>
+    <row r="103" spans="1:10" ht="19" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C103" s="5"/>
-      <c r="D103" t="s" s="4">
-        <v>258</v>
+      <c r="D103" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -4607,16 +4797,16 @@
       <c r="I103" s="5"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" ht="19" customHeight="1">
-      <c r="A104" t="s" s="4">
-        <v>259</v>
-      </c>
-      <c r="B104" t="s" s="4">
-        <v>241</v>
+    <row r="104" spans="1:10" ht="19" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" t="s" s="4">
-        <v>260</v>
+      <c r="D104" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -4625,16 +4815,16 @@
       <c r="I104" s="5"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" ht="19" customHeight="1">
-      <c r="A105" t="s" s="4">
-        <v>85</v>
-      </c>
-      <c r="B105" t="s" s="4">
-        <v>241</v>
+    <row r="105" spans="1:10" ht="19" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C105" s="5"/>
-      <c r="D105" t="s" s="4">
-        <v>261</v>
+      <c r="D105" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -4643,49 +4833,720 @@
       <c r="I105" s="5"/>
       <c r="J105" s="7"/>
     </row>
+    <row r="106" spans="1:10" ht="15" customHeight="1">
+      <c r="A106" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4" t="str">
+        <f>CONCATENATE("xsd:",A106)</f>
+        <v>xsd:anySimpleType</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="1:10" ht="15" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4" t="str">
+        <f t="shared" ref="D107:D140" si="0">CONCATENATE("xsd:",A107)</f>
+        <v>xsd:string</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="1:10" ht="15" customHeight="1">
+      <c r="A108" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:normalizedString</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="1:10" ht="15" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:token</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" spans="1:10" ht="15" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:Name</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="1:10" ht="15" customHeight="1">
+      <c r="A111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:NCName</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="1:10" ht="15" customHeight="1">
+      <c r="A112" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:boolean</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:decimal</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="1:10" ht="15" customHeight="1">
+      <c r="A114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:integer</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="1:10" ht="15" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:nonPositiveInteger</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="1:10" ht="15" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:negativeInteger</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" ht="15" customHeight="1">
+      <c r="A117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:long</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" ht="15" customHeight="1">
+      <c r="A118" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:int</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" ht="15" customHeight="1">
+      <c r="A119" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:short</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" ht="15" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:byte</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" ht="15" customHeight="1">
+      <c r="A121" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:nonNegativeInteger</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" ht="15" customHeight="1">
+      <c r="A122" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:unsignedLong</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" ht="15" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:unsignedInt</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" ht="15" customHeight="1">
+      <c r="A124" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:unsignedShort</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="1:10" ht="15" customHeight="1">
+      <c r="A125" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:unsignedByte</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" ht="15" customHeight="1">
+      <c r="A126" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:positiveInteger</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" ht="15" customHeight="1">
+      <c r="A127" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:float</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="1:10" ht="15" customHeight="1">
+      <c r="A128" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:double</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:10" ht="15" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:duration</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:10" ht="15" customHeight="1">
+      <c r="A130" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:dateTime</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="15" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:time</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:10" ht="15" customHeight="1">
+      <c r="A132" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:date</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" ht="15" customHeight="1">
+      <c r="A133" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:gYearMonth</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="1:10" ht="15" customHeight="1">
+      <c r="A134" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:gYear</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1">
+      <c r="A135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:gMonthDay</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" ht="15" customHeight="1">
+      <c r="A136" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:gDay</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="7"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1">
+      <c r="A137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:gMonth</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1">
+      <c r="A138" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:hexBinary</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1">
+      <c r="A139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:base64Binary</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1">
+      <c r="A140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="D5" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="D6" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="D7" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="D8" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="D9" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="D10" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="D11" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="D12" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="D13" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="D14" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="D15" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="D16" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="D17" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="D18" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="D19" r:id="rId16" location="" tooltip="" display=""/>
-    <hyperlink ref="D20" r:id="rId17" location="" tooltip="" display=""/>
-    <hyperlink ref="D21" r:id="rId18" location="" tooltip="" display=""/>
-    <hyperlink ref="D22" r:id="rId19" location="" tooltip="" display=""/>
-    <hyperlink ref="D23" r:id="rId20" location="" tooltip="" display=""/>
-    <hyperlink ref="D24" r:id="rId21" location="" tooltip="" display=""/>
-    <hyperlink ref="D25" r:id="rId22" location="" tooltip="" display=""/>
-    <hyperlink ref="D26" r:id="rId23" location="" tooltip="" display=""/>
-    <hyperlink ref="D27" r:id="rId24" location="" tooltip="" display=""/>
-    <hyperlink ref="D28" r:id="rId25" location="" tooltip="" display=""/>
-    <hyperlink ref="D29" r:id="rId26" location="" tooltip="" display=""/>
-    <hyperlink ref="D30" r:id="rId27" location="" tooltip="" display=""/>
-    <hyperlink ref="D31" r:id="rId28" location="" tooltip="" display=""/>
-    <hyperlink ref="D32" r:id="rId29" location="" tooltip="" display=""/>
-    <hyperlink ref="D33" r:id="rId30" location="" tooltip="" display=""/>
-    <hyperlink ref="D34" r:id="rId31" location="" tooltip="" display=""/>
-    <hyperlink ref="D35" r:id="rId32" location="" tooltip="" display=""/>
-    <hyperlink ref="D36" r:id="rId33" location="" tooltip="" display=""/>
-    <hyperlink ref="D37" r:id="rId34" location="" tooltip="" display=""/>
-    <hyperlink ref="D38" r:id="rId35" location="" tooltip="" display=""/>
-    <hyperlink ref="D39" r:id="rId36" location="" tooltip="" display=""/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
+    <hyperlink ref="D22" r:id="rId19"/>
+    <hyperlink ref="D23" r:id="rId20"/>
+    <hyperlink ref="D24" r:id="rId21"/>
+    <hyperlink ref="D25" r:id="rId22"/>
+    <hyperlink ref="D26" r:id="rId23"/>
+    <hyperlink ref="D27" r:id="rId24"/>
+    <hyperlink ref="D28" r:id="rId25"/>
+    <hyperlink ref="D29" r:id="rId26"/>
+    <hyperlink ref="D30" r:id="rId27"/>
+    <hyperlink ref="D31" r:id="rId28"/>
+    <hyperlink ref="D32" r:id="rId29"/>
+    <hyperlink ref="D33" r:id="rId30"/>
+    <hyperlink ref="D34" r:id="rId31"/>
+    <hyperlink ref="D35" r:id="rId32"/>
+    <hyperlink ref="D36" r:id="rId33"/>
+    <hyperlink ref="D37" r:id="rId34"/>
+    <hyperlink ref="D38" r:id="rId35"/>
+    <hyperlink ref="D39" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -21,416 +21,629 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="292">
   <si>
-    <t>gYearMonth</t>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://creativecommons.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>csvw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/csvw#</t>
+    </r>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://commontag.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/terms/</t>
+    </r>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/elements/1.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/dcat#</t>
+    </r>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://xmlns.com/foaf/0.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/goodrelations/v1#</t>
+    </r>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2003/g/data-view#</t>
+    </r>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+    </r>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/ma-ont#</t>
+    </r>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://ogp.me/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/org#</t>
+    </r>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/07/owl#</t>
+    </r>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/prov#</t>
+    </r>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/linked-data/cube#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/rdfa#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2000/01/rdf-schema#</t>
+    </r>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/stuff/rev#</t>
+    </r>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/rif#</t>
+    </r>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/r2rml#</t>
+    </r>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://schema.org/</t>
+    </r>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/sparql-service-description#</t>
+    </r>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/sioc/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2004/02/skos/core#</t>
+    </r>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2008/05/skos-xl#</t>
+    </r>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdf.data-vocabulary.org/#</t>
+    </r>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2006/vcard/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/ns/void#</t>
+    </r>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder#</t>
+    </r>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder-s#</t>
+    </r>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/xhtml/vocab#</t>
+    </r>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/XML/1998/namespace</t>
+    </r>
+  </si>
+  <si>
+    <t>delimiter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-  </si>
-  <si>
-    <t>uri template</t>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
   </si>
   <si>
     <t>max exclusive</t>
@@ -591,628 +804,416 @@
     <t>Dialect</t>
   </si>
   <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimeter</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://creativecommons.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>csvw</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/csvw#</t>
-    </r>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://commontag.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/terms/</t>
-    </r>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/elements/1.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/dcat#</t>
-    </r>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://xmlns.com/foaf/0.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/goodrelations/v1#</t>
-    </r>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2003/g/data-view#</t>
-    </r>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-    </r>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/ma-ont#</t>
-    </r>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://ogp.me/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/org#</t>
-    </r>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/07/owl#</t>
-    </r>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/prov#</t>
-    </r>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/linked-data/cube#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/rdfa#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2000/01/rdf-schema#</t>
-    </r>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/stuff/rev#</t>
-    </r>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/rif#</t>
-    </r>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/r2rml#</t>
-    </r>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://schema.org/</t>
-    </r>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/sparql-service-description#</t>
-    </r>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/sioc/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2004/02/skos/core#</t>
-    </r>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2008/05/skos-xl#</t>
-    </r>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdf.data-vocabulary.org/#</t>
-    </r>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2006/vcard/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/ns/void#</t>
-    </r>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder#</t>
-    </r>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder-s#</t>
-    </r>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/xhtml/vocab#</t>
-    </r>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/XML/1998/namespace</t>
-    </r>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+  </si>
+  <si>
+    <t>uri template</t>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2632,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:IV140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2648,22 +2649,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2674,21 +2675,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2697,18 +2698,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2717,19 +2718,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2740,14 +2741,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2758,14 +2759,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>227</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2776,14 +2777,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2794,14 +2795,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2812,14 +2813,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2830,14 +2831,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2848,14 +2849,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2866,14 +2867,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2884,14 +2885,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2902,14 +2903,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2920,14 +2921,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2938,14 +2939,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2956,14 +2957,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2974,14 +2975,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2992,14 +2993,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3010,14 +3011,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3028,14 +3029,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3046,14 +3047,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3064,14 +3065,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3082,14 +3083,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3100,14 +3101,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3118,14 +3119,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3136,14 +3137,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3154,14 +3155,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3172,14 +3173,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>272</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3190,14 +3191,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3208,14 +3209,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3226,14 +3227,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>278</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3244,14 +3245,14 @@
     </row>
     <row r="33" spans="1:10" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3262,14 +3263,14 @@
     </row>
     <row r="34" spans="1:10" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3280,14 +3281,14 @@
     </row>
     <row r="35" spans="1:10" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3298,14 +3299,14 @@
     </row>
     <row r="36" spans="1:10" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3316,14 +3317,14 @@
     </row>
     <row r="37" spans="1:10" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3334,14 +3335,14 @@
     </row>
     <row r="38" spans="1:10" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3352,14 +3353,14 @@
     </row>
     <row r="39" spans="1:10" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3370,20 +3371,20 @@
     </row>
     <row r="40" spans="1:10" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="str">
@@ -3392,227 +3393,227 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="60" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3621,269 +3622,269 @@
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -3892,161 +3893,161 @@
         <v>1</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="45" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="4" t="str">
@@ -4057,24 +4058,24 @@
         <v>1</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4084,191 +4085,191 @@
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="135" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4" t="str">
@@ -4277,25 +4278,25 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>"@vocab"</f>
@@ -4304,93 +4305,93 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="120" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="G83" s="4" t="str">
         <f>"@vocab"</f>
@@ -4399,22 +4400,22 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="135" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4424,64 +4425,64 @@
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="19" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4490,18 +4491,18 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4510,18 +4511,18 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C89" s="4" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4530,18 +4531,18 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4550,18 +4551,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4570,18 +4571,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4590,18 +4591,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="45" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4610,21 +4611,21 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -4632,19 +4633,19 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="4" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -4655,14 +4656,14 @@
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4673,14 +4674,14 @@
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -4691,14 +4692,14 @@
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -4709,14 +4710,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -4727,14 +4728,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -4745,14 +4746,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="5"/>
@@ -4763,14 +4764,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="5"/>
@@ -4781,14 +4782,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -4799,14 +4800,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -4817,14 +4818,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -4835,10 +4836,10 @@
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="str">
@@ -4854,10 +4855,10 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="str">
@@ -4873,10 +4874,10 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="str">
@@ -4892,10 +4893,10 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
@@ -4911,10 +4912,10 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
@@ -4930,10 +4931,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>47</v>
+        <v>270</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
@@ -4949,10 +4950,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
@@ -4968,10 +4969,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
@@ -4987,10 +4988,10 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
@@ -5006,10 +5007,10 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
@@ -5025,10 +5026,10 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
@@ -5044,10 +5045,10 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
@@ -5063,10 +5064,10 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
@@ -5082,10 +5083,10 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
@@ -5101,10 +5102,10 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
@@ -5120,10 +5121,10 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
@@ -5139,10 +5140,10 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
@@ -5158,10 +5159,10 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
@@ -5177,10 +5178,10 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
@@ -5196,10 +5197,10 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
@@ -5215,10 +5216,10 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
@@ -5234,10 +5235,10 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
@@ -5253,10 +5254,10 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
@@ -5272,10 +5273,10 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
@@ -5291,10 +5292,10 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
@@ -5310,10 +5311,10 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
@@ -5329,10 +5330,10 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
@@ -5348,10 +5349,10 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
@@ -5367,10 +5368,10 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
@@ -5386,10 +5387,10 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
@@ -5405,10 +5406,10 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
@@ -5424,10 +5425,10 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
@@ -5443,10 +5444,10 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
@@ -5462,10 +5463,10 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
@@ -5481,10 +5482,10 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
@@ -5499,6 +5500,7 @@
       <c r="J140" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -5539,7 +5541,6 @@
     <hyperlink ref="D39" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -21,6 +21,706 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="292">
   <si>
+    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>urlTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>predicateUrl</t>
+  </si>
+  <si>
+    <t>predicate URL</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+  </si>
+  <si>
+    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>rdfs:member</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2001/XMLSchema#</t>
+    </r>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
     <t>right to left</t>
   </si>
   <si>
@@ -518,714 +1218,11 @@
   <si>
     <t>datatype</t>
   </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>predicateUrl</t>
-  </si>
-  <si>
-    <t>predicate URL</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-  </si>
-  <si>
-    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>rdfs:member</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2001/XMLSchema#</t>
-    </r>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-  </si>
-  <si>
-    <t>uri template</t>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -2633,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:IV140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2649,22 +2646,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2675,21 +2672,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2698,18 +2695,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2718,19 +2715,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>1</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2741,14 +2738,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2759,14 +2756,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2777,14 +2774,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2795,14 +2792,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2813,14 +2810,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2831,14 +2828,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2849,14 +2846,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2867,14 +2864,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2885,14 +2882,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2903,14 +2900,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2921,14 +2918,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2939,14 +2936,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2957,14 +2954,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2975,14 +2972,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2993,14 +2990,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3011,14 +3008,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3029,14 +3026,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3047,14 +3044,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3065,14 +3062,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3083,14 +3080,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3101,14 +3098,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3119,14 +3116,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3137,14 +3134,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3155,14 +3152,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3173,14 +3170,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3191,14 +3188,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3209,14 +3206,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3227,14 +3224,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3245,14 +3242,14 @@
     </row>
     <row r="33" spans="1:10" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3263,14 +3260,14 @@
     </row>
     <row r="34" spans="1:10" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3281,14 +3278,14 @@
     </row>
     <row r="35" spans="1:10" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3299,14 +3296,14 @@
     </row>
     <row r="36" spans="1:10" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3317,14 +3314,14 @@
     </row>
     <row r="37" spans="1:10" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3335,14 +3332,14 @@
     </row>
     <row r="38" spans="1:10" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>70</v>
+        <v>287</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3353,14 +3350,14 @@
     </row>
     <row r="39" spans="1:10" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3371,20 +3368,20 @@
     </row>
     <row r="40" spans="1:10" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="str">
@@ -3393,227 +3390,227 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="60" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3622,269 +3619,269 @@
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>198</v>
+        <v>119</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -3893,161 +3890,161 @@
         <v>1</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="45" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="4" t="str">
@@ -4058,24 +4055,24 @@
         <v>1</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4085,191 +4082,191 @@
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="135" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4" t="str">
@@ -4278,25 +4275,25 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>"@vocab"</f>
@@ -4305,93 +4302,93 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="120" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>204</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="G83" s="4" t="str">
         <f>"@vocab"</f>
@@ -4400,22 +4397,22 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="135" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4425,64 +4422,64 @@
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="19" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4491,18 +4488,18 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4511,18 +4508,18 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4531,18 +4528,18 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4551,18 +4548,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4571,18 +4568,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4591,18 +4588,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>236</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="45" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4611,21 +4608,21 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -4633,19 +4630,19 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="4" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -4656,14 +4653,14 @@
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4674,14 +4671,14 @@
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -4692,14 +4689,14 @@
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -4710,14 +4707,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -4728,14 +4725,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -4746,14 +4743,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="5"/>
@@ -4764,14 +4761,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="5"/>
@@ -4782,14 +4779,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -4800,14 +4797,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -4818,14 +4815,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>70</v>
+        <v>287</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -4836,10 +4833,10 @@
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="str">
@@ -4855,10 +4852,10 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="str">
@@ -4874,10 +4871,10 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="str">
@@ -4893,10 +4890,10 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
@@ -4912,10 +4909,10 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
@@ -4931,10 +4928,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
@@ -4950,10 +4947,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
@@ -4969,10 +4966,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
@@ -4988,10 +4985,10 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
@@ -5007,10 +5004,10 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
@@ -5026,10 +5023,10 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
@@ -5045,10 +5042,10 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
@@ -5064,10 +5061,10 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
@@ -5083,10 +5080,10 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
@@ -5102,10 +5099,10 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
@@ -5121,10 +5118,10 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
@@ -5140,10 +5137,10 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
@@ -5159,10 +5156,10 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
@@ -5178,10 +5175,10 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
@@ -5197,10 +5194,10 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
@@ -5216,10 +5213,10 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
@@ -5235,10 +5232,10 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>286</v>
+        <v>64</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
@@ -5254,10 +5251,10 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>287</v>
+        <v>65</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
@@ -5273,10 +5270,10 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
@@ -5292,10 +5289,10 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
@@ -5311,10 +5308,10 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>290</v>
+        <v>68</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
@@ -5330,10 +5327,10 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>291</v>
+        <v>69</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
@@ -5349,10 +5346,10 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
@@ -5368,10 +5365,10 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>224</v>
+        <v>2</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
@@ -5387,10 +5384,10 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
@@ -5406,10 +5403,10 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
@@ -5425,10 +5422,10 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
@@ -5444,10 +5441,10 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
@@ -5463,10 +5460,10 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
@@ -5482,10 +5479,10 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
@@ -5500,7 +5497,6 @@
       <c r="J140" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="-80" windowWidth="23600" windowHeight="26560"/>
+    <workbookView xWindow="5060" yWindow="-320" windowWidth="23600" windowHeight="26560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="300">
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw:uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -276,6 +284,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uri template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
   </si>
   <si>
@@ -347,15 +367,6 @@
   </si>
   <si>
     <t>skip columns</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
   </si>
   <si>
     <t>If true, sets the trim flag to "start". If false, to false.</t>
@@ -582,6 +593,15 @@
     <t>default</t>
   </si>
   <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
     <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
   </si>
   <si>
@@ -1218,11 +1238,29 @@
   <si>
     <t>datatype</t>
   </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -2628,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:IV140"/>
+  <dimension ref="A1:IV141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2646,22 +2684,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2672,21 +2710,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2695,18 +2733,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2715,19 +2753,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2738,14 +2776,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2756,14 +2794,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2774,14 +2812,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2792,14 +2830,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2810,14 +2848,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2828,14 +2866,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2846,14 +2884,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2864,14 +2902,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2882,14 +2920,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2900,14 +2938,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2918,14 +2956,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2936,14 +2974,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2954,14 +2992,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2972,14 +3010,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2990,14 +3028,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3008,14 +3046,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3026,14 +3064,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3044,14 +3082,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3062,14 +3100,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3080,14 +3118,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3098,14 +3136,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3116,14 +3154,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3134,14 +3172,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3152,14 +3190,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3170,14 +3208,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3188,14 +3226,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3206,14 +3244,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3224,14 +3262,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3242,14 +3280,14 @@
     </row>
     <row r="33" spans="1:10" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3260,14 +3298,14 @@
     </row>
     <row r="34" spans="1:10" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3278,14 +3316,14 @@
     </row>
     <row r="35" spans="1:10" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3296,14 +3334,14 @@
     </row>
     <row r="36" spans="1:10" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3314,14 +3352,14 @@
     </row>
     <row r="37" spans="1:10" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3332,14 +3370,14 @@
     </row>
     <row r="38" spans="1:10" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3350,14 +3388,14 @@
     </row>
     <row r="39" spans="1:10" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3368,20 +3406,20 @@
     </row>
     <row r="40" spans="1:10" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="str">
@@ -3390,227 +3428,241 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="60" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="19" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3619,432 +3671,452 @@
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F55" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F59" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F62" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5" t="b">
         <v>1</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="45" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F64" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F67" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="4" t="str">
@@ -4055,24 +4127,24 @@
         <v>1</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4082,191 +4154,195 @@
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F72" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="135" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F77" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4" t="str">
@@ -4275,25 +4351,25 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>"@vocab"</f>
@@ -4302,93 +4378,97 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="120" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F80" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F81" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G83" s="4" t="str">
         <f>"@vocab"</f>
@@ -4397,22 +4477,22 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="135" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4422,64 +4502,66 @@
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="19" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4488,18 +4570,18 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4508,18 +4590,18 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4528,18 +4610,18 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4548,18 +4630,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4568,18 +4650,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4588,18 +4670,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="45" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4608,21 +4690,21 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -4630,33 +4712,35 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D95" s="4" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="7"/>
+      <c r="J95" s="6"/>
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
@@ -4674,7 +4758,7 @@
         <v>26</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
@@ -4692,7 +4776,7 @@
         <v>28</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
@@ -4710,7 +4794,7 @@
         <v>30</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
@@ -4728,7 +4812,7 @@
         <v>32</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
@@ -4746,13 +4830,13 @@
         <v>34</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E101" s="9"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -4764,7 +4848,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
@@ -4782,13 +4866,13 @@
         <v>38</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -4800,7 +4884,7 @@
         <v>40</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
@@ -4815,14 +4899,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -4831,17 +4915,16 @@
       <c r="I105" s="5"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" ht="15" customHeight="1">
+    <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4" t="str">
-        <f>CONCATENATE("xsd:",A106)</f>
-        <v>xsd:anySimpleType</v>
+        <v>24</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -4852,15 +4935,15 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="str">
-        <f t="shared" ref="D107:D140" si="0">CONCATENATE("xsd:",A107)</f>
-        <v>xsd:string</v>
+        <f>CONCATENATE("xsd:",A107)</f>
+        <v>xsd:anySimpleType</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -4871,15 +4954,15 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:normalizedString</v>
+        <f t="shared" ref="D108:D141" si="0">CONCATENATE("xsd:",A108)</f>
+        <v>xsd:string</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -4890,15 +4973,15 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:token</v>
+        <v>xsd:normalizedString</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -4909,15 +4992,15 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:Name</v>
+        <v>xsd:token</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -4928,15 +5011,15 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:NCName</v>
+        <v>xsd:Name</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -4947,15 +5030,15 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:boolean</v>
+        <v>xsd:NCName</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -4966,15 +5049,15 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:decimal</v>
+        <v>xsd:boolean</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -4985,15 +5068,15 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+        <v>xsd:decimal</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5004,15 +5087,15 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <v>xsd:integer</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5023,15 +5106,15 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+        <v>xsd:nonPositiveInteger</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5042,15 +5125,15 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:long</v>
+        <v>xsd:negativeInteger</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5061,15 +5144,15 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:int</v>
+        <v>xsd:long</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5080,15 +5163,15 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:short</v>
+        <v>xsd:int</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5099,15 +5182,15 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:byte</v>
+        <v>xsd:short</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5118,15 +5201,15 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonNegativeInteger</v>
+        <v>xsd:byte</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5137,15 +5220,15 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedLong</v>
+        <v>xsd:nonNegativeInteger</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5156,15 +5239,15 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedInt</v>
+        <v>xsd:unsignedLong</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5175,15 +5258,15 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedShort</v>
+        <v>xsd:unsignedInt</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5194,15 +5277,15 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedByte</v>
+        <v>xsd:unsignedShort</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5213,15 +5296,15 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:positiveInteger</v>
+        <v>xsd:unsignedByte</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5232,15 +5315,15 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:float</v>
+        <v>xsd:positiveInteger</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5251,15 +5334,15 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:double</v>
+        <v>xsd:float</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -5270,15 +5353,15 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:duration</v>
+        <v>xsd:double</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -5289,15 +5372,15 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:dateTime</v>
+        <v>xsd:duration</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -5308,15 +5391,15 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:time</v>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -5327,15 +5410,15 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:date</v>
+        <v>xsd:time</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5346,15 +5429,15 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYearMonth</v>
+        <v>xsd:date</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -5365,15 +5448,15 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYear</v>
+        <v>xsd:gYearMonth</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -5384,15 +5467,15 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonthDay</v>
+        <v>xsd:gYear</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -5403,15 +5486,15 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gDay</v>
+        <v>xsd:gMonthDay</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5422,15 +5505,15 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonth</v>
+        <v>xsd:gDay</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5441,15 +5524,15 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:hexBinary</v>
+        <v>xsd:gMonth</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -5460,15 +5543,15 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:base64Binary</v>
+        <v>xsd:hexBinary</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -5479,15 +5562,15 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:anyURI</v>
+        <v>xsd:base64Binary</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5495,6 +5578,25 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="7"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1">
+      <c r="A141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5537,6 +5639,7 @@
     <hyperlink ref="D39" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -19,450 +19,658 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="301">
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/terms/</t>
+    </r>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/elements/1.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/dcat#</t>
+    </r>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://xmlns.com/foaf/0.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/goodrelations/v1#</t>
+    </r>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2003/g/data-view#</t>
+    </r>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+    </r>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/ma-ont#</t>
+    </r>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://ogp.me/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/org#</t>
+    </r>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/07/owl#</t>
+    </r>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/prov#</t>
+    </r>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/linked-data/cube#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/rdfa#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2000/01/rdf-schema#</t>
+    </r>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/stuff/rev#</t>
+    </r>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/rif#</t>
+    </r>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/r2rml#</t>
+    </r>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://schema.org/</t>
+    </r>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/sparql-service-description#</t>
+    </r>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/sioc/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2004/02/skos/core#</t>
+    </r>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2008/05/skos-xl#</t>
+    </r>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdf.data-vocabulary.org/#</t>
+    </r>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2006/vcard/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/ns/void#</t>
+    </r>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder#</t>
+    </r>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder-s#</t>
+    </r>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/xhtml/vocab#</t>
+    </r>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/XML/1998/namespace</t>
+    </r>
+  </si>
+  <si>
+    <t>delimiter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>csvw:uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>urlTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uri template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>@vocab</t>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://creativecommons.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>csvw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/csvw#</t>
+    </r>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://commontag.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>dc</t>
   </si>
   <si>
     <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
@@ -602,652 +810,447 @@
     <t>skip initial space</t>
   </si>
   <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://creativecommons.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>csvw</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/csvw#</t>
-    </r>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://commontag.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/terms/</t>
-    </r>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/elements/1.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/dcat#</t>
-    </r>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://xmlns.com/foaf/0.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/goodrelations/v1#</t>
-    </r>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2003/g/data-view#</t>
-    </r>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-    </r>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/ma-ont#</t>
-    </r>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://ogp.me/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/org#</t>
-    </r>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/07/owl#</t>
-    </r>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/prov#</t>
-    </r>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/linked-data/cube#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/rdfa#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2000/01/rdf-schema#</t>
-    </r>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/stuff/rev#</t>
-    </r>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/rif#</t>
-    </r>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/r2rml#</t>
-    </r>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://schema.org/</t>
-    </r>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/sparql-service-description#</t>
-    </r>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/sioc/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2004/02/skos/core#</t>
-    </r>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2008/05/skos-xl#</t>
-    </r>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdf.data-vocabulary.org/#</t>
-    </r>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2006/vcard/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/ns/void#</t>
-    </r>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder#</t>
-    </r>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder-s#</t>
-    </r>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/xhtml/vocab#</t>
-    </r>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/XML/1998/namespace</t>
-    </r>
-  </si>
-  <si>
-    <t>delimiter</t>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri template</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xsd:integer</t>
+    <t>csvw:uriTemplate</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xsd:anyURI</t>
+    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>urlTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1297,7 +1300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1320,13 +1323,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1347,6 +1365,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2668,38 +2690,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:IV141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:IV42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.125" style="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.125" style="1"/>
     <col min="10" max="10" width="32.5" style="1" customWidth="1"/>
-    <col min="11" max="256" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2710,21 +2733,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2733,18 +2756,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2753,19 +2776,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2776,14 +2799,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2794,14 +2817,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2812,14 +2835,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2830,14 +2853,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2848,14 +2871,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2866,14 +2889,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2884,14 +2907,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2902,14 +2925,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2920,14 +2943,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2938,14 +2961,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2956,14 +2979,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2974,14 +2997,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2992,14 +3015,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3010,14 +3033,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3028,14 +3051,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3046,14 +3069,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3064,14 +3087,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3082,14 +3105,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3100,14 +3123,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3118,14 +3141,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3136,14 +3159,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3154,14 +3177,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3172,14 +3195,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3190,14 +3213,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3208,14 +3231,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3226,14 +3249,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3244,14 +3267,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>279</v>
+        <v>47</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3262,14 +3285,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3278,16 +3301,16 @@
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="19" customHeight="1">
+    <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3296,16 +3319,16 @@
       <c r="I33" s="5"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="19" customHeight="1">
+    <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3314,16 +3337,16 @@
       <c r="I34" s="5"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="19" customHeight="1">
+    <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>287</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3332,16 +3355,16 @@
       <c r="I35" s="5"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" ht="19" customHeight="1">
+    <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>288</v>
+        <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3350,16 +3373,16 @@
       <c r="I36" s="5"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="19" customHeight="1">
+    <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3368,16 +3391,16 @@
       <c r="I37" s="5"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="19" customHeight="1">
+    <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3386,16 +3409,16 @@
       <c r="I38" s="5"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="19" customHeight="1">
+    <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3404,22 +3427,22 @@
       <c r="I39" s="5"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="19" customHeight="1">
+    <row r="40" spans="1:256" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="str">
@@ -3428,241 +3451,489 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="60" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:256" ht="60" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="60" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:256" ht="60" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+      <c r="AW42"/>
+      <c r="AX42"/>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="BA42"/>
+      <c r="BB42"/>
+      <c r="BC42"/>
+      <c r="BD42"/>
+      <c r="BE42"/>
+      <c r="BF42"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
+      <c r="BK42"/>
+      <c r="BL42"/>
+      <c r="BM42"/>
+      <c r="BN42"/>
+      <c r="BO42"/>
+      <c r="BP42"/>
+      <c r="BQ42"/>
+      <c r="BR42"/>
+      <c r="BS42"/>
+      <c r="BT42"/>
+      <c r="BU42"/>
+      <c r="BV42"/>
+      <c r="BW42"/>
+      <c r="BX42"/>
+      <c r="BY42"/>
+      <c r="BZ42"/>
+      <c r="CA42"/>
+      <c r="CB42"/>
+      <c r="CC42"/>
+      <c r="CD42"/>
+      <c r="CE42"/>
+      <c r="CF42"/>
+      <c r="CG42"/>
+      <c r="CH42"/>
+      <c r="CI42"/>
+      <c r="CJ42"/>
+      <c r="CK42"/>
+      <c r="CL42"/>
+      <c r="CM42"/>
+      <c r="CN42"/>
+      <c r="CO42"/>
+      <c r="CP42"/>
+      <c r="CQ42"/>
+      <c r="CR42"/>
+      <c r="CS42"/>
+      <c r="CT42"/>
+      <c r="CU42"/>
+      <c r="CV42"/>
+      <c r="CW42"/>
+      <c r="CX42"/>
+      <c r="CY42"/>
+      <c r="CZ42"/>
+      <c r="DA42"/>
+      <c r="DB42"/>
+      <c r="DC42"/>
+      <c r="DD42"/>
+      <c r="DE42"/>
+      <c r="DF42"/>
+      <c r="DG42"/>
+      <c r="DH42"/>
+      <c r="DI42"/>
+      <c r="DJ42"/>
+      <c r="DK42"/>
+      <c r="DL42"/>
+      <c r="DM42"/>
+      <c r="DN42"/>
+      <c r="DO42"/>
+      <c r="DP42"/>
+      <c r="DQ42"/>
+      <c r="DR42"/>
+      <c r="DS42"/>
+      <c r="DT42"/>
+      <c r="DU42"/>
+      <c r="DV42"/>
+      <c r="DW42"/>
+      <c r="DX42"/>
+      <c r="DY42"/>
+      <c r="DZ42"/>
+      <c r="EA42"/>
+      <c r="EB42"/>
+      <c r="EC42"/>
+      <c r="ED42"/>
+      <c r="EE42"/>
+      <c r="EF42"/>
+      <c r="EG42"/>
+      <c r="EH42"/>
+      <c r="EI42"/>
+      <c r="EJ42"/>
+      <c r="EK42"/>
+      <c r="EL42"/>
+      <c r="EM42"/>
+      <c r="EN42"/>
+      <c r="EO42"/>
+      <c r="EP42"/>
+      <c r="EQ42"/>
+      <c r="ER42"/>
+      <c r="ES42"/>
+      <c r="ET42"/>
+      <c r="EU42"/>
+      <c r="EV42"/>
+      <c r="EW42"/>
+      <c r="EX42"/>
+      <c r="EY42"/>
+      <c r="EZ42"/>
+      <c r="FA42"/>
+      <c r="FB42"/>
+      <c r="FC42"/>
+      <c r="FD42"/>
+      <c r="FE42"/>
+      <c r="FF42"/>
+      <c r="FG42"/>
+      <c r="FH42"/>
+      <c r="FI42"/>
+      <c r="FJ42"/>
+      <c r="FK42"/>
+      <c r="FL42"/>
+      <c r="FM42"/>
+      <c r="FN42"/>
+      <c r="FO42"/>
+      <c r="FP42"/>
+      <c r="FQ42"/>
+      <c r="FR42"/>
+      <c r="FS42"/>
+      <c r="FT42"/>
+      <c r="FU42"/>
+      <c r="FV42"/>
+      <c r="FW42"/>
+      <c r="FX42"/>
+      <c r="FY42"/>
+      <c r="FZ42"/>
+      <c r="GA42"/>
+      <c r="GB42"/>
+      <c r="GC42"/>
+      <c r="GD42"/>
+      <c r="GE42"/>
+      <c r="GF42"/>
+      <c r="GG42"/>
+      <c r="GH42"/>
+      <c r="GI42"/>
+      <c r="GJ42"/>
+      <c r="GK42"/>
+      <c r="GL42"/>
+      <c r="GM42"/>
+      <c r="GN42"/>
+      <c r="GO42"/>
+      <c r="GP42"/>
+      <c r="GQ42"/>
+      <c r="GR42"/>
+      <c r="GS42"/>
+      <c r="GT42"/>
+      <c r="GU42"/>
+      <c r="GV42"/>
+      <c r="GW42"/>
+      <c r="GX42"/>
+      <c r="GY42"/>
+      <c r="GZ42"/>
+      <c r="HA42"/>
+      <c r="HB42"/>
+      <c r="HC42"/>
+      <c r="HD42"/>
+      <c r="HE42"/>
+      <c r="HF42"/>
+      <c r="HG42"/>
+      <c r="HH42"/>
+      <c r="HI42"/>
+      <c r="HJ42"/>
+      <c r="HK42"/>
+      <c r="HL42"/>
+      <c r="HM42"/>
+      <c r="HN42"/>
+      <c r="HO42"/>
+      <c r="HP42"/>
+      <c r="HQ42"/>
+      <c r="HR42"/>
+      <c r="HS42"/>
+      <c r="HT42"/>
+      <c r="HU42"/>
+      <c r="HV42"/>
+      <c r="HW42"/>
+      <c r="HX42"/>
+      <c r="HY42"/>
+      <c r="HZ42"/>
+      <c r="IA42"/>
+      <c r="IB42"/>
+      <c r="IC42"/>
+      <c r="ID42"/>
+      <c r="IE42"/>
+      <c r="IF42"/>
+      <c r="IG42"/>
+      <c r="IH42"/>
+      <c r="II42"/>
+      <c r="IJ42"/>
+      <c r="IK42"/>
+      <c r="IL42"/>
+      <c r="IM42"/>
+      <c r="IN42"/>
+      <c r="IO42"/>
+      <c r="IP42"/>
+      <c r="IQ42"/>
+      <c r="IR42"/>
+      <c r="IS42"/>
+      <c r="IT42"/>
+      <c r="IU42"/>
+      <c r="IV42"/>
+    </row>
+    <row r="43" spans="1:256" ht="75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="19" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:256" ht="19" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>294</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="45" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:256" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:256" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="30" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:256" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="45" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:256" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3671,284 +3942,284 @@
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -3956,167 +4227,167 @@
         <v>1</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="45" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="4" t="str">
@@ -4127,24 +4398,24 @@
         <v>1</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4154,195 +4425,195 @@
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="135" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4" t="str">
@@ -4351,25 +4622,25 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>"@vocab"</f>
@@ -4378,97 +4649,97 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="120" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="G83" s="4" t="str">
         <f>"@vocab"</f>
@@ -4477,22 +4748,22 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="135" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4502,66 +4773,66 @@
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="19" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4570,18 +4841,18 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4590,18 +4861,18 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4610,18 +4881,18 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4630,18 +4901,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4650,18 +4921,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4670,18 +4941,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="45" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4690,21 +4961,21 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -4712,21 +4983,21 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -4737,14 +5008,14 @@
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4755,14 +5026,14 @@
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -4773,14 +5044,14 @@
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -4791,14 +5062,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -4809,14 +5080,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -4827,14 +5098,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -4845,14 +5116,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="5"/>
@@ -4863,14 +5134,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="5"/>
@@ -4881,14 +5152,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -4899,14 +5170,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -4917,14 +5188,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -4935,10 +5206,10 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="str">
@@ -4954,10 +5225,10 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="str">
@@ -4973,10 +5244,10 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
@@ -4992,10 +5263,10 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
@@ -5011,10 +5282,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
@@ -5030,10 +5301,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
@@ -5049,10 +5320,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
@@ -5068,10 +5339,10 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
@@ -5087,10 +5358,10 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
@@ -5106,10 +5377,10 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
@@ -5125,10 +5396,10 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
@@ -5144,10 +5415,10 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
@@ -5163,10 +5434,10 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
@@ -5182,10 +5453,10 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
@@ -5201,10 +5472,10 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
@@ -5220,10 +5491,10 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
@@ -5239,10 +5510,10 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
@@ -5258,10 +5529,10 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
@@ -5277,10 +5548,10 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
@@ -5296,10 +5567,10 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
@@ -5315,10 +5586,10 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
@@ -5334,10 +5605,10 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
@@ -5353,10 +5624,10 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
@@ -5372,10 +5643,10 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
@@ -5391,10 +5662,10 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
@@ -5410,10 +5681,10 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
@@ -5429,10 +5700,10 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
@@ -5448,10 +5719,10 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
@@ -5467,10 +5738,10 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
@@ -5486,10 +5757,10 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
@@ -5505,10 +5776,10 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
@@ -5524,10 +5795,10 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
@@ -5543,10 +5814,10 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
@@ -5562,10 +5833,10 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
@@ -5581,10 +5852,10 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
@@ -5639,7 +5910,6 @@
     <hyperlink ref="D39" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -19,7 +19,801 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="305">
+  <si>
+    <t>xsd:language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableSchema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>table schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw:uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>urlTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>predicateUrl</t>
+  </si>
+  <si>
+    <t>predicate URL</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+  </si>
+  <si>
+    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>rdfs:member</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2001/XMLSchema#</t>
+    </r>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://creativecommons.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>csvw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/csvw#</t>
+    </r>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://commontag.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -287,9 +1081,6 @@
     </r>
   </si>
   <si>
-    <t>schema</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -479,791 +1270,11 @@
   <si>
     <t>@vocab</t>
   </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://creativecommons.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>csvw</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/csvw#</t>
-    </r>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://commontag.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>predicateUrl</t>
-  </si>
-  <si>
-    <t>predicate URL</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-  </si>
-  <si>
-    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>rdfs:member</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2001/XMLSchema#</t>
-    </r>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uri template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csvw:uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>urlTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -2688,11 +2699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:IV141"/>
+  <dimension ref="A1:IV142"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:IV42"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2707,22 +2718,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2733,21 +2744,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2756,18 +2767,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2776,19 +2787,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2799,14 +2810,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2817,14 +2828,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2835,14 +2846,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2853,14 +2864,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2871,14 +2882,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2889,14 +2900,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2907,14 +2918,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2925,14 +2936,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2943,14 +2954,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2961,14 +2972,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2979,14 +2990,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2997,14 +3008,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3015,14 +3026,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3033,14 +3044,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3051,14 +3062,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3069,14 +3080,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3087,14 +3098,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3105,14 +3116,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3123,14 +3134,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3141,14 +3152,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3159,14 +3170,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3177,14 +3188,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3195,14 +3206,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3213,14 +3224,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3231,14 +3242,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3249,14 +3260,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3267,14 +3278,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3285,14 +3296,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3303,14 +3314,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3321,14 +3332,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3339,14 +3350,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3357,14 +3368,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3375,14 +3386,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3393,14 +3404,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3411,14 +3422,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3429,20 +3440,20 @@
     </row>
     <row r="40" spans="1:256" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="str">
@@ -3451,57 +3462,57 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:256" ht="60" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:256" ht="60" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -3752,188 +3763,188 @@
     </row>
     <row r="43" spans="1:256" ht="75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:256" ht="19" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:256" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:256" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3942,284 +3953,284 @@
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -4227,167 +4238,167 @@
         <v>1</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="45" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="4" t="str">
@@ -4398,24 +4409,24 @@
         <v>1</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4425,195 +4436,195 @@
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="135" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4" t="str">
@@ -4622,25 +4633,25 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>"@vocab"</f>
@@ -4649,97 +4660,97 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="120" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>67</v>
+        <v>303</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="G83" s="4" t="str">
         <f>"@vocab"</f>
@@ -4748,22 +4759,22 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="135" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4773,66 +4784,66 @@
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>227</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="19" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4841,18 +4852,18 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>218</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4861,18 +4872,18 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4881,18 +4892,18 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4901,18 +4912,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>237</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4921,18 +4932,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4941,18 +4952,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>241</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="45" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4961,21 +4972,21 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="19" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -4983,21 +4994,21 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -5008,14 +5019,14 @@
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -5026,14 +5037,14 @@
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -5044,14 +5055,14 @@
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -5062,14 +5073,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5080,14 +5091,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5098,14 +5109,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5116,14 +5127,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="5"/>
@@ -5134,14 +5145,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="5"/>
@@ -5152,14 +5163,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -5170,14 +5181,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5188,14 +5199,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5206,10 +5217,10 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="str">
@@ -5225,14 +5236,14 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="str">
-        <f t="shared" ref="D108:D141" si="0">CONCATENATE("xsd:",A108)</f>
+        <f t="shared" ref="D108:D142" si="0">CONCATENATE("xsd:",A108)</f>
         <v>xsd:string</v>
       </c>
       <c r="E108" s="5"/>
@@ -5244,10 +5255,10 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
@@ -5263,10 +5274,10 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
@@ -5282,10 +5293,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
@@ -5301,10 +5312,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
@@ -5320,10 +5331,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
@@ -5339,15 +5350,14 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:decimal</v>
+      <c r="D114" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5358,15 +5368,15 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+        <v>xsd:decimal</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5377,15 +5387,15 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <v>xsd:integer</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5396,15 +5406,15 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+        <v>xsd:nonPositiveInteger</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5415,15 +5425,15 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:long</v>
+        <v>xsd:negativeInteger</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5434,15 +5444,15 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:int</v>
+        <v>xsd:long</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5453,15 +5463,15 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:short</v>
+        <v>xsd:int</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5472,15 +5482,15 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:byte</v>
+        <v>xsd:short</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5491,15 +5501,15 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonNegativeInteger</v>
+        <v>xsd:byte</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5510,15 +5520,15 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>286</v>
+        <v>62</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedLong</v>
+        <v>xsd:nonNegativeInteger</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5529,15 +5539,15 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedInt</v>
+        <v>xsd:unsignedLong</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5548,15 +5558,15 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>288</v>
+        <v>64</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedShort</v>
+        <v>xsd:unsignedInt</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5567,15 +5577,15 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedByte</v>
+        <v>xsd:unsignedShort</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5586,15 +5596,15 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:positiveInteger</v>
+        <v>xsd:unsignedByte</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5605,15 +5615,15 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>291</v>
+        <v>67</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:float</v>
+        <v>xsd:positiveInteger</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -5624,15 +5634,15 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:double</v>
+        <v>xsd:float</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -5643,15 +5653,15 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:duration</v>
+        <v>xsd:double</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -5662,15 +5672,15 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>294</v>
+        <v>70</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:dateTime</v>
+        <v>xsd:duration</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -5681,15 +5691,15 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:time</v>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5700,15 +5710,15 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:date</v>
+        <v>xsd:time</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -5719,15 +5729,15 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYearMonth</v>
+        <v>xsd:date</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -5738,15 +5748,15 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYear</v>
+        <v>xsd:gYearMonth</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -5757,15 +5767,15 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonthDay</v>
+        <v>xsd:gYear</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5776,15 +5786,15 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gDay</v>
+        <v>xsd:gMonthDay</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5795,15 +5805,15 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonth</v>
+        <v>xsd:gDay</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -5814,15 +5824,15 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:hexBinary</v>
+        <v>xsd:gMonth</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -5833,15 +5843,15 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:base64Binary</v>
+        <v>xsd:hexBinary</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5852,15 +5862,15 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:anyURI</v>
+        <v>xsd:base64Binary</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -5868,6 +5878,25 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:10" ht="15" customHeight="1">
+      <c r="A142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -19,470 +19,676 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="305">
-  <si>
-    <t>xsd:language</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="310">
+  <si>
+    <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
+For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>schema</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/terms/</t>
+    </r>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/elements/1.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/dcat#</t>
+    </r>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://xmlns.com/foaf/0.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/goodrelations/v1#</t>
+    </r>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2003/g/data-view#</t>
+    </r>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+    </r>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/ma-ont#</t>
+    </r>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://ogp.me/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/org#</t>
+    </r>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/07/owl#</t>
+    </r>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/prov#</t>
+    </r>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/linked-data/cube#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/rdfa#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2000/01/rdf-schema#</t>
+    </r>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/stuff/rev#</t>
+    </r>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/rif#</t>
+    </r>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/r2rml#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://schema.org/</t>
+    </r>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/sparql-service-description#</t>
+    </r>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/sioc/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2004/02/skos/core#</t>
+    </r>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2008/05/skos-xl#</t>
+    </r>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdf.data-vocabulary.org/#</t>
+    </r>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2006/vcard/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/ns/void#</t>
+    </r>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder#</t>
+    </r>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder-s#</t>
+    </r>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/xhtml/vocab#</t>
+    </r>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/XML/1998/namespace</t>
+    </r>
+  </si>
+  <si>
+    <t>delimiter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>tableSchema</t>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>table schema</t>
+    <t>xsd:integer</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csvw:uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>urlTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>term</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
   </si>
   <si>
     <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uri template</t>
+    <t>@vocab</t>
+  </si>
+  <si>
+    <t>url</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table,Template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://creativecommons.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>csvw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/csvw#</t>
+    </r>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://commontag.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>dc</t>
   </si>
   <si>
     <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
@@ -622,653 +828,468 @@
     <t>skip initial space</t>
   </si>
   <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://creativecommons.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>csvw</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/csvw#</t>
-    </r>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://commontag.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/terms/</t>
-    </r>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/elements/1.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/dcat#</t>
-    </r>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://xmlns.com/foaf/0.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/goodrelations/v1#</t>
-    </r>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2003/g/data-view#</t>
-    </r>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-    </r>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/ma-ont#</t>
-    </r>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://ogp.me/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/org#</t>
-    </r>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/07/owl#</t>
-    </r>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/prov#</t>
-    </r>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/linked-data/cube#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/rdfa#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2000/01/rdf-schema#</t>
-    </r>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/stuff/rev#</t>
-    </r>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/rif#</t>
-    </r>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/r2rml#</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://schema.org/</t>
-    </r>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/sparql-service-description#</t>
-    </r>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/sioc/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2004/02/skos/core#</t>
-    </r>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2008/05/skos-xl#</t>
-    </r>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdf.data-vocabulary.org/#</t>
-    </r>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2006/vcard/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/ns/void#</t>
-    </r>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder#</t>
-    </r>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder-s#</t>
-    </r>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/xhtml/vocab#</t>
-    </r>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/XML/1998/namespace</t>
-    </r>
-  </si>
-  <si>
-    <t>delimiter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
   </si>
   <si>
     <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>@vocab</t>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>xsd:language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableSchema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>table schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw:uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>urlTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2699,11 +2720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:IV142"/>
+  <dimension ref="A1:IV143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2718,22 +2739,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2744,21 +2765,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2767,18 +2788,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2787,19 +2808,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2810,14 +2831,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2828,14 +2849,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2846,14 +2867,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2864,14 +2885,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>238</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2882,14 +2903,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2900,14 +2921,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2918,14 +2939,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2936,14 +2957,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2954,14 +2975,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2972,14 +2993,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2990,14 +3011,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3008,14 +3029,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3026,14 +3047,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3044,14 +3065,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3062,14 +3083,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3080,14 +3101,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3098,14 +3119,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3116,14 +3137,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3134,14 +3155,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3152,14 +3173,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3170,14 +3191,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>271</v>
+        <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3188,14 +3209,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3206,14 +3227,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3224,14 +3245,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3242,14 +3263,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3260,14 +3281,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3278,14 +3299,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3296,14 +3317,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3314,14 +3335,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3332,14 +3353,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>288</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3350,14 +3371,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3368,14 +3389,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3386,14 +3407,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>294</v>
+        <v>58</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>295</v>
+        <v>59</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3404,14 +3425,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3422,14 +3443,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3440,20 +3461,20 @@
     </row>
     <row r="40" spans="1:256" ht="19" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4" t="str">
@@ -3462,57 +3483,57 @@
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:256" ht="60" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:256" ht="60" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
@@ -3763,188 +3784,188 @@
     </row>
     <row r="43" spans="1:256" ht="75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:256" ht="19" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="45" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:256" ht="30" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:256" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3953,284 +3974,284 @@
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="19" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="19" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="4" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -4238,167 +4259,167 @@
         <v>1</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="45" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="4" t="str">
@@ -4409,24 +4430,24 @@
         <v>1</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4436,195 +4457,195 @@
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="45" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="135" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="60" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4" t="str">
@@ -4633,25 +4654,25 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>"@vocab"</f>
@@ -4660,97 +4681,97 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="120" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="G83" s="4" t="str">
         <f>"@vocab"</f>
@@ -4759,22 +4780,22 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="135" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4784,86 +4805,90 @@
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="45" customHeight="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="19" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="E87" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30" customHeight="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="19" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4872,18 +4897,18 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="19" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4892,18 +4917,18 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="30" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="19" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4912,18 +4937,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4932,18 +4957,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4952,18 +4977,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="45" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="30" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4972,79 +4997,81 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="19" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="D96" s="4" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="7"/>
+      <c r="J96" s="6"/>
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -5055,14 +5082,14 @@
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -5073,14 +5100,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5091,14 +5118,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5109,14 +5136,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5127,16 +5154,16 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -5145,14 +5172,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="5"/>
@@ -5163,16 +5190,16 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="E104" s="9"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -5181,14 +5208,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5199,14 +5226,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5215,17 +5242,16 @@
       <c r="I106" s="5"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="1:10" ht="15" customHeight="1">
+    <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4" t="str">
-        <f>CONCATENATE("xsd:",A107)</f>
-        <v>xsd:anySimpleType</v>
+        <v>260</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5236,15 +5262,15 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="str">
-        <f t="shared" ref="D108:D142" si="0">CONCATENATE("xsd:",A108)</f>
-        <v>xsd:string</v>
+        <f>CONCATENATE("xsd:",A108)</f>
+        <v>xsd:anySimpleType</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5255,15 +5281,15 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:normalizedString</v>
+        <f t="shared" ref="D109:D143" si="0">CONCATENATE("xsd:",A109)</f>
+        <v>xsd:string</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5274,15 +5300,15 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:token</v>
+        <v>xsd:normalizedString</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5293,15 +5319,15 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:Name</v>
+        <v>xsd:token</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5312,15 +5338,15 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:NCName</v>
+        <v>xsd:Name</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5331,15 +5357,15 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:boolean</v>
+        <v>xsd:NCName</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5350,14 +5376,15 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="4" t="s">
-        <v>0</v>
+      <c r="D114" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:boolean</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5368,15 +5395,14 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:decimal</v>
+      <c r="D115" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5387,15 +5413,15 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+        <v>xsd:decimal</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5406,15 +5432,15 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>56</v>
+        <v>289</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <v>xsd:integer</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5425,15 +5451,15 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+        <v>xsd:nonPositiveInteger</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5444,15 +5470,15 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>58</v>
+        <v>291</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:long</v>
+        <v>xsd:negativeInteger</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5463,15 +5489,15 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:int</v>
+        <v>xsd:long</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5482,15 +5508,15 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:short</v>
+        <v>xsd:int</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5501,15 +5527,15 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:byte</v>
+        <v>xsd:short</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5520,15 +5546,15 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonNegativeInteger</v>
+        <v>xsd:byte</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5539,15 +5565,15 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedLong</v>
+        <v>xsd:nonNegativeInteger</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5558,15 +5584,15 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedInt</v>
+        <v>xsd:unsignedLong</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5577,15 +5603,15 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedShort</v>
+        <v>xsd:unsignedInt</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5596,15 +5622,15 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedByte</v>
+        <v>xsd:unsignedShort</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5615,15 +5641,15 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:positiveInteger</v>
+        <v>xsd:unsignedByte</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -5634,15 +5660,15 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:float</v>
+        <v>xsd:positiveInteger</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -5653,15 +5679,15 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>69</v>
+        <v>302</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:double</v>
+        <v>xsd:float</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -5672,15 +5698,15 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>70</v>
+        <v>303</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:duration</v>
+        <v>xsd:double</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -5691,15 +5717,15 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:dateTime</v>
+        <v>xsd:duration</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5710,15 +5736,15 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>72</v>
+        <v>305</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:time</v>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -5729,15 +5755,15 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:date</v>
+        <v>xsd:time</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -5748,15 +5774,15 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>6</v>
+        <v>307</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYearMonth</v>
+        <v>xsd:date</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -5767,15 +5793,15 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYear</v>
+        <v>xsd:gYearMonth</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5786,15 +5812,15 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonthDay</v>
+        <v>xsd:gYear</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5805,15 +5831,15 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gDay</v>
+        <v>xsd:gMonthDay</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -5824,15 +5850,15 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonth</v>
+        <v>xsd:gDay</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -5843,15 +5869,15 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:hexBinary</v>
+        <v>xsd:gMonth</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5862,15 +5888,15 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:base64Binary</v>
+        <v>xsd:hexBinary</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -5881,15 +5907,15 @@
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:anyURI</v>
+        <v>xsd:base64Binary</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -5897,6 +5923,25 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="7"/>
+    </row>
+    <row r="143" spans="1:10" ht="15" customHeight="1">
+      <c r="A143" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -19,7 +19,850 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="312">
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each cell within a row when mapping data to other formats</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboutUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>property URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>about URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that holds one or more strings that may be expanded to URIs for properties if the table is mapped to another format. The default value of propertyUrl is "{#_name}".</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that is used to define one or more resources value of a cell instead of a literal values.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>xsd:language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableSchema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>table schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw:uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>A table description is a JSON object that describes a table within a CSV file.</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>A Table Group Description describes a group of Tables.</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>rdfs:Literal</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text-direction</t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table-direction</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://creativecommons.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>csvw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/csvw#</t>
+    </r>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://commontag.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>rdfs:member</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2001/XMLSchema#</t>
+    </r>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@vocab</t>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table,Template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
   <si>
     <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
 For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
@@ -460,842 +1303,17 @@
     <t>delimiter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
-  <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@vocab</t>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table,Template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://creativecommons.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>csvw</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/csvw#</t>
-    </r>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://commontag.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>predicateUrl</t>
-  </si>
-  <si>
-    <t>predicate URL</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-  </si>
-  <si>
-    <t>An atomic property that holds one or more URIs that may be used as URIs for predicates if the table is mapped to another format.</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>rdfs:member</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2001/XMLSchema#</t>
-    </r>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uri template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>term</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>xsd:language</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableSchema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>table schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csvw:uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL template property that may be used to create a unique identifier for each row when mapping data to other formats.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>urlTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -2720,11 +2738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:IV143"/>
+  <dimension ref="A1:IV144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2739,22 +2757,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2765,21 +2783,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2788,18 +2806,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2808,19 +2826,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2831,14 +2849,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2849,14 +2867,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2867,14 +2885,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2885,14 +2903,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2903,14 +2921,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2921,14 +2939,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2939,14 +2957,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2957,14 +2975,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2975,14 +2993,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2993,14 +3011,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3011,14 +3029,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3029,14 +3047,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3047,14 +3065,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3065,14 +3083,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3083,14 +3101,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3101,14 +3119,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3119,14 +3137,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3137,14 +3155,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3155,14 +3173,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3173,14 +3191,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3191,14 +3209,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3209,14 +3227,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3227,14 +3245,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3245,14 +3263,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3263,14 +3281,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3281,14 +3299,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3299,14 +3317,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3317,14 +3335,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3335,14 +3353,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3353,14 +3371,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3371,14 +3389,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3389,14 +3407,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>305</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3407,14 +3425,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3425,14 +3443,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3443,14 +3461,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3459,1456 +3477,1460 @@
       <c r="I39" s="5"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:256" ht="19" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>153</v>
+    <row r="40" spans="1:256" ht="45" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="4" t="str">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:256" ht="19" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4" t="str">
         <f>"@list"</f>
         <v>@list</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:256" ht="60" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:256" ht="60" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-      <c r="AE42"/>
-      <c r="AF42"/>
-      <c r="AG42"/>
-      <c r="AH42"/>
-      <c r="AI42"/>
-      <c r="AJ42"/>
-      <c r="AK42"/>
-      <c r="AL42"/>
-      <c r="AM42"/>
-      <c r="AN42"/>
-      <c r="AO42"/>
-      <c r="AP42"/>
-      <c r="AQ42"/>
-      <c r="AR42"/>
-      <c r="AS42"/>
-      <c r="AT42"/>
-      <c r="AU42"/>
-      <c r="AV42"/>
-      <c r="AW42"/>
-      <c r="AX42"/>
-      <c r="AY42"/>
-      <c r="AZ42"/>
-      <c r="BA42"/>
-      <c r="BB42"/>
-      <c r="BC42"/>
-      <c r="BD42"/>
-      <c r="BE42"/>
-      <c r="BF42"/>
-      <c r="BG42"/>
-      <c r="BH42"/>
-      <c r="BI42"/>
-      <c r="BJ42"/>
-      <c r="BK42"/>
-      <c r="BL42"/>
-      <c r="BM42"/>
-      <c r="BN42"/>
-      <c r="BO42"/>
-      <c r="BP42"/>
-      <c r="BQ42"/>
-      <c r="BR42"/>
-      <c r="BS42"/>
-      <c r="BT42"/>
-      <c r="BU42"/>
-      <c r="BV42"/>
-      <c r="BW42"/>
-      <c r="BX42"/>
-      <c r="BY42"/>
-      <c r="BZ42"/>
-      <c r="CA42"/>
-      <c r="CB42"/>
-      <c r="CC42"/>
-      <c r="CD42"/>
-      <c r="CE42"/>
-      <c r="CF42"/>
-      <c r="CG42"/>
-      <c r="CH42"/>
-      <c r="CI42"/>
-      <c r="CJ42"/>
-      <c r="CK42"/>
-      <c r="CL42"/>
-      <c r="CM42"/>
-      <c r="CN42"/>
-      <c r="CO42"/>
-      <c r="CP42"/>
-      <c r="CQ42"/>
-      <c r="CR42"/>
-      <c r="CS42"/>
-      <c r="CT42"/>
-      <c r="CU42"/>
-      <c r="CV42"/>
-      <c r="CW42"/>
-      <c r="CX42"/>
-      <c r="CY42"/>
-      <c r="CZ42"/>
-      <c r="DA42"/>
-      <c r="DB42"/>
-      <c r="DC42"/>
-      <c r="DD42"/>
-      <c r="DE42"/>
-      <c r="DF42"/>
-      <c r="DG42"/>
-      <c r="DH42"/>
-      <c r="DI42"/>
-      <c r="DJ42"/>
-      <c r="DK42"/>
-      <c r="DL42"/>
-      <c r="DM42"/>
-      <c r="DN42"/>
-      <c r="DO42"/>
-      <c r="DP42"/>
-      <c r="DQ42"/>
-      <c r="DR42"/>
-      <c r="DS42"/>
-      <c r="DT42"/>
-      <c r="DU42"/>
-      <c r="DV42"/>
-      <c r="DW42"/>
-      <c r="DX42"/>
-      <c r="DY42"/>
-      <c r="DZ42"/>
-      <c r="EA42"/>
-      <c r="EB42"/>
-      <c r="EC42"/>
-      <c r="ED42"/>
-      <c r="EE42"/>
-      <c r="EF42"/>
-      <c r="EG42"/>
-      <c r="EH42"/>
-      <c r="EI42"/>
-      <c r="EJ42"/>
-      <c r="EK42"/>
-      <c r="EL42"/>
-      <c r="EM42"/>
-      <c r="EN42"/>
-      <c r="EO42"/>
-      <c r="EP42"/>
-      <c r="EQ42"/>
-      <c r="ER42"/>
-      <c r="ES42"/>
-      <c r="ET42"/>
-      <c r="EU42"/>
-      <c r="EV42"/>
-      <c r="EW42"/>
-      <c r="EX42"/>
-      <c r="EY42"/>
-      <c r="EZ42"/>
-      <c r="FA42"/>
-      <c r="FB42"/>
-      <c r="FC42"/>
-      <c r="FD42"/>
-      <c r="FE42"/>
-      <c r="FF42"/>
-      <c r="FG42"/>
-      <c r="FH42"/>
-      <c r="FI42"/>
-      <c r="FJ42"/>
-      <c r="FK42"/>
-      <c r="FL42"/>
-      <c r="FM42"/>
-      <c r="FN42"/>
-      <c r="FO42"/>
-      <c r="FP42"/>
-      <c r="FQ42"/>
-      <c r="FR42"/>
-      <c r="FS42"/>
-      <c r="FT42"/>
-      <c r="FU42"/>
-      <c r="FV42"/>
-      <c r="FW42"/>
-      <c r="FX42"/>
-      <c r="FY42"/>
-      <c r="FZ42"/>
-      <c r="GA42"/>
-      <c r="GB42"/>
-      <c r="GC42"/>
-      <c r="GD42"/>
-      <c r="GE42"/>
-      <c r="GF42"/>
-      <c r="GG42"/>
-      <c r="GH42"/>
-      <c r="GI42"/>
-      <c r="GJ42"/>
-      <c r="GK42"/>
-      <c r="GL42"/>
-      <c r="GM42"/>
-      <c r="GN42"/>
-      <c r="GO42"/>
-      <c r="GP42"/>
-      <c r="GQ42"/>
-      <c r="GR42"/>
-      <c r="GS42"/>
-      <c r="GT42"/>
-      <c r="GU42"/>
-      <c r="GV42"/>
-      <c r="GW42"/>
-      <c r="GX42"/>
-      <c r="GY42"/>
-      <c r="GZ42"/>
-      <c r="HA42"/>
-      <c r="HB42"/>
-      <c r="HC42"/>
-      <c r="HD42"/>
-      <c r="HE42"/>
-      <c r="HF42"/>
-      <c r="HG42"/>
-      <c r="HH42"/>
-      <c r="HI42"/>
-      <c r="HJ42"/>
-      <c r="HK42"/>
-      <c r="HL42"/>
-      <c r="HM42"/>
-      <c r="HN42"/>
-      <c r="HO42"/>
-      <c r="HP42"/>
-      <c r="HQ42"/>
-      <c r="HR42"/>
-      <c r="HS42"/>
-      <c r="HT42"/>
-      <c r="HU42"/>
-      <c r="HV42"/>
-      <c r="HW42"/>
-      <c r="HX42"/>
-      <c r="HY42"/>
-      <c r="HZ42"/>
-      <c r="IA42"/>
-      <c r="IB42"/>
-      <c r="IC42"/>
-      <c r="ID42"/>
-      <c r="IE42"/>
-      <c r="IF42"/>
-      <c r="IG42"/>
-      <c r="IH42"/>
-      <c r="II42"/>
-      <c r="IJ42"/>
-      <c r="IK42"/>
-      <c r="IL42"/>
-      <c r="IM42"/>
-      <c r="IN42"/>
-      <c r="IO42"/>
-      <c r="IP42"/>
-      <c r="IQ42"/>
-      <c r="IR42"/>
-      <c r="IS42"/>
-      <c r="IT42"/>
-      <c r="IU42"/>
-      <c r="IV42"/>
-    </row>
-    <row r="43" spans="1:256" ht="75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:256" ht="19" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:256" ht="60" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43"/>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+      <c r="BB43"/>
+      <c r="BC43"/>
+      <c r="BD43"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+      <c r="BK43"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+      <c r="BN43"/>
+      <c r="BO43"/>
+      <c r="BP43"/>
+      <c r="BQ43"/>
+      <c r="BR43"/>
+      <c r="BS43"/>
+      <c r="BT43"/>
+      <c r="BU43"/>
+      <c r="BV43"/>
+      <c r="BW43"/>
+      <c r="BX43"/>
+      <c r="BY43"/>
+      <c r="BZ43"/>
+      <c r="CA43"/>
+      <c r="CB43"/>
+      <c r="CC43"/>
+      <c r="CD43"/>
+      <c r="CE43"/>
+      <c r="CF43"/>
+      <c r="CG43"/>
+      <c r="CH43"/>
+      <c r="CI43"/>
+      <c r="CJ43"/>
+      <c r="CK43"/>
+      <c r="CL43"/>
+      <c r="CM43"/>
+      <c r="CN43"/>
+      <c r="CO43"/>
+      <c r="CP43"/>
+      <c r="CQ43"/>
+      <c r="CR43"/>
+      <c r="CS43"/>
+      <c r="CT43"/>
+      <c r="CU43"/>
+      <c r="CV43"/>
+      <c r="CW43"/>
+      <c r="CX43"/>
+      <c r="CY43"/>
+      <c r="CZ43"/>
+      <c r="DA43"/>
+      <c r="DB43"/>
+      <c r="DC43"/>
+      <c r="DD43"/>
+      <c r="DE43"/>
+      <c r="DF43"/>
+      <c r="DG43"/>
+      <c r="DH43"/>
+      <c r="DI43"/>
+      <c r="DJ43"/>
+      <c r="DK43"/>
+      <c r="DL43"/>
+      <c r="DM43"/>
+      <c r="DN43"/>
+      <c r="DO43"/>
+      <c r="DP43"/>
+      <c r="DQ43"/>
+      <c r="DR43"/>
+      <c r="DS43"/>
+      <c r="DT43"/>
+      <c r="DU43"/>
+      <c r="DV43"/>
+      <c r="DW43"/>
+      <c r="DX43"/>
+      <c r="DY43"/>
+      <c r="DZ43"/>
+      <c r="EA43"/>
+      <c r="EB43"/>
+      <c r="EC43"/>
+      <c r="ED43"/>
+      <c r="EE43"/>
+      <c r="EF43"/>
+      <c r="EG43"/>
+      <c r="EH43"/>
+      <c r="EI43"/>
+      <c r="EJ43"/>
+      <c r="EK43"/>
+      <c r="EL43"/>
+      <c r="EM43"/>
+      <c r="EN43"/>
+      <c r="EO43"/>
+      <c r="EP43"/>
+      <c r="EQ43"/>
+      <c r="ER43"/>
+      <c r="ES43"/>
+      <c r="ET43"/>
+      <c r="EU43"/>
+      <c r="EV43"/>
+      <c r="EW43"/>
+      <c r="EX43"/>
+      <c r="EY43"/>
+      <c r="EZ43"/>
+      <c r="FA43"/>
+      <c r="FB43"/>
+      <c r="FC43"/>
+      <c r="FD43"/>
+      <c r="FE43"/>
+      <c r="FF43"/>
+      <c r="FG43"/>
+      <c r="FH43"/>
+      <c r="FI43"/>
+      <c r="FJ43"/>
+      <c r="FK43"/>
+      <c r="FL43"/>
+      <c r="FM43"/>
+      <c r="FN43"/>
+      <c r="FO43"/>
+      <c r="FP43"/>
+      <c r="FQ43"/>
+      <c r="FR43"/>
+      <c r="FS43"/>
+      <c r="FT43"/>
+      <c r="FU43"/>
+      <c r="FV43"/>
+      <c r="FW43"/>
+      <c r="FX43"/>
+      <c r="FY43"/>
+      <c r="FZ43"/>
+      <c r="GA43"/>
+      <c r="GB43"/>
+      <c r="GC43"/>
+      <c r="GD43"/>
+      <c r="GE43"/>
+      <c r="GF43"/>
+      <c r="GG43"/>
+      <c r="GH43"/>
+      <c r="GI43"/>
+      <c r="GJ43"/>
+      <c r="GK43"/>
+      <c r="GL43"/>
+      <c r="GM43"/>
+      <c r="GN43"/>
+      <c r="GO43"/>
+      <c r="GP43"/>
+      <c r="GQ43"/>
+      <c r="GR43"/>
+      <c r="GS43"/>
+      <c r="GT43"/>
+      <c r="GU43"/>
+      <c r="GV43"/>
+      <c r="GW43"/>
+      <c r="GX43"/>
+      <c r="GY43"/>
+      <c r="GZ43"/>
+      <c r="HA43"/>
+      <c r="HB43"/>
+      <c r="HC43"/>
+      <c r="HD43"/>
+      <c r="HE43"/>
+      <c r="HF43"/>
+      <c r="HG43"/>
+      <c r="HH43"/>
+      <c r="HI43"/>
+      <c r="HJ43"/>
+      <c r="HK43"/>
+      <c r="HL43"/>
+      <c r="HM43"/>
+      <c r="HN43"/>
+      <c r="HO43"/>
+      <c r="HP43"/>
+      <c r="HQ43"/>
+      <c r="HR43"/>
+      <c r="HS43"/>
+      <c r="HT43"/>
+      <c r="HU43"/>
+      <c r="HV43"/>
+      <c r="HW43"/>
+      <c r="HX43"/>
+      <c r="HY43"/>
+      <c r="HZ43"/>
+      <c r="IA43"/>
+      <c r="IB43"/>
+      <c r="IC43"/>
+      <c r="ID43"/>
+      <c r="IE43"/>
+      <c r="IF43"/>
+      <c r="IG43"/>
+      <c r="IH43"/>
+      <c r="II43"/>
+      <c r="IJ43"/>
+      <c r="IK43"/>
+      <c r="IL43"/>
+      <c r="IM43"/>
+      <c r="IN43"/>
+      <c r="IO43"/>
+      <c r="IP43"/>
+      <c r="IQ43"/>
+      <c r="IR43"/>
+      <c r="IS43"/>
+      <c r="IT43"/>
+      <c r="IU43"/>
+      <c r="IV43"/>
+    </row>
+    <row r="44" spans="1:256" ht="75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:256" ht="45" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:256" ht="19" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>76</v>
+        <v>311</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:256" ht="30" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:256" ht="45" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="G46" s="9"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>65</v>
+        <v>194</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:256" ht="45" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:256" ht="30" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="19" customHeight="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>81</v>
+        <v>121</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" ht="45" customHeight="1">
+      <c r="J50" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="30" customHeight="1">
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" ht="45" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>65</v>
+        <v>194</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="19" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="30" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>65</v>
+        <v>121</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="19" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="4" t="s">
-        <v>113</v>
+      <c r="J56" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="6" t="s">
-        <v>197</v>
+      <c r="J58" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>66</v>
+        <v>121</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="4" t="s">
-        <v>200</v>
+      <c r="J59" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>203</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="75" customHeight="1">
+      <c r="J61" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="19" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>65</v>
+        <v>121</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="I62" s="5"/>
       <c r="J62" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="45" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" s="5"/>
+        <v>190</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="J63" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="30" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="45" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>137</v>
+        <v>121</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="19" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="30" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="19" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="4" t="str">
-        <f>"@set"</f>
-        <v>@set</v>
-      </c>
-      <c r="I69" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
       <c r="J69" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="19" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F70" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="H70" s="4" t="str">
         <f>"@set"</f>
         <v>@set</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="J70" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="45" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="19" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E71" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="H71" s="4" t="str">
+        <f>"@set"</f>
+        <v>@set</v>
+      </c>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>65</v>
+        <v>213</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="45" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>81</v>
+        <v>121</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="19" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="30" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="19" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="135" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>65</v>
+        <v>194</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="60" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="135" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="4" t="str">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="60" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4" t="str">
         <f>"@set"</f>
         <v>@set</v>
       </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="75" customHeight="1">
-      <c r="A79" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G79" s="4" t="str">
+      <c r="I79" s="5"/>
+      <c r="J79" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="75" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G80" s="4" t="str">
         <f>"@vocab"</f>
         <v>@vocab</v>
       </c>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="120" customHeight="1">
-      <c r="A80" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="45" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="120" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>181</v>
+        <v>136</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" s="4" t="str">
-        <f>"@vocab"</f>
-        <v>@vocab</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="135" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="45" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="4" t="str">
+        <v>121</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <f>"@vocab"</f>
+        <v>@vocab</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="135" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="4" t="str">
         <f>"@language"</f>
         <v>@language</v>
       </c>
-      <c r="I84" s="5"/>
-      <c r="J84" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="30" customHeight="1">
-      <c r="A85" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="45" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>238</v>
+        <v>207</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="19" customHeight="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="45" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="E88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="30" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4917,18 +4939,18 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="19" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4937,18 +4959,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="19" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4957,18 +4979,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4977,18 +4999,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4997,18 +5019,18 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="45" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5017,79 +5039,81 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="19" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>257</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6" t="s">
-        <v>258</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="6"/>
+      <c r="J96" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D97" s="4" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -5100,14 +5124,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5118,14 +5142,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>266</v>
+        <v>55</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5136,14 +5160,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>269</v>
+        <v>58</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5154,14 +5178,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5172,16 +5196,16 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E103" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -5190,14 +5214,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="5"/>
@@ -5208,16 +5232,16 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E105" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="E105" s="9"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -5226,14 +5250,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5244,14 +5268,14 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5260,17 +5284,16 @@
       <c r="I107" s="5"/>
       <c r="J107" s="7"/>
     </row>
-    <row r="108" spans="1:10" ht="15" customHeight="1">
+    <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4" t="str">
-        <f>CONCATENATE("xsd:",A108)</f>
-        <v>xsd:anySimpleType</v>
+        <v>51</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5281,15 +5304,15 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
-        <f t="shared" ref="D109:D143" si="0">CONCATENATE("xsd:",A109)</f>
-        <v>xsd:string</v>
+        <f>CONCATENATE("xsd:",A109)</f>
+        <v>xsd:anySimpleType</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5300,15 +5323,15 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:normalizedString</v>
+        <f t="shared" ref="D110:D144" si="0">CONCATENATE("xsd:",A110)</f>
+        <v>xsd:string</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5319,15 +5342,15 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:token</v>
+        <v>xsd:normalizedString</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5338,15 +5361,15 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:Name</v>
+        <v>xsd:token</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5357,15 +5380,15 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:NCName</v>
+        <v>xsd:Name</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5376,15 +5399,15 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:boolean</v>
+        <v>xsd:NCName</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5395,14 +5418,15 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="4" t="s">
-        <v>234</v>
+      <c r="D115" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:boolean</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5413,15 +5437,14 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:decimal</v>
+      <c r="D116" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5432,15 +5455,15 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+        <v>xsd:decimal</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5451,15 +5474,15 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <v>xsd:integer</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5470,15 +5493,15 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+        <v>xsd:nonPositiveInteger</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5489,15 +5512,15 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:long</v>
+        <v>xsd:negativeInteger</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5508,15 +5531,15 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:int</v>
+        <v>xsd:long</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5527,15 +5550,15 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:short</v>
+        <v>xsd:int</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5546,15 +5569,15 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:byte</v>
+        <v>xsd:short</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5565,15 +5588,15 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonNegativeInteger</v>
+        <v>xsd:byte</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5584,15 +5607,15 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedLong</v>
+        <v>xsd:nonNegativeInteger</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5603,15 +5626,15 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>298</v>
+        <v>88</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedInt</v>
+        <v>xsd:unsignedLong</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5622,15 +5645,15 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedShort</v>
+        <v>xsd:unsignedInt</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5641,15 +5664,15 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedByte</v>
+        <v>xsd:unsignedShort</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -5660,15 +5683,15 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:positiveInteger</v>
+        <v>xsd:unsignedByte</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -5679,15 +5702,15 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:float</v>
+        <v>xsd:positiveInteger</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -5698,15 +5721,15 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:double</v>
+        <v>xsd:float</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -5717,15 +5740,15 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:duration</v>
+        <v>xsd:double</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5736,15 +5759,15 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:dateTime</v>
+        <v>xsd:duration</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -5755,15 +5778,15 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>306</v>
+        <v>7</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:time</v>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -5774,15 +5797,15 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>307</v>
+        <v>8</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:date</v>
+        <v>xsd:time</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -5793,15 +5816,15 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYearMonth</v>
+        <v>xsd:date</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5812,15 +5835,15 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYear</v>
+        <v>xsd:gYearMonth</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5831,15 +5854,15 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonthDay</v>
+        <v>xsd:gYear</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -5850,15 +5873,15 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gDay</v>
+        <v>xsd:gMonthDay</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -5869,15 +5892,15 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonth</v>
+        <v>xsd:gDay</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5888,15 +5911,15 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:hexBinary</v>
+        <v>xsd:gMonth</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -5907,15 +5930,15 @@
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:base64Binary</v>
+        <v>xsd:hexBinary</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -5926,15 +5949,15 @@
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:anyURI</v>
+        <v>xsd:base64Binary</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -5943,7 +5966,27 @@
       <c r="I143" s="5"/>
       <c r="J143" s="7"/>
     </row>
+    <row r="144" spans="1:10" ht="15" customHeight="1">
+      <c r="A144" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="7"/>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -5984,6 +6027,7 @@
     <hyperlink ref="D39" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="-320" windowWidth="23600" windowHeight="26560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -176,13 +176,7 @@
     <t>Table Description</t>
   </si>
   <si>
-    <t>A table description is a JSON object that describes a table within a CSV file.</t>
-  </si>
-  <si>
     <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>A Table Group Description describes a group of Tables.</t>
   </si>
   <si>
     <t>Template Specification</t>
@@ -1303,18 +1297,18 @@
     <t>delimiter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>A Table describes an Annotated Table.</t>
+  </si>
+  <si>
+    <t>A Table Group describes an Annotated Table Group.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1339,6 +1333,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -1389,8 +1389,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -1420,11 +1423,12 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2737,15 +2741,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J89" sqref="J89"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="8.125" style="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
@@ -2757,22 +2761,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2783,21 +2787,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2806,18 +2810,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2826,19 +2830,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2849,14 +2853,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2867,14 +2871,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2885,14 +2889,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2903,14 +2907,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2921,14 +2925,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2939,14 +2943,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2957,14 +2961,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2975,14 +2979,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2993,14 +2997,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3011,14 +3015,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3029,14 +3033,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3047,14 +3051,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3065,14 +3069,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3083,14 +3087,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3101,14 +3105,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3119,14 +3123,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3137,14 +3141,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3155,14 +3159,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3173,14 +3177,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3191,14 +3195,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3209,14 +3213,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3227,14 +3231,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3248,11 +3252,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3263,14 +3267,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3281,14 +3285,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3299,14 +3303,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3317,14 +3321,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3335,14 +3339,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3353,14 +3357,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3371,14 +3375,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3389,14 +3393,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3407,14 +3411,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3425,14 +3429,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3443,14 +3447,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3461,14 +3465,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3482,14 +3486,14 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>30</v>
@@ -3503,20 +3507,20 @@
     </row>
     <row r="41" spans="1:256" ht="19" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4" t="str">
@@ -3525,57 +3529,57 @@
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:256" ht="60" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="60" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
@@ -3826,188 +3830,188 @@
     </row>
     <row r="44" spans="1:256" ht="75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="19" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:256" ht="45" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:256" ht="30" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="45" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="19" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4016,284 +4020,284 @@
     </row>
     <row r="52" spans="1:10" ht="45" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="19" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -4301,53 +4305,53 @@
         <v>1</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="45" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
@@ -4355,14 +4359,14 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>30</v>
@@ -4376,92 +4380,92 @@
     </row>
     <row r="67" spans="1:10" ht="45" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="19" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="4" t="str">
@@ -4472,24 +4476,24 @@
         <v>1</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="19" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -4507,187 +4511,187 @@
         <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" customHeight="1">
       <c r="A75" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="19" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="135" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="60" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="4" t="str">
@@ -4696,25 +4700,25 @@
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G80" s="4" t="str">
         <f>"@vocab"</f>
@@ -4723,97 +4727,97 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="120" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="45" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G84" s="4" t="str">
         <f>"@vocab"</f>
@@ -4822,22 +4826,22 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="135" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -4847,55 +4851,55 @@
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="45" customHeight="1">
@@ -4903,14 +4907,14 @@
         <v>16</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>30</v>
@@ -4924,7 +4928,7 @@
     </row>
     <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
@@ -4944,7 +4948,7 @@
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>19</v>
@@ -4964,13 +4968,13 @@
     </row>
     <row r="91" spans="1:10" ht="19" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4984,13 +4988,13 @@
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5004,7 +5008,7 @@
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>19</v>
@@ -5019,18 +5023,18 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5039,18 +5043,18 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="45" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5059,21 +5063,21 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -5081,21 +5085,21 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -5106,14 +5110,14 @@
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -5124,14 +5128,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5142,14 +5146,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5160,14 +5164,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5178,14 +5182,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5196,14 +5200,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5214,14 +5218,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="5"/>
@@ -5232,14 +5236,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="5"/>
@@ -5250,14 +5254,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5268,14 +5272,14 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5286,14 +5290,14 @@
     </row>
     <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5304,10 +5308,10 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
@@ -5323,10 +5327,10 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
@@ -5342,10 +5346,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
@@ -5361,10 +5365,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
@@ -5380,10 +5384,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
@@ -5399,10 +5403,10 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
@@ -5418,10 +5422,10 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
@@ -5437,10 +5441,10 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
@@ -5455,10 +5459,10 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
@@ -5474,10 +5478,10 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
@@ -5493,10 +5497,10 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
@@ -5512,10 +5516,10 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
@@ -5531,10 +5535,10 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
@@ -5550,10 +5554,10 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
@@ -5569,10 +5573,10 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
@@ -5588,10 +5592,10 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
@@ -5607,10 +5611,10 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
@@ -5626,10 +5630,10 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
@@ -5648,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
@@ -5667,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
@@ -5686,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
@@ -5705,7 +5709,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
@@ -5724,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
@@ -5743,7 +5747,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
@@ -5762,7 +5766,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
@@ -5781,7 +5785,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
@@ -5800,7 +5804,7 @@
         <v>8</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
@@ -5819,7 +5823,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
@@ -5838,7 +5842,7 @@
         <v>31</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
@@ -5857,7 +5861,7 @@
         <v>32</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
@@ -5876,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
@@ -5895,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
@@ -5914,7 +5918,7 @@
         <v>35</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
@@ -5933,7 +5937,7 @@
         <v>36</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
@@ -5952,7 +5956,7 @@
         <v>37</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="str">
@@ -5971,7 +5975,7 @@
         <v>38</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="str">
@@ -5986,7 +5990,6 @@
       <c r="J144" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -6027,12 +6030,12 @@
     <hyperlink ref="D39" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="313">
   <si>
     <t>unsignedInt</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>rdfs:Literal</t>
   </si>
   <si>
     <t>A literal containing JSON.</t>
@@ -1302,6 +1299,12 @@
   </si>
   <si>
     <t>A Table Group describes an Annotated Table Group.</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>JSON</t>
   </si>
 </sst>
 </file>
@@ -2745,8 +2748,8 @@
   <dimension ref="A1:IV144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2761,22 +2764,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2787,21 +2790,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2810,18 +2813,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2830,19 +2833,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2853,14 +2856,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2871,14 +2874,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2889,14 +2892,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2907,14 +2910,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2925,14 +2928,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2943,14 +2946,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2961,14 +2964,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2979,14 +2982,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2997,14 +3000,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3015,14 +3018,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3033,14 +3036,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3051,14 +3054,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3069,14 +3072,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3087,14 +3090,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3105,14 +3108,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3123,14 +3126,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3141,14 +3144,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3159,14 +3162,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3177,14 +3180,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3195,14 +3198,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3213,14 +3216,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3231,14 +3234,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3252,11 +3255,11 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3267,14 +3270,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3285,14 +3288,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3303,14 +3306,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3321,14 +3324,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3339,14 +3342,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3357,14 +3360,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3375,14 +3378,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3393,14 +3396,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3411,14 +3414,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3429,14 +3432,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3447,14 +3450,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3465,14 +3468,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3486,14 +3489,14 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>30</v>
@@ -3507,20 +3510,20 @@
     </row>
     <row r="41" spans="1:256" ht="19" customHeight="1">
       <c r="A41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="4" t="str">
@@ -3529,57 +3532,57 @@
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:256" ht="60" customHeight="1">
       <c r="A42" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="60" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
@@ -3830,188 +3833,188 @@
     </row>
     <row r="44" spans="1:256" ht="75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="19" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:256" ht="45" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="30" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:256" ht="30" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="45" customHeight="1">
       <c r="A49" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="19" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -4020,284 +4023,284 @@
     </row>
     <row r="52" spans="1:10" ht="45" customHeight="1">
       <c r="A52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1">
       <c r="A53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="19" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="19" customHeight="1">
       <c r="A62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -4305,53 +4308,53 @@
         <v>1</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="45" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
@@ -4359,14 +4362,14 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>30</v>
@@ -4380,92 +4383,92 @@
     </row>
     <row r="67" spans="1:10" ht="45" customHeight="1">
       <c r="A67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="19" customHeight="1">
       <c r="A68" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="4" t="str">
@@ -4476,24 +4479,24 @@
         <v>1</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="19" customHeight="1">
       <c r="A71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="E71" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -4511,187 +4514,187 @@
         <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="19" customHeight="1">
       <c r="A76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1">
       <c r="A77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="135" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="60" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="4" t="str">
@@ -4700,25 +4703,25 @@
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="75" customHeight="1">
       <c r="A80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G80" s="4" t="str">
         <f>"@vocab"</f>
@@ -4727,97 +4730,97 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="120" customHeight="1">
       <c r="A81" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="120" customHeight="1">
       <c r="A82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="45" customHeight="1">
       <c r="A84" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G84" s="4" t="str">
         <f>"@vocab"</f>
@@ -4826,22 +4829,22 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="135" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -4851,55 +4854,55 @@
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30" customHeight="1">
       <c r="A87" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="45" customHeight="1">
@@ -4907,14 +4910,14 @@
         <v>16</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>30</v>
@@ -4928,7 +4931,7 @@
     </row>
     <row r="89" spans="1:10" ht="19" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
@@ -4948,7 +4951,7 @@
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>19</v>
@@ -4968,13 +4971,13 @@
     </row>
     <row r="91" spans="1:10" ht="19" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4988,13 +4991,13 @@
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>19</v>
@@ -5023,12 +5026,12 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>19</v>
@@ -5043,12 +5046,12 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="45" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
@@ -5068,7 +5071,7 @@
     </row>
     <row r="96" spans="1:10" ht="19" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>45</v>
@@ -5077,7 +5080,7 @@
         <v>44</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -5085,21 +5088,21 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -5110,14 +5113,14 @@
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -5128,14 +5131,14 @@
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5146,14 +5149,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5164,14 +5167,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5182,14 +5185,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5200,14 +5203,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5218,14 +5221,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="5"/>
@@ -5236,14 +5239,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="5"/>
@@ -5254,14 +5257,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5272,14 +5275,14 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5290,14 +5293,14 @@
     </row>
     <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5308,10 +5311,10 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="str">
@@ -5327,10 +5330,10 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
@@ -5346,10 +5349,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
@@ -5365,10 +5368,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
@@ -5384,10 +5387,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
@@ -5403,10 +5406,10 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
@@ -5422,10 +5425,10 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
@@ -5441,10 +5444,10 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
@@ -5459,10 +5462,10 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
@@ -5478,10 +5481,10 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
@@ -5497,10 +5500,10 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
@@ -5516,10 +5519,10 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
@@ -5535,10 +5538,10 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
@@ -5554,10 +5557,10 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
@@ -5573,10 +5576,10 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
@@ -5592,10 +5595,10 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
@@ -5611,10 +5614,10 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
@@ -5630,10 +5633,10 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
@@ -5652,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
@@ -5671,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
@@ -5690,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
@@ -5709,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
@@ -5728,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
@@ -5747,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
@@ -5766,7 +5769,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
@@ -5785,7 +5788,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
@@ -5804,7 +5807,7 @@
         <v>8</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
@@ -5823,7 +5826,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
@@ -5842,7 +5845,7 @@
         <v>31</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
@@ -5861,7 +5864,7 @@
         <v>32</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
@@ -5880,7 +5883,7 @@
         <v>33</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
@@ -5899,7 +5902,7 @@
         <v>34</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
@@ -5918,7 +5921,7 @@
         <v>35</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
@@ -5937,7 +5940,7 @@
         <v>36</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
@@ -5956,7 +5959,7 @@
         <v>37</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="str">
@@ -5975,7 +5978,7 @@
         <v>38</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="str">

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="320">
   <si>
     <t>unsignedInt</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1305,6 +1305,27 @@
   </si>
   <si>
     <t>JSON</t>
+  </si>
+  <si>
+    <t>csvEncodedTabularData</t>
+  </si>
+  <si>
+    <t>prov:Role</t>
+  </si>
+  <si>
+    <t>CSV Encoded Tabular Data</t>
+  </si>
+  <si>
+    <t>tabularMetadata</t>
+  </si>
+  <si>
+    <t>Tabular Metadata</t>
+  </si>
+  <si>
+    <t>Describes the role of a CSV file in the tabular data mapping.</t>
+  </si>
+  <si>
+    <t>Describes the role of a Metadata file in the tabular data mapping.</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1413,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,8 +1450,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2745,11 +2770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV144"/>
+  <dimension ref="A1:IV146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2838,50 +2863,54 @@
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="6" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2892,14 +2921,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2910,14 +2939,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2928,14 +2957,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2946,14 +2975,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2964,14 +2993,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2982,14 +3011,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3000,14 +3029,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3018,14 +3047,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3036,14 +3065,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3054,14 +3083,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3072,14 +3101,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3090,14 +3119,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3108,14 +3137,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3126,14 +3155,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3144,14 +3173,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3162,14 +3191,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3180,14 +3209,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3198,14 +3227,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3216,14 +3245,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3234,14 +3263,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3252,14 +3281,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3270,14 +3299,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3288,14 +3317,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3306,14 +3335,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3324,14 +3353,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3342,14 +3371,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3360,14 +3389,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3378,14 +3407,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3396,14 +3425,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3414,14 +3443,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3432,14 +3461,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3450,14 +3479,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3468,14 +3497,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3484,366 +3513,106 @@
       <c r="I39" s="5"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:256" ht="45" customHeight="1">
+    <row r="40" spans="1:256" ht="19" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:256" ht="19" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>184</v>
+      <c r="A41" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="4" t="str">
-        <f>"@list"</f>
-        <v>@list</v>
-      </c>
+      <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:256" ht="60" customHeight="1">
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:256" ht="45" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:256" ht="60" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:256" ht="19" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-      <c r="AE43"/>
-      <c r="AF43"/>
-      <c r="AG43"/>
-      <c r="AH43"/>
-      <c r="AI43"/>
-      <c r="AJ43"/>
-      <c r="AK43"/>
-      <c r="AL43"/>
-      <c r="AM43"/>
-      <c r="AN43"/>
-      <c r="AO43"/>
-      <c r="AP43"/>
-      <c r="AQ43"/>
-      <c r="AR43"/>
-      <c r="AS43"/>
-      <c r="AT43"/>
-      <c r="AU43"/>
-      <c r="AV43"/>
-      <c r="AW43"/>
-      <c r="AX43"/>
-      <c r="AY43"/>
-      <c r="AZ43"/>
-      <c r="BA43"/>
-      <c r="BB43"/>
-      <c r="BC43"/>
-      <c r="BD43"/>
-      <c r="BE43"/>
-      <c r="BF43"/>
-      <c r="BG43"/>
-      <c r="BH43"/>
-      <c r="BI43"/>
-      <c r="BJ43"/>
-      <c r="BK43"/>
-      <c r="BL43"/>
-      <c r="BM43"/>
-      <c r="BN43"/>
-      <c r="BO43"/>
-      <c r="BP43"/>
-      <c r="BQ43"/>
-      <c r="BR43"/>
-      <c r="BS43"/>
-      <c r="BT43"/>
-      <c r="BU43"/>
-      <c r="BV43"/>
-      <c r="BW43"/>
-      <c r="BX43"/>
-      <c r="BY43"/>
-      <c r="BZ43"/>
-      <c r="CA43"/>
-      <c r="CB43"/>
-      <c r="CC43"/>
-      <c r="CD43"/>
-      <c r="CE43"/>
-      <c r="CF43"/>
-      <c r="CG43"/>
-      <c r="CH43"/>
-      <c r="CI43"/>
-      <c r="CJ43"/>
-      <c r="CK43"/>
-      <c r="CL43"/>
-      <c r="CM43"/>
-      <c r="CN43"/>
-      <c r="CO43"/>
-      <c r="CP43"/>
-      <c r="CQ43"/>
-      <c r="CR43"/>
-      <c r="CS43"/>
-      <c r="CT43"/>
-      <c r="CU43"/>
-      <c r="CV43"/>
-      <c r="CW43"/>
-      <c r="CX43"/>
-      <c r="CY43"/>
-      <c r="CZ43"/>
-      <c r="DA43"/>
-      <c r="DB43"/>
-      <c r="DC43"/>
-      <c r="DD43"/>
-      <c r="DE43"/>
-      <c r="DF43"/>
-      <c r="DG43"/>
-      <c r="DH43"/>
-      <c r="DI43"/>
-      <c r="DJ43"/>
-      <c r="DK43"/>
-      <c r="DL43"/>
-      <c r="DM43"/>
-      <c r="DN43"/>
-      <c r="DO43"/>
-      <c r="DP43"/>
-      <c r="DQ43"/>
-      <c r="DR43"/>
-      <c r="DS43"/>
-      <c r="DT43"/>
-      <c r="DU43"/>
-      <c r="DV43"/>
-      <c r="DW43"/>
-      <c r="DX43"/>
-      <c r="DY43"/>
-      <c r="DZ43"/>
-      <c r="EA43"/>
-      <c r="EB43"/>
-      <c r="EC43"/>
-      <c r="ED43"/>
-      <c r="EE43"/>
-      <c r="EF43"/>
-      <c r="EG43"/>
-      <c r="EH43"/>
-      <c r="EI43"/>
-      <c r="EJ43"/>
-      <c r="EK43"/>
-      <c r="EL43"/>
-      <c r="EM43"/>
-      <c r="EN43"/>
-      <c r="EO43"/>
-      <c r="EP43"/>
-      <c r="EQ43"/>
-      <c r="ER43"/>
-      <c r="ES43"/>
-      <c r="ET43"/>
-      <c r="EU43"/>
-      <c r="EV43"/>
-      <c r="EW43"/>
-      <c r="EX43"/>
-      <c r="EY43"/>
-      <c r="EZ43"/>
-      <c r="FA43"/>
-      <c r="FB43"/>
-      <c r="FC43"/>
-      <c r="FD43"/>
-      <c r="FE43"/>
-      <c r="FF43"/>
-      <c r="FG43"/>
-      <c r="FH43"/>
-      <c r="FI43"/>
-      <c r="FJ43"/>
-      <c r="FK43"/>
-      <c r="FL43"/>
-      <c r="FM43"/>
-      <c r="FN43"/>
-      <c r="FO43"/>
-      <c r="FP43"/>
-      <c r="FQ43"/>
-      <c r="FR43"/>
-      <c r="FS43"/>
-      <c r="FT43"/>
-      <c r="FU43"/>
-      <c r="FV43"/>
-      <c r="FW43"/>
-      <c r="FX43"/>
-      <c r="FY43"/>
-      <c r="FZ43"/>
-      <c r="GA43"/>
-      <c r="GB43"/>
-      <c r="GC43"/>
-      <c r="GD43"/>
-      <c r="GE43"/>
-      <c r="GF43"/>
-      <c r="GG43"/>
-      <c r="GH43"/>
-      <c r="GI43"/>
-      <c r="GJ43"/>
-      <c r="GK43"/>
-      <c r="GL43"/>
-      <c r="GM43"/>
-      <c r="GN43"/>
-      <c r="GO43"/>
-      <c r="GP43"/>
-      <c r="GQ43"/>
-      <c r="GR43"/>
-      <c r="GS43"/>
-      <c r="GT43"/>
-      <c r="GU43"/>
-      <c r="GV43"/>
-      <c r="GW43"/>
-      <c r="GX43"/>
-      <c r="GY43"/>
-      <c r="GZ43"/>
-      <c r="HA43"/>
-      <c r="HB43"/>
-      <c r="HC43"/>
-      <c r="HD43"/>
-      <c r="HE43"/>
-      <c r="HF43"/>
-      <c r="HG43"/>
-      <c r="HH43"/>
-      <c r="HI43"/>
-      <c r="HJ43"/>
-      <c r="HK43"/>
-      <c r="HL43"/>
-      <c r="HM43"/>
-      <c r="HN43"/>
-      <c r="HO43"/>
-      <c r="HP43"/>
-      <c r="HQ43"/>
-      <c r="HR43"/>
-      <c r="HS43"/>
-      <c r="HT43"/>
-      <c r="HU43"/>
-      <c r="HV43"/>
-      <c r="HW43"/>
-      <c r="HX43"/>
-      <c r="HY43"/>
-      <c r="HZ43"/>
-      <c r="IA43"/>
-      <c r="IB43"/>
-      <c r="IC43"/>
-      <c r="ID43"/>
-      <c r="IE43"/>
-      <c r="IF43"/>
-      <c r="IG43"/>
-      <c r="IH43"/>
-      <c r="II43"/>
-      <c r="IJ43"/>
-      <c r="IK43"/>
-      <c r="IL43"/>
-      <c r="IM43"/>
-      <c r="IN43"/>
-      <c r="IO43"/>
-      <c r="IP43"/>
-      <c r="IQ43"/>
-      <c r="IR43"/>
-      <c r="IS43"/>
-      <c r="IT43"/>
-      <c r="IU43"/>
-      <c r="IV43"/>
-    </row>
-    <row r="44" spans="1:256" ht="75" customHeight="1">
+      <c r="C43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4" t="str">
+        <f>"@list"</f>
+        <v>@list</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:256" ht="60" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>198</v>
@@ -3852,142 +3621,390 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:256" ht="19" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B45" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:256" ht="60" customHeight="1">
+      <c r="A45" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:256" ht="45" customHeight="1">
+      <c r="C45" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45"/>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+      <c r="BR45"/>
+      <c r="BS45"/>
+      <c r="BT45"/>
+      <c r="BU45"/>
+      <c r="BV45"/>
+      <c r="BW45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+      <c r="CB45"/>
+      <c r="CC45"/>
+      <c r="CD45"/>
+      <c r="CE45"/>
+      <c r="CF45"/>
+      <c r="CG45"/>
+      <c r="CH45"/>
+      <c r="CI45"/>
+      <c r="CJ45"/>
+      <c r="CK45"/>
+      <c r="CL45"/>
+      <c r="CM45"/>
+      <c r="CN45"/>
+      <c r="CO45"/>
+      <c r="CP45"/>
+      <c r="CQ45"/>
+      <c r="CR45"/>
+      <c r="CS45"/>
+      <c r="CT45"/>
+      <c r="CU45"/>
+      <c r="CV45"/>
+      <c r="CW45"/>
+      <c r="CX45"/>
+      <c r="CY45"/>
+      <c r="CZ45"/>
+      <c r="DA45"/>
+      <c r="DB45"/>
+      <c r="DC45"/>
+      <c r="DD45"/>
+      <c r="DE45"/>
+      <c r="DF45"/>
+      <c r="DG45"/>
+      <c r="DH45"/>
+      <c r="DI45"/>
+      <c r="DJ45"/>
+      <c r="DK45"/>
+      <c r="DL45"/>
+      <c r="DM45"/>
+      <c r="DN45"/>
+      <c r="DO45"/>
+      <c r="DP45"/>
+      <c r="DQ45"/>
+      <c r="DR45"/>
+      <c r="DS45"/>
+      <c r="DT45"/>
+      <c r="DU45"/>
+      <c r="DV45"/>
+      <c r="DW45"/>
+      <c r="DX45"/>
+      <c r="DY45"/>
+      <c r="DZ45"/>
+      <c r="EA45"/>
+      <c r="EB45"/>
+      <c r="EC45"/>
+      <c r="ED45"/>
+      <c r="EE45"/>
+      <c r="EF45"/>
+      <c r="EG45"/>
+      <c r="EH45"/>
+      <c r="EI45"/>
+      <c r="EJ45"/>
+      <c r="EK45"/>
+      <c r="EL45"/>
+      <c r="EM45"/>
+      <c r="EN45"/>
+      <c r="EO45"/>
+      <c r="EP45"/>
+      <c r="EQ45"/>
+      <c r="ER45"/>
+      <c r="ES45"/>
+      <c r="ET45"/>
+      <c r="EU45"/>
+      <c r="EV45"/>
+      <c r="EW45"/>
+      <c r="EX45"/>
+      <c r="EY45"/>
+      <c r="EZ45"/>
+      <c r="FA45"/>
+      <c r="FB45"/>
+      <c r="FC45"/>
+      <c r="FD45"/>
+      <c r="FE45"/>
+      <c r="FF45"/>
+      <c r="FG45"/>
+      <c r="FH45"/>
+      <c r="FI45"/>
+      <c r="FJ45"/>
+      <c r="FK45"/>
+      <c r="FL45"/>
+      <c r="FM45"/>
+      <c r="FN45"/>
+      <c r="FO45"/>
+      <c r="FP45"/>
+      <c r="FQ45"/>
+      <c r="FR45"/>
+      <c r="FS45"/>
+      <c r="FT45"/>
+      <c r="FU45"/>
+      <c r="FV45"/>
+      <c r="FW45"/>
+      <c r="FX45"/>
+      <c r="FY45"/>
+      <c r="FZ45"/>
+      <c r="GA45"/>
+      <c r="GB45"/>
+      <c r="GC45"/>
+      <c r="GD45"/>
+      <c r="GE45"/>
+      <c r="GF45"/>
+      <c r="GG45"/>
+      <c r="GH45"/>
+      <c r="GI45"/>
+      <c r="GJ45"/>
+      <c r="GK45"/>
+      <c r="GL45"/>
+      <c r="GM45"/>
+      <c r="GN45"/>
+      <c r="GO45"/>
+      <c r="GP45"/>
+      <c r="GQ45"/>
+      <c r="GR45"/>
+      <c r="GS45"/>
+      <c r="GT45"/>
+      <c r="GU45"/>
+      <c r="GV45"/>
+      <c r="GW45"/>
+      <c r="GX45"/>
+      <c r="GY45"/>
+      <c r="GZ45"/>
+      <c r="HA45"/>
+      <c r="HB45"/>
+      <c r="HC45"/>
+      <c r="HD45"/>
+      <c r="HE45"/>
+      <c r="HF45"/>
+      <c r="HG45"/>
+      <c r="HH45"/>
+      <c r="HI45"/>
+      <c r="HJ45"/>
+      <c r="HK45"/>
+      <c r="HL45"/>
+      <c r="HM45"/>
+      <c r="HN45"/>
+      <c r="HO45"/>
+      <c r="HP45"/>
+      <c r="HQ45"/>
+      <c r="HR45"/>
+      <c r="HS45"/>
+      <c r="HT45"/>
+      <c r="HU45"/>
+      <c r="HV45"/>
+      <c r="HW45"/>
+      <c r="HX45"/>
+      <c r="HY45"/>
+      <c r="HZ45"/>
+      <c r="IA45"/>
+      <c r="IB45"/>
+      <c r="IC45"/>
+      <c r="ID45"/>
+      <c r="IE45"/>
+      <c r="IF45"/>
+      <c r="IG45"/>
+      <c r="IH45"/>
+      <c r="II45"/>
+      <c r="IJ45"/>
+      <c r="IK45"/>
+      <c r="IL45"/>
+      <c r="IM45"/>
+      <c r="IN45"/>
+      <c r="IO45"/>
+      <c r="IP45"/>
+      <c r="IQ45"/>
+      <c r="IR45"/>
+      <c r="IS45"/>
+      <c r="IT45"/>
+      <c r="IU45"/>
+      <c r="IV45"/>
+    </row>
+    <row r="46" spans="1:256" ht="75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:256" ht="30" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:256" ht="19" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>214</v>
+      <c r="F47" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:256" ht="30" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:256" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="5"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="45" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>198</v>
@@ -3996,116 +4013,116 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="19" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>214</v>
+        <v>186</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:10" ht="45" customHeight="1">
+      <c r="J51" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>226</v>
+        <v>118</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="30" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="30" customHeight="1">
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="19" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>226</v>
@@ -4114,22 +4131,22 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>198</v>
@@ -4138,90 +4155,90 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>199</v>
+      <c r="F57" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="19" customHeight="1">
+      <c r="J57" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="30" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="4" t="s">
-        <v>151</v>
+      <c r="J58" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>226</v>
+      <c r="F59" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="6" t="s">
-        <v>87</v>
+      <c r="J59" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
@@ -4234,166 +4251,166 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>199</v>
+      <c r="F61" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="4" t="s">
-        <v>93</v>
+      <c r="J61" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="19" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>226</v>
+      <c r="F62" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="75" customHeight="1">
+      <c r="J62" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="19" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="45" customHeight="1">
+      <c r="I63" s="5"/>
+      <c r="J63" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="19" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="30" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>198</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="J65" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="45" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>198</v>
@@ -4402,218 +4419,218 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="19" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="30" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>214</v>
+        <v>186</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="4" t="str">
+      <c r="G72" s="5"/>
+      <c r="H72" s="4" t="str">
         <f>"@set"</f>
         <v>@set</v>
       </c>
-      <c r="I70" s="5" t="b">
+      <c r="I72" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J72" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="19" customHeight="1">
-      <c r="A71" s="4" t="s">
+    <row r="73" spans="1:10" ht="19" customHeight="1">
+      <c r="A73" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="4" t="str">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4" t="str">
         <f>"@set"</f>
         <v>@set</v>
       </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="45" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="30" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="45" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>226</v>
+        <v>118</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="19" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="45" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
@@ -4626,18 +4643,18 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="30" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
@@ -4650,334 +4667,342 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="135" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="19" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="60" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="30" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="4" t="str">
-        <f>"@set"</f>
-        <v>@set</v>
-      </c>
+      <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="135" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" s="4" t="str">
-        <f>"@vocab"</f>
-        <v>@vocab</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="120" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="60" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D81" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>200</v>
+        <v>178</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
+      <c r="H81" s="4" t="str">
+        <f>"@set"</f>
+        <v>@set</v>
+      </c>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="120" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G82" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <f>"@vocab"</f>
+        <v>@vocab</v>
+      </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="45" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="120" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F83" s="4" t="s">
         <v>133</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="45" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="120" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G84" s="4" t="str">
-        <f>"@vocab"</f>
-        <v>@vocab</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="135" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F85" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G85" s="5"/>
-      <c r="H85" s="4" t="str">
-        <f>"@language"</f>
-        <v>@language</v>
-      </c>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="30" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <f>"@vocab"</f>
+        <v>@vocab</v>
+      </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="30" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="135" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="H87" s="4" t="str">
+        <f>"@language"</f>
+        <v>@language</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="45" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>30</v>
+        <v>191</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="19" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="30" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="45" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="E90" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="19" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4986,18 +5011,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5006,18 +5031,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="19" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5026,18 +5051,18 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5046,18 +5071,18 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="45" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="30" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5066,97 +5091,101 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="19" customHeight="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="30" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>311</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="19" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D98" s="4" t="s">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D99" s="4" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="6"/>
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5167,14 +5196,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5185,14 +5214,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5203,14 +5232,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5221,16 +5250,16 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -5239,16 +5268,16 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E105" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -5257,16 +5286,16 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E106" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="E106" s="9"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -5275,16 +5304,16 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E107" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="E107" s="9"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -5293,14 +5322,14 @@
     </row>
     <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5309,17 +5338,16 @@
       <c r="I108" s="5"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10" ht="15" customHeight="1">
+    <row r="109" spans="1:10" ht="19" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4" t="str">
-        <f>CONCATENATE("xsd:",A109)</f>
-        <v>xsd:anySimpleType</v>
+      <c r="C109" s="5"/>
+      <c r="D109" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5328,17 +5356,16 @@
       <c r="I109" s="5"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="1:10" ht="15" customHeight="1">
+    <row r="110" spans="1:10" ht="19" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4" t="str">
-        <f t="shared" ref="D110:D144" si="0">CONCATENATE("xsd:",A110)</f>
-        <v>xsd:string</v>
+      <c r="C110" s="5"/>
+      <c r="D110" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5349,15 +5376,15 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:normalizedString</v>
+        <f>CONCATENATE("xsd:",A111)</f>
+        <v>xsd:anySimpleType</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5368,15 +5395,15 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:token</v>
+        <f t="shared" ref="D112:D146" si="0">CONCATENATE("xsd:",A112)</f>
+        <v>xsd:string</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5387,7 +5414,7 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>48</v>
@@ -5395,7 +5422,7 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:Name</v>
+        <v>xsd:normalizedString</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5406,7 +5433,7 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>48</v>
@@ -5414,7 +5441,7 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:NCName</v>
+        <v>xsd:token</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5425,7 +5452,7 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>48</v>
@@ -5433,7 +5460,7 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:boolean</v>
+        <v>xsd:Name</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5444,14 +5471,15 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
-        <v>26</v>
+      <c r="D116" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:NCName</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5462,7 +5490,7 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>48</v>
@@ -5470,7 +5498,7 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:decimal</v>
+        <v>xsd:boolean</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5481,15 +5509,14 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+      <c r="D118" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5500,7 +5527,7 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>48</v>
@@ -5508,7 +5535,7 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <v>xsd:decimal</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5519,7 +5546,7 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>48</v>
@@ -5527,7 +5554,7 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+        <v>xsd:integer</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5538,7 +5565,7 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>48</v>
@@ -5546,7 +5573,7 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:long</v>
+        <v>xsd:nonPositiveInteger</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5557,7 +5584,7 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>48</v>
@@ -5565,7 +5592,7 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:int</v>
+        <v>xsd:negativeInteger</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5576,7 +5603,7 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>48</v>
@@ -5584,7 +5611,7 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:short</v>
+        <v>xsd:long</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5595,7 +5622,7 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>48</v>
@@ -5603,7 +5630,7 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:byte</v>
+        <v>xsd:int</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5614,7 +5641,7 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>48</v>
@@ -5622,7 +5649,7 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonNegativeInteger</v>
+        <v>xsd:short</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5633,7 +5660,7 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>48</v>
@@ -5641,7 +5668,7 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedLong</v>
+        <v>xsd:byte</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5652,7 +5679,7 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>48</v>
@@ -5660,7 +5687,7 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedInt</v>
+        <v>xsd:nonNegativeInteger</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5671,7 +5698,7 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>48</v>
@@ -5679,7 +5706,7 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedShort</v>
+        <v>xsd:unsignedLong</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -5690,7 +5717,7 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>48</v>
@@ -5698,7 +5725,7 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedByte</v>
+        <v>xsd:unsignedInt</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -5709,7 +5736,7 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>48</v>
@@ -5717,7 +5744,7 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:positiveInteger</v>
+        <v>xsd:unsignedShort</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -5728,7 +5755,7 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>48</v>
@@ -5736,7 +5763,7 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:float</v>
+        <v>xsd:unsignedByte</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -5747,7 +5774,7 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>48</v>
@@ -5755,7 +5782,7 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:double</v>
+        <v>xsd:positiveInteger</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5766,7 +5793,7 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>48</v>
@@ -5774,7 +5801,7 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:duration</v>
+        <v>xsd:float</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -5785,7 +5812,7 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>48</v>
@@ -5793,7 +5820,7 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:dateTime</v>
+        <v>xsd:double</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -5804,7 +5831,7 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>48</v>
@@ -5812,7 +5839,7 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:time</v>
+        <v>xsd:duration</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -5823,7 +5850,7 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>48</v>
@@ -5831,7 +5858,7 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:date</v>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5842,7 +5869,7 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>48</v>
@@ -5850,7 +5877,7 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYearMonth</v>
+        <v>xsd:time</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5861,7 +5888,7 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>48</v>
@@ -5869,7 +5896,7 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYear</v>
+        <v>xsd:date</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -5880,7 +5907,7 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>48</v>
@@ -5888,7 +5915,7 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonthDay</v>
+        <v>xsd:gYearMonth</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -5899,7 +5926,7 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>48</v>
@@ -5907,7 +5934,7 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gDay</v>
+        <v>xsd:gYear</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5918,7 +5945,7 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>48</v>
@@ -5926,7 +5953,7 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonth</v>
+        <v>xsd:gMonthDay</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -5937,7 +5964,7 @@
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>48</v>
@@ -5945,7 +5972,7 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:hexBinary</v>
+        <v>xsd:gDay</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -5956,7 +5983,7 @@
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>48</v>
@@ -5964,7 +5991,7 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:base64Binary</v>
+        <v>xsd:gMonth</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -5975,7 +6002,7 @@
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>48</v>
@@ -5983,7 +6010,7 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:anyURI</v>
+        <v>xsd:hexBinary</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -5992,45 +6019,83 @@
       <c r="I144" s="5"/>
       <c r="J144" s="7"/>
     </row>
+    <row r="145" spans="1:10" ht="15" customHeight="1">
+      <c r="A145" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:base64Binary</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" spans="1:10" ht="15" customHeight="1">
+      <c r="A146" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D17" r:id="rId14"/>
-    <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="D19" r:id="rId16"/>
-    <hyperlink ref="D20" r:id="rId17"/>
-    <hyperlink ref="D21" r:id="rId18"/>
-    <hyperlink ref="D22" r:id="rId19"/>
-    <hyperlink ref="D23" r:id="rId20"/>
-    <hyperlink ref="D24" r:id="rId21"/>
-    <hyperlink ref="D25" r:id="rId22"/>
-    <hyperlink ref="D26" r:id="rId23"/>
-    <hyperlink ref="D27" r:id="rId24"/>
-    <hyperlink ref="D28" r:id="rId25"/>
-    <hyperlink ref="D29" r:id="rId26"/>
-    <hyperlink ref="D30" r:id="rId27"/>
-    <hyperlink ref="D31" r:id="rId28"/>
-    <hyperlink ref="D32" r:id="rId29"/>
-    <hyperlink ref="D33" r:id="rId30"/>
-    <hyperlink ref="D34" r:id="rId31"/>
-    <hyperlink ref="D35" r:id="rId32"/>
-    <hyperlink ref="D36" r:id="rId33"/>
-    <hyperlink ref="D37" r:id="rId34"/>
-    <hyperlink ref="D38" r:id="rId35"/>
-    <hyperlink ref="D39" r:id="rId36"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D14" r:id="rId9"/>
+    <hyperlink ref="D15" r:id="rId10"/>
+    <hyperlink ref="D16" r:id="rId11"/>
+    <hyperlink ref="D17" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D23" r:id="rId18"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21"/>
+    <hyperlink ref="D27" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D31" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27"/>
+    <hyperlink ref="D33" r:id="rId28"/>
+    <hyperlink ref="D34" r:id="rId29"/>
+    <hyperlink ref="D35" r:id="rId30"/>
+    <hyperlink ref="D36" r:id="rId31"/>
+    <hyperlink ref="D37" r:id="rId32"/>
+    <hyperlink ref="D38" r:id="rId33"/>
+    <hyperlink ref="D39" r:id="rId34"/>
+    <hyperlink ref="D40" r:id="rId35"/>
+    <hyperlink ref="D41" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="240" yWindow="2340" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="314">
   <si>
     <t>unsignedInt</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1302,6 +1302,12 @@
   </si>
   <si>
     <t>A Table Group describes an Annotated Table Group.</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>A boolean atomic property taking a single value which indicates whether the column is a virtual column not present in the original source</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1395,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1423,8 +1432,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2742,11 +2752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV144"/>
+  <dimension ref="A1:IV145"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -4926,35 +4936,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="19" customHeight="1">
+    <row r="89" spans="1:10" ht="45" customHeight="1">
       <c r="A89" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="30" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="19" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4963,18 +4977,18 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="19" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4983,18 +4997,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="19" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5003,18 +5017,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5023,18 +5037,18 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>310</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5043,18 +5057,18 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="45" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="30" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5063,79 +5077,81 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="19" customHeight="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="19" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D98" s="4" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="6"/>
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5146,14 +5162,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5164,14 +5180,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5182,14 +5198,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5200,14 +5216,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5218,16 +5234,16 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -5236,14 +5252,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="5"/>
@@ -5254,16 +5270,16 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E106" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="E106" s="9"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -5272,14 +5288,14 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5290,14 +5306,14 @@
     </row>
     <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>307</v>
+        <v>67</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5306,17 +5322,16 @@
       <c r="I108" s="5"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10" ht="15" customHeight="1">
+    <row r="109" spans="1:10" ht="19" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4" t="str">
-        <f>CONCATENATE("xsd:",A109)</f>
-        <v>xsd:anySimpleType</v>
+      <c r="C109" s="5"/>
+      <c r="D109" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5327,15 +5342,15 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="str">
-        <f t="shared" ref="D110:D144" si="0">CONCATENATE("xsd:",A110)</f>
-        <v>xsd:string</v>
+        <f>CONCATENATE("xsd:",A110)</f>
+        <v>xsd:anySimpleType</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5346,15 +5361,15 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:normalizedString</v>
+        <f t="shared" ref="D111:D145" si="0">CONCATENATE("xsd:",A111)</f>
+        <v>xsd:string</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5365,7 +5380,7 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>49</v>
@@ -5373,7 +5388,7 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:token</v>
+        <v>xsd:normalizedString</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5384,7 +5399,7 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>49</v>
@@ -5392,7 +5407,7 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:Name</v>
+        <v>xsd:token</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5403,7 +5418,7 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>49</v>
@@ -5411,7 +5426,7 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:NCName</v>
+        <v>xsd:Name</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5422,7 +5437,7 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>49</v>
@@ -5430,7 +5445,7 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:boolean</v>
+        <v>xsd:NCName</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5441,14 +5456,15 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
-        <v>26</v>
+      <c r="D116" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:boolean</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5459,15 +5475,14 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:decimal</v>
+      <c r="D117" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5478,7 +5493,7 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>49</v>
@@ -5486,7 +5501,7 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+        <v>xsd:decimal</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5497,7 +5512,7 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>49</v>
@@ -5505,7 +5520,7 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <v>xsd:integer</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5516,7 +5531,7 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>49</v>
@@ -5524,7 +5539,7 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+        <v>xsd:nonPositiveInteger</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5535,7 +5550,7 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>49</v>
@@ -5543,7 +5558,7 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:long</v>
+        <v>xsd:negativeInteger</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5554,7 +5569,7 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>49</v>
@@ -5562,7 +5577,7 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:int</v>
+        <v>xsd:long</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5573,7 +5588,7 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>49</v>
@@ -5581,7 +5596,7 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:short</v>
+        <v>xsd:int</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5592,7 +5607,7 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>49</v>
@@ -5600,7 +5615,7 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:byte</v>
+        <v>xsd:short</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5611,7 +5626,7 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>49</v>
@@ -5619,7 +5634,7 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonNegativeInteger</v>
+        <v>xsd:byte</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5630,7 +5645,7 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>49</v>
@@ -5638,7 +5653,7 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedLong</v>
+        <v>xsd:nonNegativeInteger</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5649,7 +5664,7 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>49</v>
@@ -5657,7 +5672,7 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedInt</v>
+        <v>xsd:unsignedLong</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5668,7 +5683,7 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>49</v>
@@ -5676,7 +5691,7 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedShort</v>
+        <v>xsd:unsignedInt</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -5687,7 +5702,7 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>49</v>
@@ -5695,7 +5710,7 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedByte</v>
+        <v>xsd:unsignedShort</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -5706,7 +5721,7 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>49</v>
@@ -5714,7 +5729,7 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:positiveInteger</v>
+        <v>xsd:unsignedByte</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -5725,7 +5740,7 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>49</v>
@@ -5733,7 +5748,7 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:float</v>
+        <v>xsd:positiveInteger</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -5744,7 +5759,7 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>49</v>
@@ -5752,7 +5767,7 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:double</v>
+        <v>xsd:float</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5763,7 +5778,7 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>49</v>
@@ -5771,7 +5786,7 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:duration</v>
+        <v>xsd:double</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -5782,7 +5797,7 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>49</v>
@@ -5790,7 +5805,7 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:dateTime</v>
+        <v>xsd:duration</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -5801,7 +5816,7 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>49</v>
@@ -5809,7 +5824,7 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:time</v>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -5820,7 +5835,7 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>49</v>
@@ -5828,7 +5843,7 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:date</v>
+        <v>xsd:time</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5839,7 +5854,7 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>49</v>
@@ -5847,7 +5862,7 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYearMonth</v>
+        <v>xsd:date</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5858,7 +5873,7 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>49</v>
@@ -5866,7 +5881,7 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYear</v>
+        <v>xsd:gYearMonth</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -5877,7 +5892,7 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>49</v>
@@ -5885,7 +5900,7 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonthDay</v>
+        <v>xsd:gYear</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -5896,7 +5911,7 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>49</v>
@@ -5904,7 +5919,7 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gDay</v>
+        <v>xsd:gMonthDay</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5915,7 +5930,7 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>49</v>
@@ -5923,7 +5938,7 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonth</v>
+        <v>xsd:gDay</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -5934,7 +5949,7 @@
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>49</v>
@@ -5942,7 +5957,7 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:hexBinary</v>
+        <v>xsd:gMonth</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -5953,7 +5968,7 @@
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>49</v>
@@ -5961,7 +5976,7 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:base64Binary</v>
+        <v>xsd:hexBinary</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -5972,7 +5987,7 @@
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>49</v>
@@ -5980,7 +5995,7 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:anyURI</v>
+        <v>xsd:base64Binary</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -5988,6 +6003,25 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" ht="15" customHeight="1">
+      <c r="A145" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,474 +21,714 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="320">
   <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each cell within a row when mapping data to other formats</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>aboutUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>propertyUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>property URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>about URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An URI template property that holds one or more strings that may be expanded to URIs for properties if the table is mapped to another format. The default value of propertyUrl is "{#_name}".</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An URI template property that is used to define one or more resources value of a cell instead of a literal values.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>xsd:language</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableSchema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>table schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csvw:uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uri template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>term</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text-direction</t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
+    <t>skos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2004/02/skos/core#</t>
+    </r>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2008/05/skos-xl#</t>
+    </r>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdf.data-vocabulary.org/#</t>
+    </r>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2006/vcard/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/ns/void#</t>
+    </r>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder#</t>
+    </r>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder-s#</t>
+    </r>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/xhtml/vocab#</t>
+    </r>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/XML/1998/namespace</t>
+    </r>
+  </si>
+  <si>
+    <t>delimiter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Table describes an Annotated Table.</t>
+  </si>
+  <si>
+    <t>A Table Group describes an Annotated Table Group.</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>csvEncodedTabularData</t>
+  </si>
+  <si>
+    <t>prov:Role</t>
+  </si>
+  <si>
+    <t>CSV Encoded Tabular Data</t>
+  </si>
+  <si>
+    <t>tabularMetadata</t>
+  </si>
+  <si>
+    <t>Tabular Metadata</t>
+  </si>
+  <si>
+    <t>Describes the role of a CSV file in the tabular data mapping.</t>
+  </si>
+  <si>
+    <t>Describes the role of a Metadata file in the tabular data mapping.</t>
+  </si>
+  <si>
+    <t>tableDirection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>textDirection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
+  <si>
+    <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
+For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/terms/</t>
+    </r>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/elements/1.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/dcat#</t>
+    </r>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://xmlns.com/foaf/0.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/goodrelations/v1#</t>
+    </r>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2003/g/data-view#</t>
+    </r>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+    </r>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/ma-ont#</t>
+    </r>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://ogp.me/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/org#</t>
+    </r>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/07/owl#</t>
+    </r>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/prov#</t>
+    </r>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/linked-data/cube#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/rdfa#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2000/01/rdf-schema#</t>
+    </r>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/stuff/rev#</t>
+    </r>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/rif#</t>
+    </r>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/r2rml#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://schema.org/</t>
+    </r>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/sparql-service-description#</t>
+    </r>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/sioc/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>rdfs:member</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2001/XMLSchema#</t>
+    </r>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
+    <t>@vocab</t>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table,Template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
   </si>
   <si>
     <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table-direction</t>
   </si>
   <si>
     <t>table direction</t>
@@ -629,710 +869,472 @@
     <t>The character that is used around escaped cells.</t>
   </si>
   <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>rdfs:member</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2001/XMLSchema#</t>
-    </r>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
   </si>
   <si>
     <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>@vocab</t>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table,Template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
-  </si>
-  <si>
-    <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
-For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/terms/</t>
-    </r>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/elements/1.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/dcat#</t>
-    </r>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://xmlns.com/foaf/0.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/goodrelations/v1#</t>
-    </r>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2003/g/data-view#</t>
-    </r>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-    </r>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/ma-ont#</t>
-    </r>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://ogp.me/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/org#</t>
-    </r>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/07/owl#</t>
-    </r>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/prov#</t>
-    </r>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/linked-data/cube#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/rdfa#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2000/01/rdf-schema#</t>
-    </r>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/stuff/rev#</t>
-    </r>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/rif#</t>
-    </r>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/r2rml#</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://schema.org/</t>
-    </r>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/sparql-service-description#</t>
-    </r>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/sioc/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2004/02/skos/core#</t>
-    </r>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2008/05/skos-xl#</t>
-    </r>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdf.data-vocabulary.org/#</t>
-    </r>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2006/vcard/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/ns/void#</t>
-    </r>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder#</t>
-    </r>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder-s#</t>
-    </r>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/xhtml/vocab#</t>
-    </r>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/XML/1998/namespace</t>
-    </r>
-  </si>
-  <si>
-    <t>delimiter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Table describes an Annotated Table.</t>
-  </si>
-  <si>
-    <t>A Table Group describes an Annotated Table Group.</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>csvEncodedTabularData</t>
-  </si>
-  <si>
-    <t>prov:Role</t>
-  </si>
-  <si>
-    <t>CSV Encoded Tabular Data</t>
-  </si>
-  <si>
-    <t>tabularMetadata</t>
-  </si>
-  <si>
-    <t>Tabular Metadata</t>
-  </si>
-  <si>
-    <t>Describes the role of a CSV file in the tabular data mapping.</t>
-  </si>
-  <si>
-    <t>Describes the role of a Metadata file in the tabular data mapping.</t>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each cell within a row when mapping data to other formats</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboutUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>property URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>about URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that holds one or more strings that may be expanded to URIs for properties if the table is mapped to another format. The default value of propertyUrl is "{#_name}".</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that is used to define one or more resources value of a cell instead of a literal values.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>xsd:language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableSchema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>table schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw:uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1362,7 +1364,7 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="11"/>
+      <color indexed="14"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -1413,11 +1415,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,13 +1449,12 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2769,15 +2767,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:IV146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="8.125" style="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
@@ -2789,22 +2787,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2815,21 +2813,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2838,18 +2836,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>243</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2858,18 +2856,18 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>313</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2878,18 +2876,18 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2898,19 +2896,19 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2921,14 +2919,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2939,14 +2937,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2957,14 +2955,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2975,14 +2973,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2993,14 +2991,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3011,14 +3009,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3029,14 +3027,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3047,14 +3045,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3065,14 +3063,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>258</v>
+        <v>68</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3083,14 +3081,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3101,14 +3099,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3119,14 +3117,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3137,14 +3135,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3155,14 +3153,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3173,14 +3171,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3191,14 +3189,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3209,14 +3207,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3227,14 +3225,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>276</v>
+        <v>86</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3245,14 +3243,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3263,14 +3261,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3281,14 +3279,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3299,14 +3297,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3317,14 +3315,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3335,14 +3333,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3353,14 +3351,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3371,14 +3369,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3389,14 +3387,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>292</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3407,14 +3405,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3425,14 +3423,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3443,14 +3441,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3461,14 +3459,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3479,14 +3477,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3497,14 +3495,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3515,14 +3513,14 @@
     </row>
     <row r="40" spans="1:256" ht="19" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="4" t="s">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3533,14 +3531,14 @@
     </row>
     <row r="41" spans="1:256" ht="19" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3551,44 +3549,44 @@
     </row>
     <row r="42" spans="1:256" ht="45" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="19" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4" t="str">
@@ -3597,57 +3595,57 @@
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:256" ht="60" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="60" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -3898,188 +3896,188 @@
     </row>
     <row r="46" spans="1:256" ht="75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="19" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>308</v>
+        <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:256" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="19" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -4088,284 +4086,284 @@
     </row>
     <row r="54" spans="1:10" ht="45" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="19" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="4" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="19" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="4" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="19" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -4373,167 +4371,167 @@
         <v>1</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="4" t="str">
@@ -4544,24 +4542,24 @@
         <v>1</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="19" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -4571,195 +4569,195 @@
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="19" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="135" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="60" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4" t="str">
@@ -4768,25 +4766,25 @@
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="G82" s="4" t="str">
         <f>"@vocab"</f>
@@ -4795,97 +4793,97 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="120" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="120" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="45" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="C86" s="4" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="G86" s="4" t="str">
         <f>"@vocab"</f>
@@ -4894,22 +4892,22 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="135" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -4919,90 +4917,90 @@
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="4" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="45" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="19" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -5011,18 +5009,18 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5031,18 +5029,18 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="19" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5051,18 +5049,18 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5071,18 +5069,18 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>39</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5091,18 +5089,18 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -5111,18 +5109,18 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6" t="s">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="45" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -5131,21 +5129,21 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="6" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="19" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -5153,21 +5151,21 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="6" t="s">
-        <v>46</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="19" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -5178,14 +5176,14 @@
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5196,14 +5194,14 @@
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5214,14 +5212,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5232,14 +5230,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5250,14 +5248,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>56</v>
+        <v>316</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -5268,14 +5266,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5286,14 +5284,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="5"/>
@@ -5304,14 +5302,14 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="5"/>
@@ -5322,14 +5320,14 @@
     </row>
     <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -5340,14 +5338,14 @@
     </row>
     <row r="109" spans="1:10" ht="19" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="4" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5358,14 +5356,14 @@
     </row>
     <row r="110" spans="1:10" ht="19" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="4" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5376,10 +5374,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="str">
@@ -5395,10 +5393,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="str">
@@ -5414,10 +5412,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
@@ -5433,10 +5431,10 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
@@ -5452,10 +5450,10 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
@@ -5471,10 +5469,10 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
@@ -5490,10 +5488,10 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
@@ -5509,14 +5507,14 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5527,10 +5525,10 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
@@ -5546,10 +5544,10 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4" t="str">
@@ -5565,10 +5563,10 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
@@ -5584,10 +5582,10 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
@@ -5603,10 +5601,10 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
@@ -5622,10 +5620,10 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
@@ -5641,10 +5639,10 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
@@ -5660,10 +5658,10 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
@@ -5679,10 +5677,10 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
@@ -5698,10 +5696,10 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
@@ -5717,10 +5715,10 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
@@ -5736,10 +5734,10 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
@@ -5755,10 +5753,10 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
@@ -5774,10 +5772,10 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
@@ -5793,10 +5791,10 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
@@ -5812,10 +5810,10 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
@@ -5831,10 +5829,10 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
@@ -5850,10 +5848,10 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
@@ -5869,10 +5867,10 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
@@ -5888,10 +5886,10 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
@@ -5907,10 +5905,10 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
@@ -5926,10 +5924,10 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
@@ -5945,10 +5943,10 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
@@ -5964,10 +5962,10 @@
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
@@ -5983,10 +5981,10 @@
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="str">
@@ -6002,10 +6000,10 @@
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>36</v>
+        <v>296</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="str">
@@ -6021,10 +6019,10 @@
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="str">
@@ -6040,10 +6038,10 @@
     </row>
     <row r="146" spans="1:10" ht="15" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="str">
@@ -6058,6 +6056,7 @@
       <c r="J146" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1"/>
@@ -6098,12 +6097,11 @@
     <hyperlink ref="D41" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="22940" yWindow="3160" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,1089 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="326">
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>xsd:language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableSchema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>table schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw:uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>xsd:anySimpleType</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>suppressOutput</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppress output</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table,Column</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A boolean atomic property. If true, suppresses any output that would be generated when converting a table or cells within a column.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
+  </si>
+  <si>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each cell within a row when mapping data to other formats</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboutUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>property URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>about URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that holds one or more strings that may be expanded to URIs for properties if the table is mapped to another format. The default value of propertyUrl is "{#_name}".</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that is used to define one or more resources value of a cell instead of a literal values.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>xhv:license</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>csvw:maxInclusive</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>csvw:minInclusive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>xhv:role</t>
+  </si>
+  <si>
+    <t>rdf:XMLLiteral</t>
+  </si>
+  <si>
+    <t>anySimpleType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalizedString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonPositiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>negativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonNegativeInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedLong</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxExclusive</t>
+  </si>
+  <si>
+    <t>The maximum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>minExclusive</t>
+  </si>
+  <si>
+    <t>min exclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>minInclusive</t>
+  </si>
+  <si>
+    <t>min inclusive</t>
+  </si>
+  <si>
+    <t>The minimum value for the cell (inclusive).</t>
+  </si>
+  <si>
+    <t>line terminator</t>
+  </si>
+  <si>
+    <t>The character that is used at the end of a row. The default is CRLF.</t>
+  </si>
+  <si>
+    <t>The maximum value for the cell (exclusive).</t>
+  </si>
+  <si>
+    <t>maxInclusive</t>
+  </si>
+  <si>
+    <t>max inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>max length</t>
+  </si>
+  <si>
+    <t>right to left</t>
+  </si>
+  <si>
+    <t>Indiects text should be processed right to left</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://creativecommons.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>csvw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/csvw#</t>
+    </r>
+  </si>
+  <si>
+    <t>ctag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://commontag.org/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@vocab</t>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table,Template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
+For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/terms/</t>
+    </r>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/elements/1.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/dcat#</t>
+    </r>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://xmlns.com/foaf/0.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/goodrelations/v1#</t>
+    </r>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2003/g/data-view#</t>
+    </r>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+    </r>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/ma-ont#</t>
+    </r>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://ogp.me/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/org#</t>
+    </r>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/07/owl#</t>
+    </r>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/prov#</t>
+    </r>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/linked-data/cube#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/rdfa#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2000/01/rdf-schema#</t>
+    </r>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/stuff/rev#</t>
+    </r>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/rif#</t>
+    </r>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/r2rml#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://schema.org/</t>
+    </r>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/sparql-service-description#</t>
+    </r>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/sioc/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>rdfs:member</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2001/XMLSchema#</t>
+    </r>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
   <si>
     <t>skos</t>
   </si>
@@ -157,38 +1239,50 @@
     <t>A Table Group describes an Annotated Table Group.</t>
   </si>
   <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>A boolean atomic property taking a single value which indicates whether the column is a virtual column not present in the original source</t>
+  </si>
+  <si>
+    <t>textDirection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableDirection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>xsd:string</t>
-  </si>
-  <si>
-    <t>JSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>csvEncodedTabularData</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>prov:Role</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CSV Encoded Tabular Data</t>
   </si>
   <si>
+    <t>Describes the role of a CSV file in the tabular data mapping.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>tabularMetadata</t>
   </si>
   <si>
     <t>Tabular Metadata</t>
   </si>
   <si>
-    <t>Describes the role of a CSV file in the tabular data mapping.</t>
-  </si>
-  <si>
     <t>Describes the role of a Metadata file in the tabular data mapping.</t>
-  </si>
-  <si>
-    <t>tableDirection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>textDirection</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -263,1077 +1357,18 @@
   </si>
   <si>
     <t>max exclusive</t>
-  </si>
-  <si>
-    <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
-For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/terms/</t>
-    </r>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/elements/1.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/dcat#</t>
-    </r>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://xmlns.com/foaf/0.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/goodrelations/v1#</t>
-    </r>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2003/g/data-view#</t>
-    </r>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-    </r>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/ma-ont#</t>
-    </r>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://ogp.me/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/org#</t>
-    </r>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/07/owl#</t>
-    </r>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/prov#</t>
-    </r>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/linked-data/cube#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/rdfa#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2000/01/rdf-schema#</t>
-    </r>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/stuff/rev#</t>
-    </r>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/rif#</t>
-    </r>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/r2rml#</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://schema.org/</t>
-    </r>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/sparql-service-description#</t>
-    </r>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/sioc/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>rdfs:member</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2001/XMLSchema#</t>
-    </r>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@vocab</t>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table,Template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
-  </si>
-  <si>
-    <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>line terminator</t>
-  </si>
-  <si>
-    <t>The character that is used at the end of a row. The default is CRLF.</t>
-  </si>
-  <si>
-    <t>The maximum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>maxInclusive</t>
-  </si>
-  <si>
-    <t>max inclusive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum value for the cell (inclusive). </t>
-  </si>
-  <si>
-    <t>maxLength</t>
-  </si>
-  <si>
-    <t>max length</t>
-  </si>
-  <si>
-    <t>right to left</t>
-  </si>
-  <si>
-    <t>Indiects text should be processed right to left</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://creativecommons.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>csvw</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/csvw#</t>
-    </r>
-  </si>
-  <si>
-    <t>ctag</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://commontag.org/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
-  </si>
-  <si>
-    <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>The format to which the tabular data should be transformed prior to the transformation using the template. If the value is "json", the tabular data should first be transformed first to JSON based on the simple mapping defined in Generating JSON from Tabular Data on the Web. If the value is "rdf", it should similarly first be transformed to XML based on the simple mapping defined in Generating RDF from Tabular Data on the Web.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>csvw:maxInclusive</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>csvw:minInclusive</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>xhv:role</t>
-  </si>
-  <si>
-    <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalizedString</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonPositiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>negativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nonNegativeInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedLong</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxExclusive</t>
-  </si>
-  <si>
-    <t>The maximum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>minExclusive</t>
-  </si>
-  <si>
-    <t>min exclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (exclusive).</t>
-  </si>
-  <si>
-    <t>minInclusive</t>
-  </si>
-  <si>
-    <t>min inclusive</t>
-  </si>
-  <si>
-    <t>The minimum value for the cell (inclusive).</t>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uri template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>term</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each cell within a row when mapping data to other formats</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>aboutUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>propertyUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>property URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>about URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An URI template property that holds one or more strings that may be expanded to URIs for properties if the table is mapped to another format. The default value of propertyUrl is "{#_name}".</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An URI template property that is used to define one or more resources value of a cell instead of a literal values.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>xsd:language</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableSchema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>table schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csvw:uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>xhv:license</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -2768,11 +2803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:IV146"/>
+  <dimension ref="A1:IV148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2787,22 +2822,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2813,21 +2848,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2836,18 +2871,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>53</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2856,59 +2891,55 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>142</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>142</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2919,14 +2950,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2937,14 +2968,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2955,14 +2986,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2973,14 +3004,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2991,14 +3022,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3009,14 +3040,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3027,14 +3058,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3045,14 +3076,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3063,14 +3094,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3081,14 +3112,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3099,14 +3130,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3117,14 +3148,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3135,14 +3166,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3153,14 +3184,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3171,14 +3202,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3189,14 +3220,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3207,14 +3238,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3225,14 +3256,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3243,14 +3274,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3261,14 +3292,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3279,14 +3310,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3297,14 +3328,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3315,14 +3346,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3333,14 +3364,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3351,14 +3382,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3369,14 +3400,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3387,14 +3418,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3405,14 +3436,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3423,14 +3454,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>7</v>
+        <v>279</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3441,14 +3472,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3459,14 +3490,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3477,14 +3508,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3495,14 +3526,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3513,80 +3544,84 @@
     </row>
     <row r="40" spans="1:256" ht="19" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="41" spans="1:256" ht="19" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="42" spans="1:256" ht="45" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="19" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4" t="str">
@@ -3595,57 +3630,57 @@
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:256" ht="60" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="60" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>305</v>
+        <v>23</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -3896,188 +3931,188 @@
     </row>
     <row r="46" spans="1:256" ht="75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="19" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:256" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>32</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="19" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -4086,284 +4121,284 @@
     </row>
     <row r="54" spans="1:10" ht="45" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>39</v>
+        <v>309</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="6" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="19" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="4" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="19" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="4" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="19" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>246</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -4371,167 +4406,167 @@
         <v>1</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="4" t="str">
@@ -4542,24 +4577,24 @@
         <v>1</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="19" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -4569,195 +4604,195 @@
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="45" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>110</v>
+        <v>168</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>122</v>
+        <v>264</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="45" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="19" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="19" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="135" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>36</v>
+        <v>93</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="135" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="60" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4" t="str">
@@ -4766,25 +4801,25 @@
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="G82" s="4" t="str">
         <f>"@vocab"</f>
@@ -4793,254 +4828,262 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="120" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>124</v>
+        <v>184</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="120" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="45" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="120" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>207</v>
+        <v>93</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G86" s="4" t="str">
-        <f>"@vocab"</f>
-        <v>@vocab</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="135" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="4" t="str">
+        <v>168</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G87" s="4" t="str">
+        <f>"@vocab"</f>
+        <v>@vocab</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="135" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="4" t="str">
         <f>"@language"</f>
         <v>@language</v>
       </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30" customHeight="1">
-      <c r="A88" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="4" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="45" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>290</v>
+        <v>178</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="19" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="30" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="45" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="E92" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="19" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5049,18 +5092,18 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5069,18 +5112,18 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="30" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>175</v>
+        <v>321</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5089,18 +5132,18 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -5109,18 +5152,18 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="45" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="30" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -5129,97 +5172,101 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="19" customHeight="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="19" customHeight="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="45" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C100" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D100" s="4" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="7"/>
+      <c r="J100" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>310</v>
+        <v>47</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C101" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D101" s="4" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="7"/>
+      <c r="J101" s="6"/>
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5230,14 +5277,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5248,14 +5295,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -5266,14 +5313,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5284,16 +5331,16 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E106" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -5302,16 +5349,16 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E107" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -5320,16 +5367,16 @@
     </row>
     <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E108" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="E108" s="9"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -5338,16 +5385,16 @@
     </row>
     <row r="109" spans="1:10" ht="19" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E109" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="E109" s="9"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -5356,14 +5403,14 @@
     </row>
     <row r="110" spans="1:10" ht="19" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="4" t="s">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5372,17 +5419,16 @@
       <c r="I110" s="5"/>
       <c r="J110" s="7"/>
     </row>
-    <row r="111" spans="1:10" ht="15" customHeight="1">
+    <row r="111" spans="1:10" ht="19" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4" t="str">
-        <f>CONCATENATE("xsd:",A111)</f>
-        <v>xsd:anySimpleType</v>
+        <v>26</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5391,17 +5437,16 @@
       <c r="I111" s="5"/>
       <c r="J111" s="7"/>
     </row>
-    <row r="112" spans="1:10" ht="15" customHeight="1">
+    <row r="112" spans="1:10" ht="19" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4" t="str">
-        <f t="shared" ref="D112:D146" si="0">CONCATENATE("xsd:",A112)</f>
-        <v>xsd:string</v>
+        <v>26</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5412,15 +5457,15 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:normalizedString</v>
+        <f>CONCATENATE("xsd:",A113)</f>
+        <v>xsd:anySimpleType</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5431,15 +5476,15 @@
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:token</v>
+        <f t="shared" ref="D114:D148" si="0">CONCATENATE("xsd:",A114)</f>
+        <v>xsd:string</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5450,15 +5495,15 @@
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:Name</v>
+        <v>xsd:normalizedString</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5469,15 +5514,15 @@
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:NCName</v>
+        <v>xsd:token</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5488,15 +5533,15 @@
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:boolean</v>
+        <v>xsd:Name</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5507,14 +5552,15 @@
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="4" t="s">
-        <v>286</v>
+      <c r="D118" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:NCName</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5525,15 +5571,15 @@
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:decimal</v>
+        <v>xsd:boolean</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5544,15 +5590,14 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>308</v>
+        <v>50</v>
       </c>
       <c r="C120" s="4"/>
-      <c r="D120" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+      <c r="D120" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5563,15 +5608,15 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <v>xsd:decimal</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5582,15 +5627,15 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+        <v>xsd:integer</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5601,15 +5646,15 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:long</v>
+        <v>xsd:nonPositiveInteger</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5620,15 +5665,15 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:int</v>
+        <v>xsd:negativeInteger</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5639,15 +5684,15 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:short</v>
+        <v>xsd:long</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5658,15 +5703,15 @@
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:byte</v>
+        <v>xsd:int</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5677,15 +5722,15 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:nonNegativeInteger</v>
+        <v>xsd:short</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5696,15 +5741,15 @@
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedLong</v>
+        <v>xsd:byte</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -5715,15 +5760,15 @@
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedInt</v>
+        <v>xsd:nonNegativeInteger</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -5734,15 +5779,15 @@
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedShort</v>
+        <v>xsd:unsignedLong</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -5753,15 +5798,15 @@
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:unsignedByte</v>
+        <v>xsd:unsignedInt</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -5772,15 +5817,15 @@
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:positiveInteger</v>
+        <v>xsd:unsignedShort</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5791,15 +5836,15 @@
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:float</v>
+        <v>xsd:unsignedByte</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -5810,15 +5855,15 @@
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:double</v>
+        <v>xsd:positiveInteger</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -5829,15 +5874,15 @@
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:duration</v>
+        <v>xsd:float</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -5848,15 +5893,15 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:dateTime</v>
+        <v>xsd:double</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -5867,15 +5912,15 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:time</v>
+        <v>xsd:duration</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -5886,15 +5931,15 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>269</v>
+        <v>65</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:date</v>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -5905,15 +5950,15 @@
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYearMonth</v>
+        <v>xsd:time</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -5924,15 +5969,15 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gYear</v>
+        <v>xsd:date</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -5943,15 +5988,15 @@
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>293</v>
+        <v>10</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonthDay</v>
+        <v>xsd:gYearMonth</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -5962,15 +6007,15 @@
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gDay</v>
+        <v>xsd:gYear</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -5981,15 +6026,15 @@
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:gMonth</v>
+        <v>xsd:gMonthDay</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -6000,15 +6045,15 @@
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:hexBinary</v>
+        <v>xsd:gDay</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -6019,15 +6064,15 @@
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:base64Binary</v>
+        <v>xsd:gMonth</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -6038,15 +6083,15 @@
     </row>
     <row r="146" spans="1:10" ht="15" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>xsd:anyURI</v>
+        <v>xsd:hexBinary</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -6055,48 +6100,90 @@
       <c r="I146" s="5"/>
       <c r="J146" s="7"/>
     </row>
+    <row r="147" spans="1:10" ht="15" customHeight="1">
+      <c r="A147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:base64Binary</v>
+      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148" spans="1:10" ht="15" customHeight="1">
+      <c r="A148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>xsd:anyURI</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="7"/>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="A90:XFD96">
+    <sortCondition ref="A90:A96"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D14" r:id="rId9"/>
-    <hyperlink ref="D15" r:id="rId10"/>
-    <hyperlink ref="D16" r:id="rId11"/>
-    <hyperlink ref="D17" r:id="rId12"/>
-    <hyperlink ref="D18" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D23" r:id="rId18"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21"/>
-    <hyperlink ref="D27" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D34" r:id="rId29"/>
-    <hyperlink ref="D35" r:id="rId30"/>
-    <hyperlink ref="D36" r:id="rId31"/>
-    <hyperlink ref="D37" r:id="rId32"/>
-    <hyperlink ref="D38" r:id="rId33"/>
-    <hyperlink ref="D39" r:id="rId34"/>
-    <hyperlink ref="D40" r:id="rId35"/>
-    <hyperlink ref="D41" r:id="rId36"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
+    <hyperlink ref="D22" r:id="rId19"/>
+    <hyperlink ref="D23" r:id="rId20"/>
+    <hyperlink ref="D24" r:id="rId21"/>
+    <hyperlink ref="D25" r:id="rId22"/>
+    <hyperlink ref="D26" r:id="rId23"/>
+    <hyperlink ref="D27" r:id="rId24"/>
+    <hyperlink ref="D28" r:id="rId25"/>
+    <hyperlink ref="D29" r:id="rId26"/>
+    <hyperlink ref="D30" r:id="rId27"/>
+    <hyperlink ref="D31" r:id="rId28"/>
+    <hyperlink ref="D32" r:id="rId29"/>
+    <hyperlink ref="D33" r:id="rId30"/>
+    <hyperlink ref="D34" r:id="rId31"/>
+    <hyperlink ref="D35" r:id="rId32"/>
+    <hyperlink ref="D36" r:id="rId33"/>
+    <hyperlink ref="D37" r:id="rId34"/>
+    <hyperlink ref="D38" r:id="rId35"/>
+    <hyperlink ref="D39" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/ns/_vocab.xlsx
+++ b/ns/_vocab.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="3160" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="620" yWindow="7260" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,322 +19,857 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="326">
-  <si>
-    <t>A Column Description describes a single column.</t>
-  </si>
-  <si>
-    <t>Dialect Description</t>
-  </si>
-  <si>
-    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
-  </si>
-  <si>
-    <t>The class of table/text directions.</t>
-  </si>
-  <si>
-    <t>Relates a Table to each Row output.</t>
-  </si>
-  <si>
-    <t>xsd:language</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableSchema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>table schema</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csvw:uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYearMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gYear</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonthDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gMonth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hexBinary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>base64Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
-    <t>Table Group Description</t>
-  </si>
-  <si>
-    <t>Template Specification</t>
-  </si>
-  <si>
-    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-  </si>
-  <si>
-    <t>A literal containing JSON.</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>xsd:anySimpleType</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>xsd:base64Binary</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>xsd:dateTime</t>
-  </si>
-  <si>
-    <t>describedby</t>
-  </si>
-  <si>
-    <t>wrds:describedby</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>rdf:HTML</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>suppressOutput</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>suppress output</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table,Column</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="335">
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/XML/1998/namespace</t>
+    </r>
+  </si>
+  <si>
+    <t>delimiter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Table describes an Annotated Table.</t>
+  </si>
+  <si>
+    <t>A Table Group describes an Annotated Table Group.</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>A boolean atomic property taking a single value which indicates whether the column is a virtual column not present in the original source</t>
+  </si>
+  <si>
+    <t>textDirection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableDirection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvEncodedTabularData</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prov:Role</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV Encoded Tabular Data</t>
+  </si>
+  <si>
+    <t>Describes the role of a CSV file in the tabular data mapping.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabularMetadata</t>
+  </si>
+  <si>
+    <t>Tabular Metadata</t>
+  </si>
+  <si>
+    <t>Describes the role of a Metadata file in the tabular data mapping.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A definition of the format of the cell, used when parsing the cell.</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>headerColumnCount</t>
+  </si>
+  <si>
+    <t>header column count</t>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
+</t>
+  </si>
+  <si>
+    <t>headerRowCount</t>
+  </si>
+  <si>
+    <t>header row count</t>
+  </si>
+  <si>
+    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>left to right</t>
+  </si>
+  <si>
+    <t>Indicates text should be processed left to right.</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>max exclusive</t>
+  </si>
+  <si>
+    <t>xsd:anyAtomicType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTimeStamp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTimeDuration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yearMonthDuration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTATION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:NOTATION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:Qname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENTITY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:ENTITY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/dcat#</t>
+    </r>
+  </si>
+  <si>
+    <t>dcterms</t>
+  </si>
+  <si>
+    <t>foaf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://xmlns.com/foaf/0.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/goodrelations/v1#</t>
+    </r>
+  </si>
+  <si>
+    <t>grddl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2003/g/data-view#</t>
+    </r>
+  </si>
+  <si>
+    <t>ical</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
+    </r>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/ma-ont#</t>
+    </r>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://ogp.me/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/org#</t>
+    </r>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2002/07/owl#</t>
+    </r>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/prov#</t>
+    </r>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/linked-data/cube#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/rdfa#</t>
+    </r>
+  </si>
+  <si>
+    <t>rdfs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2000/01/rdf-schema#</t>
+    </r>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/stuff/rev#</t>
+    </r>
+  </si>
+  <si>
+    <t>rif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/rif#</t>
+    </r>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/r2rml#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://schema.org/</t>
+    </r>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/ns/sparql-service-description#</t>
+    </r>
+  </si>
+  <si>
+    <t>sioc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/sioc/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>TableGroup</t>
+  </si>
+  <si>
+    <t>An array of table descriptions for the tables in the group.</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>rdfs:member</t>
+  </si>
+  <si>
+    <t>xsd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2001/XMLSchema#</t>
+    </r>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>An array of Column Descriptions.</t>
+  </si>
+  <si>
+    <t>commentPrefix</t>
+  </si>
+  <si>
+    <t>comment prefix</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>separator</t>
+  </si>
+  <si>
+    <t>The character used to separate items in the string value of the cell.</t>
+  </si>
+  <si>
+    <t>skos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2004/02/skos/core#</t>
+    </r>
+  </si>
+  <si>
+    <t>skosxl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2008/05/skos-xl#</t>
+    </r>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdf.data-vocabulary.org/#</t>
+    </r>
+  </si>
+  <si>
+    <t>vcard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2006/vcard/ns#</t>
+    </r>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://rdfs.org/ns/void#</t>
+    </r>
+  </si>
+  <si>
+    <t>wdr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder#</t>
+    </r>
+  </si>
+  <si>
+    <t>wrds</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/2007/05/powder-s#</t>
+    </r>
+  </si>
+  <si>
+    <t>xhv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://www.w3.org/1999/xhtml/vocab#</t>
+    </r>
+  </si>
+  <si>
+    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
+  </si>
+  <si>
+    <t>delimiter</t>
+  </si>
+  <si>
+    <t>The separator between cells. The default is ",".</t>
+  </si>
+  <si>
+    <t>dialect</t>
+  </si>
+  <si>
+    <t>TableGroup,Table</t>
+  </si>
+  <si>
+    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
+  </si>
+  <si>
+    <t>doubleQuote</t>
+  </si>
+  <si>
+    <t>double quote</t>
   </si>
   <si>
     <t>xsd:boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A boolean atomic property. If true, suppresses any output that would be generated when converting a table or cells within a column.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>minLength</t>
-  </si>
-  <si>
-    <t>min length</t>
-  </si>
-  <si>
-    <t>The minimum length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>uri template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uriTemplate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Datatype</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>term</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
-  </si>
-  <si>
-    <t>templateFormat</t>
-  </si>
-  <si>
-    <t>template format</t>
-  </si>
-  <si>
-    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
-  </si>
-  <si>
-    <t>templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
-  </si>
-  <si>
-    <t>text direction</t>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedShort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsignedByte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positiveInteger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A URI template property that may be used to create a unique identifier for each cell within a row when mapping data to other formats</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>aboutUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>propertyUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>property URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>about URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An URI template property that holds one or more strings that may be expanded to URIs for properties if the table is mapped to another format. The default value of propertyUrl is "{#_name}".</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueUrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An URI template property that is used to define one or more resources value of a cell instead of a literal values.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdfs:Class</t>
-  </si>
-  <si>
-    <t>Column Description</t>
-  </si>
-  <si>
-    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
-  </si>
-  <si>
-    <t>skipInitialSpace</t>
-  </si>
-  <si>
-    <t>skip initial space</t>
-  </si>
-  <si>
-    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
-  </si>
-  <si>
-    <t>skipColumns</t>
+  </si>
+  <si>
+    <t>If true, sets the escape character flag to ". If false, to \\.</t>
+  </si>
+  <si>
+    <t>encoding</t>
+  </si>
+  <si>
+    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
+  </si>
+  <si>
+    <t>foreignKeys</t>
+  </si>
+  <si>
+    <t>foreign keys</t>
+  </si>
+  <si>
+    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
+  </si>
+  <si>
+    <t>table direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
+  </si>
+  <si>
+    <t>targetFormat</t>
+  </si>
+  <si>
+    <t>target format</t>
+  </si>
+  <si>
+    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>The exact length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>lineTerminator</t>
+  </si>
+  <si>
+    <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
+For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/terms/</t>
+    </r>
+  </si>
+  <si>
+    <t>dc11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.org/dc/elements/1.1/</t>
+    </r>
+  </si>
+  <si>
+    <t>dcat</t>
+  </si>
+  <si>
+    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
+  </si>
+  <si>
+    <t>primaryKey</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
+  </si>
+  <si>
+    <t>quoteChar</t>
+  </si>
+  <si>
+    <t>quote char</t>
+  </si>
+  <si>
+    <t>The character that is used around escaped cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Template,Column</t>
+  </si>
+  <si>
+    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
+For a Column: A natural language property that provides possible alternative names for the column.</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
+  </si>
+  <si>
+    <t>skip blank rows</t>
+  </si>
+  <si>
+    <t>TableGroup,Table,Schema,Column</t>
+  </si>
+  <si>
+    <t>skipBlankRows</t>
+  </si>
+  <si>
+    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:integer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>skip columns</t>
-  </si>
-  <si>
-    <t>If true, sets the trim flag to "start". If false, to false.</t>
-  </si>
-  <si>
-    <t>skipRows</t>
-  </si>
-  <si>
-    <t>skip rows</t>
+    <t>@vocab</t>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table,Template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsd:anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>The number of rows to skip at the beginning of the file, before a header row or tabular data.</t>
@@ -380,10 +915,6 @@
   </si>
   <si>
     <t>rdf:XMLLiteral</t>
-  </si>
-  <si>
-    <t>anySimpleType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
@@ -552,811 +1083,317 @@
     <t>dc</t>
   </si>
   <si>
-    <t>An atomic property that gives a canonical name for the column. This must be a string. Conversion specifications must use this property as the basis for the names of properties/elements/attributes in the results of conversions.</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>An array of objects representing annotations. This specification does not place any constraints on the structure of these objects.</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>The string used for null values. If not specified, the default for this is the empty string.</t>
-  </si>
-  <si>
-    <t>primaryKey</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>A column reference property that holds either a single reference to a column description object or an array of references.</t>
-  </si>
-  <si>
-    <t>quoteChar</t>
-  </si>
-  <si>
-    <t>quote char</t>
-  </si>
-  <si>
-    <t>The character that is used around escaped cells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl or csvw:ltr. Indicates whether the text within cells should be displayed by default as left-to-right or right-to-left text. </t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Template,Column</t>
-  </si>
-  <si>
-    <t>For a Template: A natural language property that describes the format that will be generated from the transformation. This is useful if the target format is a generic format (such as application/json) and the transformation is creating a specific profile of that format.
-For a Column: A natural language property that provides possible alternative names for the column.</t>
-  </si>
-  <si>
-    <t>trim</t>
-  </si>
-  <si>
-    <t>Indicates whether to trim whitespace around cells; may be true, false, start or end. The default is false.</t>
-  </si>
-  <si>
-    <t>skip blank rows</t>
-  </si>
-  <si>
-    <t>TableGroup,Table,Schema,Column</t>
-  </si>
-  <si>
-    <t>skipBlankRows</t>
-  </si>
-  <si>
-    <t>A character that, when it appears at the beginning of a skipped row, indicates a comment that should be associated as a comment annotation to the table. The default is "#".</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:integer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>A URL for the format that is used by the template. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/application/javascript. Otherwise, it can be any URL that describes the template format.</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array of template specifications that provide mechanisms to transform the tabular data into other formats. </t>
+  </si>
+  <si>
+    <t>text direction</t>
+  </si>
+  <si>
+    <t>unsignedInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedShort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsignedByte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positiveInteger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URI template property that may be used to create a unique identifier for each cell within a row when mapping data to other formats</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboutUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>property URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>about URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that holds one or more strings that may be expanded to URIs for properties if the table is mapped to another format. The default value of propertyUrl is "{#_name}".</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>valueUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An URI template property that is used to define one or more resources value of a cell instead of a literal values.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Class</t>
+  </si>
+  <si>
+    <t>Column Description</t>
+  </si>
+  <si>
+    <t>The main datatype of the values of the cell. If the cell contains a list (ie separator is specified and not null) then this is the datatype of each value within the list.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>The number of columns to skip at the beginning of each row, before any header columns. The default is 0.</t>
+  </si>
+  <si>
+    <t>skipInitialSpace</t>
+  </si>
+  <si>
+    <t>skip initial space</t>
+  </si>
+  <si>
+    <t>Indicates whether to ignore wholly empty rows (ie rows in which all the cells are empty). The default is false.</t>
+  </si>
+  <si>
+    <t>skipColumns</t>
   </si>
   <si>
     <t>xsd:anyURI</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>@vocab</t>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table,Template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:anyURI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>An atomic property holding a single string that provides a default string value for the cell in cases where the original string value is a null value. This default value may be used when converting the table into other formats.</t>
-  </si>
-  <si>
-    <t>delimiter</t>
-  </si>
-  <si>
-    <t>The separator between cells. The default is ",".</t>
-  </si>
-  <si>
-    <t>dialect</t>
-  </si>
-  <si>
-    <t>TableGroup,Table</t>
-  </si>
-  <si>
-    <t>Provides hints to processors about how to parse the referenced files for to create tabular data models for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>doubleQuote</t>
-  </si>
-  <si>
-    <t>double quote</t>
+    <t>skip columns</t>
+  </si>
+  <si>
+    <t>If true, sets the trim flag to "start". If false, to false.</t>
+  </si>
+  <si>
+    <t>skipRows</t>
+  </si>
+  <si>
+    <t>skip rows</t>
+  </si>
+  <si>
+    <t>A Column Description describes a single column.</t>
+  </si>
+  <si>
+    <t>Dialect Description</t>
+  </si>
+  <si>
+    <t>A Dialect Description provides hints to parsers about how to parse a linked file.</t>
+  </si>
+  <si>
+    <t>The class of table/text directions.</t>
+  </si>
+  <si>
+    <t>Relates a Table to each Row output.</t>
+  </si>
+  <si>
+    <t>xsd:language</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableSchema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>table schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>csvw:uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYearMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gYear</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonthDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gMonth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexBinary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyURI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Schema is a definition of a tabular format that may be common to multiple tables.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
+    <t>Table Group Description</t>
+  </si>
+  <si>
+    <t>Template Specification</t>
+  </si>
+  <si>
+    <t>A Template Specification is a definition of how tabular data can be transformed into another format.</t>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+  </si>
+  <si>
+    <t>A literal containing JSON.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>xsd:base64Binary</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>xsd:dateTime</t>
+  </si>
+  <si>
+    <t>describedby</t>
+  </si>
+  <si>
+    <t>wrds:describedby</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>rdf:HTML</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>suppressOutput</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppress output</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table,Column</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xsd:boolean</t>
-  </si>
-  <si>
-    <t>If true, sets the escape character flag to ". If false, to \\.</t>
-  </si>
-  <si>
-    <t>encoding</t>
-  </si>
-  <si>
-    <t>The character encoding for the file, one of the encodings listed in [encoding]. The default is utf-8.</t>
-  </si>
-  <si>
-    <t>foreignKeys</t>
-  </si>
-  <si>
-    <t>foreign keys</t>
-  </si>
-  <si>
-    <t>An array of foreign key definitions that define how the values from specified columns within this table link to rows within this table or other tables.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>Relates an Table group to annotated tables. (Note, this is different from csvw:resources, which relates metadata, rather than resulting annotated table descriptions.</t>
-  </si>
-  <si>
-    <t>table direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of csvw:rtl csvw:ltr or csvw:default. Indicates whether the tables in the group should be displayed with the first column on the right, on the left, or based on the first character in the table that has a specific direction. </t>
-  </si>
-  <si>
-    <t>targetFormat</t>
-  </si>
-  <si>
-    <t>target format</t>
-  </si>
-  <si>
-    <t>A language code as defined by [BCP47]. Indicates the language of the value within the cell.</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>The exact length of the value of the cell.</t>
-  </si>
-  <si>
-    <t>lineTerminator</t>
-  </si>
-  <si>
-    <t>For a Table: This link property gives the single URL of the CSV file that the table is held in, relative to the location of the metadata document.
-For a Template: A link property giving the single URL of the file that the template is held in, relative to the location of the metadata document.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/terms/</t>
-    </r>
-  </si>
-  <si>
-    <t>dc11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/dc/elements/1.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>dcat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/dcat#</t>
-    </r>
-  </si>
-  <si>
-    <t>dcterms</t>
-  </si>
-  <si>
-    <t>foaf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://xmlns.com/foaf/0.1/</t>
-    </r>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/goodrelations/v1#</t>
-    </r>
-  </si>
-  <si>
-    <t>grddl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2003/g/data-view#</t>
-    </r>
-  </si>
-  <si>
-    <t>ical</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/12/cal/icaltzd#</t>
-    </r>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/ma-ont#</t>
-    </r>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://ogp.me/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/org#</t>
-    </r>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2002/07/owl#</t>
-    </r>
-  </si>
-  <si>
-    <t>prov</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/prov#</t>
-    </r>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/linked-data/cube#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/rdfa#</t>
-    </r>
-  </si>
-  <si>
-    <t>rdfs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2000/01/rdf-schema#</t>
-    </r>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.org/stuff/rev#</t>
-    </r>
-  </si>
-  <si>
-    <t>rif</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/rif#</t>
-    </r>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/r2rml#</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://schema.org/</t>
-    </r>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/ns/sparql-service-description#</t>
-    </r>
-  </si>
-  <si>
-    <t>sioc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/sioc/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>A boolean value which indicates whether every cell within the column must have a non-null value.</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>TableGroup</t>
-  </si>
-  <si>
-    <t>An array of table descriptions for the tables in the group.</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>rdfs:member</t>
-  </si>
-  <si>
-    <t>xsd</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2001/XMLSchema#</t>
-    </r>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>rdf:Property</t>
-  </si>
-  <si>
-    <t>Schema</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>An array of Column Descriptions.</t>
-  </si>
-  <si>
-    <t>commentPrefix</t>
-  </si>
-  <si>
-    <t>comment prefix</t>
-  </si>
-  <si>
-    <t>Dialect</t>
-  </si>
-  <si>
-    <t>An object property that provides a schema description for an individual table, or all the tables in a group.</t>
-  </si>
-  <si>
-    <t>separator</t>
-  </si>
-  <si>
-    <t>The character used to separate items in the string value of the cell.</t>
-  </si>
-  <si>
-    <t>skos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2004/02/skos/core#</t>
-    </r>
-  </si>
-  <si>
-    <t>skosxl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2008/05/skos-xl#</t>
-    </r>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdf.data-vocabulary.org/#</t>
-    </r>
-  </si>
-  <si>
-    <t>vcard</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2006/vcard/ns#</t>
-    </r>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://rdfs.org/ns/void#</t>
-    </r>
-  </si>
-  <si>
-    <t>wdr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder#</t>
-    </r>
-  </si>
-  <si>
-    <t>wrds</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/2007/05/powder-s#</t>
-    </r>
-  </si>
-  <si>
-    <t>xhv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/1999/xhtml/vocab#</t>
-    </r>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.w3.org/XML/1998/namespace</t>
-    </r>
-  </si>
-  <si>
-    <t>delimiter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Table describes an Annotated Table.</t>
-  </si>
-  <si>
-    <t>A Table Group describes an Annotated Table Group.</t>
-  </si>
-  <si>
-    <t>virtual</t>
-  </si>
-  <si>
-    <t>A boolean atomic property taking a single value which indicates whether the column is a virtual column not present in the original source</t>
-  </si>
-  <si>
-    <t>textDirection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableDirection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>csvEncodedTabularData</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>prov:Role</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSV Encoded Tabular Data</t>
-  </si>
-  <si>
-    <t>Describes the role of a CSV file in the tabular data mapping.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabularMetadata</t>
-  </si>
-  <si>
-    <t>Tabular Metadata</t>
-  </si>
-  <si>
-    <t>Describes the role of a Metadata file in the tabular data mapping.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A definition of the format of the cell, used when parsing the cell.</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>headerColumnCount</t>
-  </si>
-  <si>
-    <t>header column count</t>
-  </si>
-  <si>
-    <t>xsd:nonNegativeInteger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of header columns (following the skipped columns) in each row. The default is 0.
-</t>
-  </si>
-  <si>
-    <t>headerRowCount</t>
-  </si>
-  <si>
-    <t>header row count</t>
-  </si>
-  <si>
-    <t>The number of header rows (following the skipped rows) in the file. The default is 1.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>subClassOf</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>ltr</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>left to right</t>
-  </si>
-  <si>
-    <t>Indicates text should be processed left to right.</t>
-  </si>
-  <si>
-    <t>rtl</t>
-  </si>
-  <si>
-    <t>max exclusive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A boolean atomic property. If true, suppresses any output that would be generated when converting a table or cells within a column.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLength</t>
+  </si>
+  <si>
+    <t>min length</t>
+  </si>
+  <si>
+    <t>The minimum length of the value of the cell.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>uri template</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uriTemplate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdfs:Datatype</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A URL for the format that will be created through the transformation. If one has been defined, this should be a URL for a media type, in the form http://www.iana.org/assignments/media-types/media-type such as http://www.iana.org/assignments/media-types/text/calendar. Otherwise, it can be any URL that describes the target format.</t>
+  </si>
+  <si>
+    <t>templateFormat</t>
+  </si>
+  <si>
+    <t>template format</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1495,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1483,6 +1520,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -2803,11 +2842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:IV148"/>
+  <dimension ref="A1:IV153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.125" defaultRowHeight="15" customHeight="1"/>
@@ -2822,22 +2861,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>312</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>313</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>316</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>"@type"</f>
@@ -2848,21 +2887,21 @@
         <v>@container</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>319</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2871,18 +2910,18 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>323</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2891,19 +2930,19 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2914,14 +2953,14 @@
     </row>
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2932,14 +2971,14 @@
     </row>
     <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2950,14 +2989,14 @@
     </row>
     <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2968,14 +3007,14 @@
     </row>
     <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2986,14 +3025,14 @@
     </row>
     <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3004,14 +3043,14 @@
     </row>
     <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3022,14 +3061,14 @@
     </row>
     <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3040,14 +3079,14 @@
     </row>
     <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3058,14 +3097,14 @@
     </row>
     <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>216</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3076,14 +3115,14 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3094,14 +3133,14 @@
     </row>
     <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3112,14 +3151,14 @@
     </row>
     <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3130,14 +3169,14 @@
     </row>
     <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3148,14 +3187,14 @@
     </row>
     <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="4" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3166,14 +3205,14 @@
     </row>
     <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3184,14 +3223,14 @@
     </row>
     <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="4" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -3202,14 +3241,14 @@
     </row>
     <row r="21" spans="1:10" ht="19" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -3220,14 +3259,14 @@
     </row>
     <row r="22" spans="1:10" ht="19" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -3238,14 +3277,14 @@
     </row>
     <row r="23" spans="1:10" ht="19" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3256,14 +3295,14 @@
     </row>
     <row r="24" spans="1:10" ht="19" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="4" t="s">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3274,14 +3313,14 @@
     </row>
     <row r="25" spans="1:10" ht="19" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3292,14 +3331,14 @@
     </row>
     <row r="26" spans="1:10" ht="19" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -3310,14 +3349,14 @@
     </row>
     <row r="27" spans="1:10" ht="19" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -3328,14 +3367,14 @@
     </row>
     <row r="28" spans="1:10" ht="19" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3346,14 +3385,14 @@
     </row>
     <row r="29" spans="1:10" ht="19" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -3364,14 +3403,14 @@
     </row>
     <row r="30" spans="1:10" ht="19" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3382,14 +3421,14 @@
     </row>
     <row r="31" spans="1:10" ht="19" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="4" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -3400,14 +3439,14 @@
     </row>
     <row r="32" spans="1:10" ht="19" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="4" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -3418,14 +3457,14 @@
     </row>
     <row r="33" spans="1:256" ht="19" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -3436,14 +3475,14 @@
     </row>
     <row r="34" spans="1:256" ht="19" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>276</v>
+        <v>119</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="4" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -3454,14 +3493,14 @@
     </row>
     <row r="35" spans="1:256" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="4" t="s">
-        <v>279</v>
+        <v>122</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3472,14 +3511,14 @@
     </row>
     <row r="36" spans="1:256" ht="19" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="4" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3490,14 +3529,14 @@
     </row>
     <row r="37" spans="1:256" ht="19" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>282</v>
+        <v>125</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3508,14 +3547,14 @@
     </row>
     <row r="38" spans="1:256" ht="19" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3526,14 +3565,14 @@
     </row>
     <row r="39" spans="1:256" ht="19" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3544,13 +3583,13 @@
     </row>
     <row r="40" spans="1:256" ht="19" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -3559,18 +3598,18 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="7" t="s">
-        <v>298</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:256" ht="19" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
@@ -3579,49 +3618,49 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="7" t="s">
-        <v>301</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:256" ht="45" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="19" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4" t="str">
@@ -3630,57 +3669,57 @@
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:256" ht="60" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="60" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11" t="s">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
@@ -3931,188 +3970,188 @@
     </row>
     <row r="46" spans="1:256" ht="75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:256" ht="19" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:256" ht="45" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="6" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="45" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="6" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="6" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="19" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -4121,284 +4160,284 @@
     </row>
     <row r="54" spans="1:10" ht="45" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="6" t="s">
-        <v>307</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>309</v>
+        <v>25</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="6" t="s">
-        <v>310</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="6" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="6" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="19" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="4" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="19" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="4" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="19" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="6" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="19" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="4" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="19" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="4" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="19" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>44</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="4" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -4406,167 +4445,167 @@
         <v>1</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="6" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="4" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="45" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="6" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="19" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="6" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="4" t="str">
@@ -4577,24 +4616,24 @@
         <v>1</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="19" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -4604,195 +4643,195 @@
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="6" t="s">
-        <v>4</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="6" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="45" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="6" t="s">
-        <v>84</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="45" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="6" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="19" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="6" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="135" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="4" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="135" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="60" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4" t="str">
@@ -4801,25 +4840,25 @@
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>292</v>
+        <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="4" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="G82" s="4" t="str">
         <f>"@vocab"</f>
@@ -4828,121 +4867,121 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="6" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="4" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="6" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="120" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="6" t="s">
-        <v>51</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="120" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="6" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="45" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="45" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>291</v>
+        <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="G87" s="4" t="str">
         <f>"@vocab"</f>
@@ -4951,22 +4990,22 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="135" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -4976,114 +5015,114 @@
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="6" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="45" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="45" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="4" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="6" t="s">
-        <v>290</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="19" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5092,18 +5131,18 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="6" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="30" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5112,18 +5151,18 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="6" t="s">
-        <v>2</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="19" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5132,18 +5171,18 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="6" t="s">
-        <v>3</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -5152,18 +5191,18 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="6" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="30" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -5172,18 +5211,18 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="6" t="s">
-        <v>287</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -5192,18 +5231,18 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="6" t="s">
-        <v>288</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="45" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -5212,21 +5251,21 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="6" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="19" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5234,21 +5273,21 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="6" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="19" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5259,14 +5298,14 @@
     </row>
     <row r="102" spans="1:10" ht="19" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5277,14 +5316,14 @@
     </row>
     <row r="103" spans="1:10" ht="19" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -5295,14 +5334,14 @@
     </row>
     <row r="104" spans="1:10" ht="19" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -5313,14 +5352,14 @@
     </row>
     <row r="105" spans="1:10" ht="19" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5331,14 +5370,14 @@
     </row>
     <row r="106" spans="1:10" ht="19" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5349,14 +5388,14 @@
     </row>
     <row r="107" spans="1:10" ht="19" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5367,14 +5406,14 @@
     </row>
     <row r="108" spans="1:10" ht="19" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="5"/>
@@ -5385,14 +5424,14 @@
     </row>
     <row r="109" spans="1:10" ht="19" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="4" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="5"/>
@@ -5403,14 +5442,14 @@
     </row>
     <row r="110" spans="1:10" ht="19" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="4" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5421,14 +5460,14 @@
     </row>
     <row r="111" spans="1:10" ht="19" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="4" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5439,14 +5478,14 @@
     </row>
     <row r="112" spans="1:10" ht="19" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="4" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -5455,17 +5494,17 @@
       <c r="I112" s="5"/>
       <c r="J112" s="7"/>
     </row>
-    <row r="113" spans="1:10" ht="15" customHeight="1">
+    <row r="113" spans="1:256" ht="15" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="str">
         <f>CONCATENATE("xsd:",A113)</f>
-        <v>xsd:anySimpleType</v>
+        <v>xsd:anyURI</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5474,17 +5513,17 @@
       <c r="I113" s="5"/>
       <c r="J113" s="7"/>
     </row>
-    <row r="114" spans="1:10" ht="15" customHeight="1">
+    <row r="114" spans="1:256" ht="15" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="str">
-        <f t="shared" ref="D114:D148" si="0">CONCATENATE("xsd:",A114)</f>
-        <v>xsd:string</v>
+        <f>CONCATENATE("xsd:",A114)</f>
+        <v>xsd:base64Binary</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5493,17 +5532,17 @@
       <c r="I114" s="5"/>
       <c r="J114" s="7"/>
     </row>
-    <row r="115" spans="1:10" ht="15" customHeight="1">
+    <row r="115" spans="1:256" ht="15" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:normalizedString</v>
+        <f>CONCATENATE("xsd:",A115)</f>
+        <v>xsd:boolean</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5512,17 +5551,17 @@
       <c r="I115" s="5"/>
       <c r="J115" s="7"/>
     </row>
-    <row r="116" spans="1:10" ht="15" customHeight="1">
+    <row r="116" spans="1:256" ht="15" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:token</v>
+        <f>CONCATENATE("xsd:",A116)</f>
+        <v>xsd:byte</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5531,17 +5570,17 @@
       <c r="I116" s="5"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" ht="15" customHeight="1">
+    <row r="117" spans="1:256" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:Name</v>
+        <f>CONCATENATE("xsd:",A117)</f>
+        <v>xsd:date</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5550,17 +5589,17 @@
       <c r="I117" s="5"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="1:10" ht="15" customHeight="1">
+    <row r="118" spans="1:256" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:NCName</v>
+        <f>CONCATENATE("xsd:",A118)</f>
+        <v>xsd:dateTime</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5569,17 +5608,17 @@
       <c r="I118" s="5"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10" ht="15" customHeight="1">
+    <row r="119" spans="1:256" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:boolean</v>
+        <f>CONCATENATE("xsd:",A119)</f>
+        <v>xsd:dateTimeDuration</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5588,16 +5627,17 @@
       <c r="I119" s="5"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10" ht="15" customHeight="1">
+    <row r="120" spans="1:256" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="C120" s="4"/>
-      <c r="D120" s="4" t="s">
-        <v>5</v>
+      <c r="D120" s="4" t="str">
+        <f>CONCATENATE("xsd:",A120)</f>
+        <v>xsd:dateTimeStamp</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5606,16 +5646,16 @@
       <c r="I120" s="5"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="1:10" ht="15" customHeight="1">
+    <row r="121" spans="1:256" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("xsd:",A121)</f>
         <v>xsd:decimal</v>
       </c>
       <c r="E121" s="5"/>
@@ -5625,17 +5665,17 @@
       <c r="I121" s="5"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="1:10" ht="15" customHeight="1">
+    <row r="122" spans="1:256" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:integer</v>
+        <f>CONCATENATE("xsd:",A122)</f>
+        <v>xsd:double</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5644,17 +5684,17 @@
       <c r="I122" s="5"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="1:10" ht="15" customHeight="1">
+    <row r="123" spans="1:256" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:nonPositiveInteger</v>
+        <f>CONCATENATE("xsd:",A123)</f>
+        <v>xsd:duration</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -5663,17 +5703,16 @@
       <c r="I123" s="5"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="1:10" ht="15" customHeight="1">
-      <c r="A124" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>xsd:negativeInteger</v>
+    <row r="124" spans="1:256" ht="15" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5681,18 +5720,264 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="7"/>
-    </row>
-    <row r="125" spans="1:10" ht="15" customHeight="1">
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12"/>
+      <c r="AC124" s="12"/>
+      <c r="AD124" s="12"/>
+      <c r="AE124" s="12"/>
+      <c r="AF124" s="12"/>
+      <c r="AG124" s="12"/>
+      <c r="AH124" s="12"/>
+      <c r="AI124" s="12"/>
+      <c r="AJ124" s="12"/>
+      <c r="AK124" s="12"/>
+      <c r="AL124" s="12"/>
+      <c r="AM124" s="12"/>
+      <c r="AN124" s="12"/>
+      <c r="AO124" s="12"/>
+      <c r="AP124" s="12"/>
+      <c r="AQ124" s="12"/>
+      <c r="AR124" s="12"/>
+      <c r="AS124" s="12"/>
+      <c r="AT124" s="12"/>
+      <c r="AU124" s="12"/>
+      <c r="AV124" s="12"/>
+      <c r="AW124" s="12"/>
+      <c r="AX124" s="12"/>
+      <c r="AY124" s="12"/>
+      <c r="AZ124" s="12"/>
+      <c r="BA124" s="12"/>
+      <c r="BB124" s="12"/>
+      <c r="BC124" s="12"/>
+      <c r="BD124" s="12"/>
+      <c r="BE124" s="12"/>
+      <c r="BF124" s="12"/>
+      <c r="BG124" s="12"/>
+      <c r="BH124" s="12"/>
+      <c r="BI124" s="12"/>
+      <c r="BJ124" s="12"/>
+      <c r="BK124" s="12"/>
+      <c r="BL124" s="12"/>
+      <c r="BM124" s="12"/>
+      <c r="BN124" s="12"/>
+      <c r="BO124" s="12"/>
+      <c r="BP124" s="12"/>
+      <c r="BQ124" s="12"/>
+      <c r="BR124" s="12"/>
+      <c r="BS124" s="12"/>
+      <c r="BT124" s="12"/>
+      <c r="BU124" s="12"/>
+      <c r="BV124" s="12"/>
+      <c r="BW124" s="12"/>
+      <c r="BX124" s="12"/>
+      <c r="BY124" s="12"/>
+      <c r="BZ124" s="12"/>
+      <c r="CA124" s="12"/>
+      <c r="CB124" s="12"/>
+      <c r="CC124" s="12"/>
+      <c r="CD124" s="12"/>
+      <c r="CE124" s="12"/>
+      <c r="CF124" s="12"/>
+      <c r="CG124" s="12"/>
+      <c r="CH124" s="12"/>
+      <c r="CI124" s="12"/>
+      <c r="CJ124" s="12"/>
+      <c r="CK124" s="12"/>
+      <c r="CL124" s="12"/>
+      <c r="CM124" s="12"/>
+      <c r="CN124" s="12"/>
+      <c r="CO124" s="12"/>
+      <c r="CP124" s="12"/>
+      <c r="CQ124" s="12"/>
+      <c r="CR124" s="12"/>
+      <c r="CS124" s="12"/>
+      <c r="CT124" s="12"/>
+      <c r="CU124" s="12"/>
+      <c r="CV124" s="12"/>
+      <c r="CW124" s="12"/>
+      <c r="CX124" s="12"/>
+      <c r="CY124" s="12"/>
+      <c r="CZ124" s="12"/>
+      <c r="DA124" s="12"/>
+      <c r="DB124" s="12"/>
+      <c r="DC124" s="12"/>
+      <c r="DD124" s="12"/>
+      <c r="DE124" s="12"/>
+      <c r="DF124" s="12"/>
+      <c r="DG124" s="12"/>
+      <c r="DH124" s="12"/>
+      <c r="DI124" s="12"/>
+      <c r="DJ124" s="12"/>
+      <c r="DK124" s="12"/>
+      <c r="DL124" s="12"/>
+      <c r="DM124" s="12"/>
+      <c r="DN124" s="12"/>
+      <c r="DO124" s="12"/>
+      <c r="DP124" s="12"/>
+      <c r="DQ124" s="12"/>
+      <c r="DR124" s="12"/>
+      <c r="DS124" s="12"/>
+      <c r="DT124" s="12"/>
+      <c r="DU124" s="12"/>
+      <c r="DV124" s="12"/>
+      <c r="DW124" s="12"/>
+      <c r="DX124" s="12"/>
+      <c r="DY124" s="12"/>
+      <c r="DZ124" s="12"/>
+      <c r="EA124" s="12"/>
+      <c r="EB124" s="12"/>
+      <c r="EC124" s="12"/>
+      <c r="ED124" s="12"/>
+      <c r="EE124" s="12"/>
+      <c r="EF124" s="12"/>
+      <c r="EG124" s="12"/>
+      <c r="EH124" s="12"/>
+      <c r="EI124" s="12"/>
+      <c r="EJ124" s="12"/>
+      <c r="EK124" s="12"/>
+      <c r="EL124" s="12"/>
+      <c r="EM124" s="12"/>
+      <c r="EN124" s="12"/>
+      <c r="EO124" s="12"/>
+      <c r="EP124" s="12"/>
+      <c r="EQ124" s="12"/>
+      <c r="ER124" s="12"/>
+      <c r="ES124" s="12"/>
+      <c r="ET124" s="12"/>
+      <c r="EU124" s="12"/>
+      <c r="EV124" s="12"/>
+      <c r="EW124" s="12"/>
+      <c r="EX124" s="12"/>
+      <c r="EY124" s="12"/>
+      <c r="EZ124" s="12"/>
+      <c r="FA124" s="12"/>
+      <c r="FB124" s="12"/>
+      <c r="FC124" s="12"/>
+      <c r="FD124" s="12"/>
+      <c r="FE124" s="12"/>
+      <c r="FF124" s="12"/>
+      <c r="FG124" s="12"/>
+      <c r="FH124" s="12"/>
+      <c r="FI124" s="12"/>
+      <c r="FJ124" s="12"/>
+      <c r="FK124" s="12"/>
+      <c r="FL124" s="12"/>
+      <c r="FM124" s="12"/>
+      <c r="FN124" s="12"/>
+      <c r="FO124" s="12"/>
+      <c r="FP124" s="12"/>
+      <c r="FQ124" s="12"/>
+      <c r="FR124" s="12"/>
+      <c r="FS124" s="12"/>
+      <c r="FT124" s="12"/>
+      <c r="FU124" s="12"/>
+      <c r="FV124" s="12"/>
+      <c r="FW124" s="12"/>
+      <c r="FX124" s="12"/>
+      <c r="FY124" s="12"/>
+      <c r="FZ124" s="12"/>
+      <c r="GA124" s="12"/>
+      <c r="GB124" s="12"/>
+      <c r="GC124" s="12"/>
+      <c r="GD124" s="12"/>
+      <c r="GE124" s="12"/>
+      <c r="GF124" s="12"/>
+      <c r="GG124" s="12"/>
+      <c r="GH124" s="12"/>
+      <c r="GI124" s="12"/>
+      <c r="GJ124" s="12"/>
+      <c r="GK124" s="12"/>
+      <c r="GL124" s="12"/>
+      <c r="GM124" s="12"/>
+      <c r="GN124" s="12"/>
+      <c r="GO124" s="12"/>
+      <c r="GP124" s="12"/>
+      <c r="GQ124" s="12"/>
+      <c r="GR124" s="12"/>
+      <c r="GS124" s="12"/>
+      <c r="GT124" s="12"/>
+      <c r="GU124" s="12"/>
+      <c r="GV124" s="12"/>
+      <c r="GW124" s="12"/>
+      <c r="GX124" s="12"/>
+      <c r="GY124" s="12"/>
+      <c r="GZ124" s="12"/>
+      <c r="HA124" s="12"/>
+      <c r="HB124" s="12"/>
+      <c r="HC124" s="12"/>
+      <c r="HD124" s="12"/>
+      <c r="HE124" s="12"/>
+      <c r="HF124" s="12"/>
+      <c r="HG124" s="12"/>
+      <c r="HH124" s="12"/>
+      <c r="HI124" s="12"/>
+      <c r="HJ124" s="12"/>
+      <c r="HK124" s="12"/>
+      <c r="HL124" s="12"/>
+      <c r="HM124" s="12"/>
+      <c r="HN124" s="12"/>
+      <c r="HO124" s="12"/>
+      <c r="HP124" s="12"/>
+      <c r="HQ124" s="12"/>
+      <c r="HR124" s="12"/>
+      <c r="HS124" s="12"/>
+      <c r="HT124" s="12"/>
+      <c r="HU124" s="12"/>
+      <c r="HV124" s="12"/>
+      <c r="HW124" s="12"/>
+      <c r="HX124" s="12"/>
+      <c r="HY124" s="12"/>
+      <c r="HZ124" s="12"/>
+      <c r="IA124" s="12"/>
+      <c r="IB124" s="12"/>
+      <c r="IC124" s="12"/>
+      <c r="ID124" s="12"/>
+  